--- a/local/Actividades.xlsx
+++ b/local/Actividades.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="57">
   <si>
     <t>ARCHIVO</t>
   </si>
@@ -152,13 +152,46 @@
   </si>
   <si>
     <t>Ajustar para que sea responsive</t>
+  </si>
+  <si>
+    <t>Validacion de formulario de configuracion</t>
+  </si>
+  <si>
+    <t>Nombre del usuario en el header</t>
+  </si>
+  <si>
+    <t>Actualizacion de datos en el menu configuracion.</t>
+  </si>
+  <si>
+    <t>Alerta de confirmacion de actualizacion de datos.</t>
+  </si>
+  <si>
+    <t>Retiro de funcion eliminar en la lista de trabajadores.</t>
+  </si>
+  <si>
+    <t>Maquetación de ventana modal para editar registros.</t>
+  </si>
+  <si>
+    <t>Actulizacion de registros en la BD</t>
+  </si>
+  <si>
+    <t>Cambio de imagen</t>
+  </si>
+  <si>
+    <t>Mini dash para la entrada del administrador.</t>
+  </si>
+  <si>
+    <t>Middleware para el provilegio de login en administrador</t>
+  </si>
+  <si>
+    <t>Reenviar clave por correo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,6 +218,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -296,7 +335,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -305,24 +344,37 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -332,19 +384,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -649,10 +689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P37"/>
+  <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,44 +708,44 @@
     <col min="9" max="15" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -735,132 +775,132 @@
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="8">
         <v>43147</v>
       </c>
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F8" s="8"/>
+      <c r="F8" s="6"/>
       <c r="G8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="13"/>
+      <c r="H8" s="9"/>
       <c r="P8" s="1"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F9" s="8"/>
+      <c r="F9" s="6"/>
       <c r="G9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="13"/>
+      <c r="H9" s="9"/>
       <c r="P9" s="1"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F10" s="8"/>
+      <c r="F10" s="6"/>
       <c r="G10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="13"/>
+      <c r="H10" s="9"/>
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="8"/>
+      <c r="F11" s="6"/>
       <c r="G11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="13"/>
+      <c r="H11" s="9"/>
       <c r="P11" s="1"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="8"/>
+      <c r="F12" s="6"/>
       <c r="G12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="13"/>
+      <c r="H12" s="9"/>
       <c r="P12" s="1"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="8"/>
+      <c r="F13" s="6"/>
       <c r="G13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="13"/>
+      <c r="H13" s="9"/>
       <c r="P13" s="1"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="8"/>
+      <c r="F14" s="6"/>
       <c r="G14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="13"/>
+      <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="8"/>
+      <c r="F15" s="6"/>
       <c r="G15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="13"/>
+      <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="9"/>
+      <c r="F16" s="7"/>
       <c r="G16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="14"/>
-    </row>
-    <row r="17" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="5" t="s">
         <v>35</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="8">
         <v>43150</v>
       </c>
     </row>
@@ -868,103 +908,103 @@
       <c r="C19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="8"/>
+      <c r="F19" s="6"/>
       <c r="G19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H19" s="5"/>
+      <c r="H19" s="13"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="8"/>
+      <c r="F20" s="6"/>
       <c r="G20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H20" s="5"/>
+      <c r="H20" s="13"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="8"/>
+      <c r="F21" s="6"/>
       <c r="G21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H21" s="5"/>
+      <c r="H21" s="13"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="8"/>
+      <c r="F22" s="6"/>
       <c r="G22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H22" s="5"/>
+      <c r="H22" s="13"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F23" s="8"/>
+      <c r="F23" s="6"/>
       <c r="G23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H23" s="5"/>
+      <c r="H23" s="13"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C24" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="8"/>
+      <c r="F24" s="6"/>
       <c r="G24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H24" s="5"/>
+      <c r="H24" s="13"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C25" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F25" s="8"/>
+      <c r="F25" s="6"/>
       <c r="G25" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H25" s="5"/>
+      <c r="H25" s="13"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C26" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F26" s="8"/>
+      <c r="F26" s="6"/>
       <c r="G26" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H26" s="5"/>
+      <c r="H26" s="13"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C27" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F27" s="9"/>
+      <c r="F27" s="7"/>
       <c r="G27" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H27" s="6"/>
+      <c r="H27" s="14"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="5" t="s">
         <v>35</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="8">
         <v>43151</v>
       </c>
     </row>
@@ -972,89 +1012,209 @@
       <c r="B29" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F29" s="8"/>
+      <c r="F29" s="6"/>
       <c r="G29" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H29" s="5"/>
+      <c r="H29" s="13"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F30" s="8"/>
+      <c r="F30" s="6"/>
       <c r="G30" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H30" s="5"/>
+      <c r="H30" s="13"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C31" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F31" s="8"/>
+      <c r="F31" s="6"/>
       <c r="G31" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H31" s="5"/>
+      <c r="H31" s="13"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C32" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F32" s="8"/>
+      <c r="F32" s="6"/>
       <c r="G32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H32" s="5"/>
+      <c r="H32" s="13"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F33" s="8"/>
+      <c r="F33" s="6"/>
       <c r="G33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H33" s="5"/>
+      <c r="H33" s="13"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C34" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F34" s="8"/>
+      <c r="F34" s="6"/>
       <c r="G34" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H34" s="5"/>
+      <c r="H34" s="13"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C35" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F35" s="8"/>
+      <c r="F35" s="6"/>
       <c r="G35" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H35" s="5"/>
+      <c r="H35" s="13"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C36" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F36" s="9"/>
+      <c r="F36" s="7"/>
       <c r="G36" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H36" s="6"/>
+      <c r="H36" s="14"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G37" s="17" t="s">
+      <c r="D37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G37" s="18" t="s">
         <v>45</v>
       </c>
+      <c r="H37" s="8">
+        <v>43152</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C38" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38" s="6"/>
+      <c r="G38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" s="13"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C39" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39" s="6"/>
+      <c r="G39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H39" s="13"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C40" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F40" s="6"/>
+      <c r="G40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H40" s="13"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C41" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F41" s="6"/>
+      <c r="G41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H41" s="13"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D42" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F42" s="6"/>
+      <c r="G42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H42" s="13"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F43" s="6"/>
+      <c r="G43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H43" s="13"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C44" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F44" s="6"/>
+      <c r="G44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H44" s="13"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D45" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F45" s="6"/>
+      <c r="G45" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="H45" s="13"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C46" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F46" s="6"/>
+      <c r="G46" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="H46" s="13"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F47" s="6"/>
+      <c r="G47" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H47" s="13"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C48" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F48" s="7"/>
+      <c r="G48" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H48" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="14">
+    <mergeCell ref="H37:H48"/>
+    <mergeCell ref="F37:F48"/>
+    <mergeCell ref="H28:H36"/>
+    <mergeCell ref="F28:F36"/>
+    <mergeCell ref="H18:H27"/>
+    <mergeCell ref="F18:F27"/>
+    <mergeCell ref="A17:XFD17"/>
     <mergeCell ref="F7:F16"/>
     <mergeCell ref="H7:H16"/>
     <mergeCell ref="A1:XFD1"/>
@@ -1062,11 +1222,6 @@
     <mergeCell ref="A3:XFD3"/>
     <mergeCell ref="A4:XFD4"/>
     <mergeCell ref="A5:O5"/>
-    <mergeCell ref="H28:H36"/>
-    <mergeCell ref="F28:F36"/>
-    <mergeCell ref="H18:H27"/>
-    <mergeCell ref="F18:F27"/>
-    <mergeCell ref="A17:XFD17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/local/Actividades.xlsx
+++ b/local/Actividades.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="62">
   <si>
     <t>ARCHIVO</t>
   </si>
@@ -185,6 +185,21 @@
   </si>
   <si>
     <t>Reenviar clave por correo</t>
+  </si>
+  <si>
+    <t>Creación de tabla sucursales en la BD</t>
+  </si>
+  <si>
+    <t>Inserción de datos de las sucursales en la BD</t>
+  </si>
+  <si>
+    <t>Creacion de menú para los usuarios finales</t>
+  </si>
+  <si>
+    <t>Maquetacion de formulario de venta datos del cliente</t>
+  </si>
+  <si>
+    <t>Maquetacion de tabla para el resumen de las ventas.</t>
   </si>
 </sst>
 </file>
@@ -335,7 +350,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -345,6 +360,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -354,8 +379,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -369,22 +400,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -689,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P48"/>
+  <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49:H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -708,44 +732,44 @@
     <col min="9" max="15" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -775,132 +799,132 @@
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="9" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="6">
         <v>43147</v>
       </c>
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F8" s="6"/>
+      <c r="F8" s="10"/>
       <c r="G8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="9"/>
+      <c r="H8" s="15"/>
       <c r="P8" s="1"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F9" s="6"/>
+      <c r="F9" s="10"/>
       <c r="G9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="9"/>
+      <c r="H9" s="15"/>
       <c r="P9" s="1"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F10" s="6"/>
+      <c r="F10" s="10"/>
       <c r="G10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="9"/>
+      <c r="H10" s="15"/>
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="6"/>
+      <c r="F11" s="10"/>
       <c r="G11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="9"/>
+      <c r="H11" s="15"/>
       <c r="P11" s="1"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="6"/>
+      <c r="F12" s="10"/>
       <c r="G12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="9"/>
+      <c r="H12" s="15"/>
       <c r="P12" s="1"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="6"/>
+      <c r="F13" s="10"/>
       <c r="G13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="9"/>
+      <c r="H13" s="15"/>
       <c r="P13" s="1"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="6"/>
+      <c r="F14" s="10"/>
       <c r="G14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="9"/>
+      <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="6"/>
+      <c r="F15" s="10"/>
       <c r="G15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="9"/>
+      <c r="H15" s="15"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="7"/>
+      <c r="F16" s="11"/>
       <c r="G16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="10"/>
-    </row>
-    <row r="17" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
+      <c r="H16" s="16"/>
+    </row>
+    <row r="17" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="9" t="s">
         <v>35</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="6">
         <v>43150</v>
       </c>
     </row>
@@ -908,103 +932,103 @@
       <c r="C19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="6"/>
+      <c r="F19" s="10"/>
       <c r="G19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H19" s="13"/>
+      <c r="H19" s="7"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="6"/>
+      <c r="F20" s="10"/>
       <c r="G20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H20" s="13"/>
+      <c r="H20" s="7"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="6"/>
+      <c r="F21" s="10"/>
       <c r="G21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H21" s="13"/>
+      <c r="H21" s="7"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="6"/>
+      <c r="F22" s="10"/>
       <c r="G22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H22" s="13"/>
+      <c r="H22" s="7"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F23" s="6"/>
+      <c r="F23" s="10"/>
       <c r="G23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H23" s="13"/>
+      <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C24" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="6"/>
+      <c r="F24" s="10"/>
       <c r="G24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H24" s="13"/>
+      <c r="H24" s="7"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C25" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F25" s="6"/>
+      <c r="F25" s="10"/>
       <c r="G25" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H25" s="13"/>
+      <c r="H25" s="7"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C26" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F26" s="6"/>
+      <c r="F26" s="10"/>
       <c r="G26" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H26" s="13"/>
+      <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C27" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F27" s="7"/>
+      <c r="F27" s="11"/>
       <c r="G27" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H27" s="14"/>
+      <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="9" t="s">
         <v>35</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H28" s="8">
+      <c r="H28" s="6">
         <v>43151</v>
       </c>
     </row>
@@ -1012,93 +1036,93 @@
       <c r="B29" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F29" s="6"/>
+      <c r="F29" s="10"/>
       <c r="G29" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H29" s="13"/>
+      <c r="H29" s="7"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F30" s="6"/>
+      <c r="F30" s="10"/>
       <c r="G30" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H30" s="13"/>
+      <c r="H30" s="7"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C31" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F31" s="6"/>
+      <c r="F31" s="10"/>
       <c r="G31" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H31" s="13"/>
+      <c r="H31" s="7"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C32" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F32" s="6"/>
+      <c r="F32" s="10"/>
       <c r="G32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H32" s="13"/>
+      <c r="H32" s="7"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F33" s="6"/>
+      <c r="F33" s="10"/>
       <c r="G33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H33" s="13"/>
+      <c r="H33" s="7"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C34" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F34" s="6"/>
+      <c r="F34" s="10"/>
       <c r="G34" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H34" s="13"/>
+      <c r="H34" s="7"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C35" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F35" s="6"/>
+      <c r="F35" s="10"/>
       <c r="G35" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H35" s="13"/>
+      <c r="H35" s="7"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C36" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F36" s="7"/>
+      <c r="F36" s="11"/>
       <c r="G36" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H36" s="14"/>
+      <c r="H36" s="8"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D37" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="F37" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G37" s="18" t="s">
+      <c r="G37" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H37" s="8">
+      <c r="H37" s="6">
         <v>43152</v>
       </c>
     </row>
@@ -1106,114 +1130,144 @@
       <c r="C38" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F38" s="6"/>
+      <c r="F38" s="10"/>
       <c r="G38" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H38" s="13"/>
+      <c r="H38" s="7"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C39" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F39" s="6"/>
+      <c r="F39" s="10"/>
       <c r="G39" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H39" s="13"/>
+      <c r="H39" s="7"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C40" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F40" s="6"/>
+      <c r="F40" s="10"/>
       <c r="G40" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H40" s="13"/>
+      <c r="H40" s="7"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C41" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F41" s="6"/>
+      <c r="F41" s="10"/>
       <c r="G41" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H41" s="13"/>
+      <c r="H41" s="7"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D42" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F42" s="6"/>
+      <c r="F42" s="10"/>
       <c r="G42" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H42" s="13"/>
+      <c r="H42" s="7"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F43" s="6"/>
+      <c r="F43" s="10"/>
       <c r="G43" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H43" s="13"/>
+      <c r="H43" s="7"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C44" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F44" s="6"/>
+      <c r="F44" s="10"/>
       <c r="G44" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H44" s="13"/>
+      <c r="H44" s="7"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D45" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F45" s="6"/>
-      <c r="G45" s="18" t="s">
+      <c r="F45" s="10"/>
+      <c r="G45" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H45" s="13"/>
+      <c r="H45" s="7"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C46" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F46" s="6"/>
-      <c r="G46" s="18" t="s">
+      <c r="F46" s="10"/>
+      <c r="G46" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="H46" s="13"/>
+      <c r="H46" s="7"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F47" s="6"/>
-      <c r="G47" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H47" s="13"/>
+      <c r="F47" s="10"/>
+      <c r="H47" s="7"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C48" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F48" s="7"/>
+      <c r="F48" s="11"/>
       <c r="G48" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H48" s="14"/>
+      <c r="H48" s="8"/>
+    </row>
+    <row r="49" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G49" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H49" s="19">
+        <v>43153</v>
+      </c>
+    </row>
+    <row r="50" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G50" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H50" s="20"/>
+    </row>
+    <row r="51" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G51" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H51" s="20"/>
+    </row>
+    <row r="52" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G52" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H52" s="20"/>
+    </row>
+    <row r="53" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G53" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H53" s="20"/>
+    </row>
+    <row r="54" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G54" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H54" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="H37:H48"/>
-    <mergeCell ref="F37:F48"/>
-    <mergeCell ref="H28:H36"/>
-    <mergeCell ref="F28:F36"/>
-    <mergeCell ref="H18:H27"/>
-    <mergeCell ref="F18:F27"/>
+  <mergeCells count="15">
+    <mergeCell ref="H49:H54"/>
     <mergeCell ref="A17:XFD17"/>
     <mergeCell ref="F7:F16"/>
     <mergeCell ref="H7:H16"/>
@@ -1222,6 +1276,12 @@
     <mergeCell ref="A3:XFD3"/>
     <mergeCell ref="A4:XFD4"/>
     <mergeCell ref="A5:O5"/>
+    <mergeCell ref="H37:H48"/>
+    <mergeCell ref="F37:F48"/>
+    <mergeCell ref="H28:H36"/>
+    <mergeCell ref="F28:F36"/>
+    <mergeCell ref="H18:H27"/>
+    <mergeCell ref="F18:F27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/local/Actividades.xlsx
+++ b/local/Actividades.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="67">
   <si>
     <t>ARCHIVO</t>
   </si>
@@ -200,13 +200,41 @@
   </si>
   <si>
     <t>Maquetacion de tabla para el resumen de las ventas.</t>
+  </si>
+  <si>
+    <t>Actualizacion de clave en la BD encriptada en formato MD5</t>
+  </si>
+  <si>
+    <t>Envio de clave vía correo electronico.</t>
+  </si>
+  <si>
+    <t>Función para la generacion de clave de 4 digitos aleatoria.</t>
+  </si>
+  <si>
+    <t>Alerta de confirmación de envio de clave.</t>
+  </si>
+  <si>
+    <r>
+      <t>Resumen de la semana: 49 Actividades - Monto facturado: 45 USD - Estado del monto:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Pagado</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,8 +271,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -263,8 +299,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -346,11 +388,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -361,53 +414,62 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -713,10 +775,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P54"/>
+  <dimension ref="A1:P59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49:H54"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59:XFD59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,44 +794,44 @@
     <col min="9" max="15" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+    <row r="3" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+    <row r="4" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -799,132 +861,132 @@
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="6" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="15">
         <v>43147</v>
       </c>
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F8" s="10"/>
+      <c r="F8" s="7"/>
       <c r="G8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="15"/>
+      <c r="H8" s="16"/>
       <c r="P8" s="1"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F9" s="10"/>
+      <c r="F9" s="7"/>
       <c r="G9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="15"/>
+      <c r="H9" s="16"/>
       <c r="P9" s="1"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F10" s="10"/>
+      <c r="F10" s="7"/>
       <c r="G10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="15"/>
+      <c r="H10" s="16"/>
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="10"/>
+      <c r="F11" s="7"/>
       <c r="G11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="15"/>
+      <c r="H11" s="16"/>
       <c r="P11" s="1"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="10"/>
+      <c r="F12" s="7"/>
       <c r="G12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="15"/>
+      <c r="H12" s="16"/>
       <c r="P12" s="1"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="10"/>
+      <c r="F13" s="7"/>
       <c r="G13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="15"/>
+      <c r="H13" s="16"/>
       <c r="P13" s="1"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="10"/>
+      <c r="F14" s="7"/>
       <c r="G14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="15"/>
+      <c r="H14" s="16"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="10"/>
+      <c r="F15" s="7"/>
       <c r="G15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="15"/>
+      <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="11"/>
+      <c r="F16" s="14"/>
       <c r="G16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="16"/>
-    </row>
-    <row r="17" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
+      <c r="H16" s="17"/>
+    </row>
+    <row r="17" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="6" t="s">
         <v>35</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="15">
         <v>43150</v>
       </c>
     </row>
@@ -932,103 +994,103 @@
       <c r="C19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="10"/>
+      <c r="F19" s="7"/>
       <c r="G19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H19" s="7"/>
+      <c r="H19" s="20"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="10"/>
+      <c r="F20" s="7"/>
       <c r="G20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H20" s="7"/>
+      <c r="H20" s="20"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="10"/>
+      <c r="F21" s="7"/>
       <c r="G21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H21" s="7"/>
+      <c r="H21" s="20"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="10"/>
+      <c r="F22" s="7"/>
       <c r="G22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H22" s="7"/>
+      <c r="H22" s="20"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F23" s="10"/>
+      <c r="F23" s="7"/>
       <c r="G23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H23" s="7"/>
+      <c r="H23" s="20"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C24" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="10"/>
+      <c r="F24" s="7"/>
       <c r="G24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H24" s="7"/>
+      <c r="H24" s="20"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C25" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F25" s="10"/>
+      <c r="F25" s="7"/>
       <c r="G25" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H25" s="7"/>
+      <c r="H25" s="20"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C26" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F26" s="10"/>
+      <c r="F26" s="7"/>
       <c r="G26" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H26" s="7"/>
+      <c r="H26" s="20"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C27" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F27" s="11"/>
+      <c r="F27" s="14"/>
       <c r="G27" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H27" s="8"/>
+      <c r="H27" s="21"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="6" t="s">
         <v>35</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28" s="15">
         <v>43151</v>
       </c>
     </row>
@@ -1036,93 +1098,93 @@
       <c r="B29" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F29" s="10"/>
+      <c r="F29" s="7"/>
       <c r="G29" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H29" s="7"/>
+      <c r="H29" s="20"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F30" s="10"/>
+      <c r="F30" s="7"/>
       <c r="G30" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H30" s="7"/>
+      <c r="H30" s="20"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C31" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F31" s="10"/>
+      <c r="F31" s="7"/>
       <c r="G31" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H31" s="7"/>
+      <c r="H31" s="20"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C32" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F32" s="10"/>
+      <c r="F32" s="7"/>
       <c r="G32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H32" s="7"/>
+      <c r="H32" s="20"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F33" s="10"/>
+      <c r="F33" s="7"/>
       <c r="G33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H33" s="7"/>
+      <c r="H33" s="20"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C34" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F34" s="10"/>
+      <c r="F34" s="7"/>
       <c r="G34" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H34" s="7"/>
+      <c r="H34" s="20"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C35" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F35" s="10"/>
+      <c r="F35" s="7"/>
       <c r="G35" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H35" s="7"/>
+      <c r="H35" s="20"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C36" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F36" s="11"/>
+      <c r="F36" s="14"/>
       <c r="G36" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H36" s="8"/>
+      <c r="H36" s="21"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D37" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="F37" s="6" t="s">
         <v>6</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H37" s="6">
+      <c r="H37" s="15">
         <v>43152</v>
       </c>
     </row>
@@ -1130,152 +1192,215 @@
       <c r="C38" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F38" s="10"/>
+      <c r="F38" s="7"/>
       <c r="G38" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H38" s="7"/>
+      <c r="H38" s="20"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C39" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F39" s="10"/>
+      <c r="F39" s="7"/>
       <c r="G39" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H39" s="7"/>
+      <c r="H39" s="20"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C40" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F40" s="10"/>
+      <c r="F40" s="7"/>
       <c r="G40" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H40" s="7"/>
+      <c r="H40" s="20"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C41" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F41" s="10"/>
+      <c r="F41" s="7"/>
       <c r="G41" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H41" s="7"/>
+      <c r="H41" s="20"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D42" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F42" s="10"/>
+      <c r="F42" s="7"/>
       <c r="G42" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H42" s="7"/>
+      <c r="H42" s="20"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F43" s="10"/>
+      <c r="F43" s="7"/>
       <c r="G43" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H43" s="7"/>
+      <c r="H43" s="20"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C44" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F44" s="10"/>
+      <c r="F44" s="7"/>
       <c r="G44" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H44" s="7"/>
+      <c r="H44" s="20"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D45" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F45" s="10"/>
+      <c r="F45" s="7"/>
       <c r="G45" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H45" s="7"/>
+      <c r="H45" s="20"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C46" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F46" s="10"/>
+      <c r="F46" s="7"/>
       <c r="G46" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="H46" s="7"/>
+      <c r="H46" s="20"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F47" s="10"/>
-      <c r="H47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="H47" s="20"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C48" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F48" s="11"/>
+      <c r="F48" s="14"/>
       <c r="G48" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H48" s="8"/>
-    </row>
-    <row r="49" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="H48" s="21"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F49" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="G49" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H49" s="19">
+      <c r="H49" s="8">
         <v>43153</v>
       </c>
     </row>
-    <row r="50" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F50" s="7"/>
       <c r="G50" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H50" s="20"/>
-    </row>
-    <row r="51" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="H50" s="9"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F51" s="7"/>
       <c r="G51" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H51" s="20"/>
-    </row>
-    <row r="52" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="H51" s="9"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F52" s="7"/>
       <c r="G52" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H52" s="20"/>
-    </row>
-    <row r="53" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="H52" s="9"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F53" s="7"/>
       <c r="G53" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H53" s="20"/>
-    </row>
-    <row r="54" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="H53" s="9"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F54" s="7"/>
       <c r="G54" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H54" s="21"/>
+      <c r="H54" s="10"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F55" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H55" s="8">
+        <v>43154</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F56" s="7"/>
+      <c r="G56" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H56" s="7"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F57" s="7"/>
+      <c r="G57" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H57" s="7"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F58" s="14"/>
+      <c r="G58" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H58" s="14"/>
+    </row>
+    <row r="59" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B59" s="23"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="23"/>
+      <c r="H59" s="23"/>
+      <c r="I59" s="23"/>
+      <c r="J59" s="23"/>
+      <c r="K59" s="23"/>
+      <c r="L59" s="23"/>
+      <c r="M59" s="23"/>
+      <c r="N59" s="23"/>
+      <c r="O59" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="H49:H54"/>
-    <mergeCell ref="A17:XFD17"/>
-    <mergeCell ref="F7:F16"/>
-    <mergeCell ref="H7:H16"/>
+  <mergeCells count="19">
+    <mergeCell ref="H55:H58"/>
+    <mergeCell ref="F55:F58"/>
+    <mergeCell ref="A59:XFD59"/>
     <mergeCell ref="A1:XFD1"/>
     <mergeCell ref="A2:XFD2"/>
     <mergeCell ref="A3:XFD3"/>
     <mergeCell ref="A4:XFD4"/>
     <mergeCell ref="A5:O5"/>
+    <mergeCell ref="F49:F54"/>
+    <mergeCell ref="H49:H54"/>
+    <mergeCell ref="A17:XFD17"/>
+    <mergeCell ref="F7:F16"/>
+    <mergeCell ref="H7:H16"/>
     <mergeCell ref="H37:H48"/>
     <mergeCell ref="F37:F48"/>
     <mergeCell ref="H28:H36"/>

--- a/local/Actividades.xlsx
+++ b/local/Actividades.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="79">
   <si>
     <t>ARCHIVO</t>
   </si>
@@ -229,12 +229,48 @@
       <t xml:space="preserve"> Pagado</t>
     </r>
   </si>
+  <si>
+    <t>Maquetación  de tabla de medio de pagos.</t>
+  </si>
+  <si>
+    <t>Colocación de imagen en el tab medios de pagos.</t>
+  </si>
+  <si>
+    <t>Cambio de imagen por imagen de la empresa en la vista de usuarios.</t>
+  </si>
+  <si>
+    <t>Creacion de tabla kardex en la BD para aduditar el sistema</t>
+  </si>
+  <si>
+    <t>Creacion de modal para metodos de pagos con tarjetas</t>
+  </si>
+  <si>
+    <t>Creacion de modal para metodos de pagos con cheques</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integracion de boton (+)opciones </t>
+  </si>
+  <si>
+    <t>Retiro del menu ingresar saldos del aside left</t>
+  </si>
+  <si>
+    <t>Retiro de boton de configuracion en la barra superior</t>
+  </si>
+  <si>
+    <t>Boton de datos contabilidados</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Boton de resumen diario.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,6 +315,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -403,7 +446,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -414,21 +457,52 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -438,38 +512,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -775,10 +822,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P59"/>
+  <dimension ref="A1:P87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59:XFD59"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,44 +841,44 @@
     <col min="9" max="15" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -861,132 +908,132 @@
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="11">
         <v>43147</v>
       </c>
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F8" s="7"/>
+      <c r="F8" s="9"/>
       <c r="G8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="16"/>
+      <c r="H8" s="25"/>
       <c r="P8" s="1"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F9" s="7"/>
+      <c r="F9" s="9"/>
       <c r="G9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="16"/>
+      <c r="H9" s="25"/>
       <c r="P9" s="1"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F10" s="7"/>
+      <c r="F10" s="9"/>
       <c r="G10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="16"/>
+      <c r="H10" s="25"/>
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="7"/>
+      <c r="F11" s="9"/>
       <c r="G11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="16"/>
+      <c r="H11" s="25"/>
       <c r="P11" s="1"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="7"/>
+      <c r="F12" s="9"/>
       <c r="G12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="16"/>
+      <c r="H12" s="25"/>
       <c r="P12" s="1"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="7"/>
+      <c r="F13" s="9"/>
       <c r="G13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="16"/>
+      <c r="H13" s="25"/>
       <c r="P13" s="1"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="7"/>
+      <c r="F14" s="9"/>
       <c r="G14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="16"/>
+      <c r="H14" s="25"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="7"/>
+      <c r="F15" s="9"/>
       <c r="G15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="16"/>
+      <c r="H15" s="25"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="14"/>
+      <c r="F16" s="10"/>
       <c r="G16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="17"/>
-    </row>
-    <row r="17" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
+      <c r="H16" s="26"/>
+    </row>
+    <row r="17" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="22"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="8" t="s">
         <v>35</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H18" s="11">
         <v>43150</v>
       </c>
     </row>
@@ -994,103 +1041,103 @@
       <c r="C19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="7"/>
+      <c r="F19" s="9"/>
       <c r="G19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H19" s="20"/>
+      <c r="H19" s="12"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="7"/>
+      <c r="F20" s="9"/>
       <c r="G20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H20" s="20"/>
+      <c r="H20" s="12"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="7"/>
+      <c r="F21" s="9"/>
       <c r="G21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H21" s="20"/>
+      <c r="H21" s="12"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="7"/>
+      <c r="F22" s="9"/>
       <c r="G22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H22" s="20"/>
+      <c r="H22" s="12"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F23" s="7"/>
+      <c r="F23" s="9"/>
       <c r="G23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H23" s="20"/>
+      <c r="H23" s="12"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C24" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="7"/>
+      <c r="F24" s="9"/>
       <c r="G24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H24" s="20"/>
+      <c r="H24" s="12"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C25" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F25" s="7"/>
+      <c r="F25" s="9"/>
       <c r="G25" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H25" s="20"/>
+      <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C26" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F26" s="7"/>
+      <c r="F26" s="9"/>
       <c r="G26" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H26" s="20"/>
+      <c r="H26" s="12"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C27" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F27" s="14"/>
+      <c r="F27" s="10"/>
       <c r="G27" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H27" s="21"/>
+      <c r="H27" s="13"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="8" t="s">
         <v>35</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H28" s="15">
+      <c r="H28" s="11">
         <v>43151</v>
       </c>
     </row>
@@ -1098,93 +1145,93 @@
       <c r="B29" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F29" s="7"/>
+      <c r="F29" s="9"/>
       <c r="G29" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H29" s="20"/>
+      <c r="H29" s="12"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F30" s="7"/>
+      <c r="F30" s="9"/>
       <c r="G30" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H30" s="20"/>
+      <c r="H30" s="12"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C31" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F31" s="7"/>
+      <c r="F31" s="9"/>
       <c r="G31" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H31" s="20"/>
+      <c r="H31" s="12"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C32" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F32" s="7"/>
+      <c r="F32" s="9"/>
       <c r="G32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H32" s="20"/>
+      <c r="H32" s="12"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F33" s="7"/>
+      <c r="F33" s="9"/>
       <c r="G33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H33" s="20"/>
+      <c r="H33" s="12"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C34" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F34" s="7"/>
+      <c r="F34" s="9"/>
       <c r="G34" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H34" s="20"/>
+      <c r="H34" s="12"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C35" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F35" s="7"/>
+      <c r="F35" s="9"/>
       <c r="G35" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H35" s="20"/>
+      <c r="H35" s="12"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C36" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F36" s="14"/>
+      <c r="F36" s="10"/>
       <c r="G36" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H36" s="21"/>
+      <c r="H36" s="13"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D37" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="F37" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H37" s="15">
+      <c r="H37" s="11">
         <v>43152</v>
       </c>
     </row>
@@ -1192,221 +1239,356 @@
       <c r="C38" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F38" s="7"/>
+      <c r="F38" s="9"/>
       <c r="G38" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H38" s="20"/>
+      <c r="H38" s="12"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C39" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F39" s="7"/>
+      <c r="F39" s="9"/>
       <c r="G39" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H39" s="20"/>
+      <c r="H39" s="12"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C40" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F40" s="7"/>
+      <c r="F40" s="9"/>
       <c r="G40" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H40" s="20"/>
+      <c r="H40" s="12"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C41" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F41" s="7"/>
+      <c r="F41" s="9"/>
       <c r="G41" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H41" s="20"/>
+      <c r="H41" s="12"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D42" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F42" s="7"/>
+      <c r="F42" s="9"/>
       <c r="G42" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H42" s="20"/>
+      <c r="H42" s="12"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F43" s="7"/>
+      <c r="F43" s="9"/>
       <c r="G43" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H43" s="20"/>
+      <c r="H43" s="12"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C44" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F44" s="7"/>
+      <c r="F44" s="9"/>
       <c r="G44" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H44" s="20"/>
+      <c r="H44" s="12"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D45" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F45" s="7"/>
+      <c r="F45" s="9"/>
       <c r="G45" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H45" s="20"/>
+      <c r="H45" s="12"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C46" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F46" s="7"/>
+      <c r="F46" s="9"/>
       <c r="G46" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="H46" s="20"/>
+      <c r="H46" s="12"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F47" s="7"/>
-      <c r="H47" s="20"/>
+      <c r="F47" s="9"/>
+      <c r="H47" s="12"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C48" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F48" s="14"/>
+      <c r="F48" s="10"/>
       <c r="G48" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H48" s="21"/>
+      <c r="H48" s="13"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F49" s="6" t="s">
+      <c r="F49" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H49" s="8">
+      <c r="H49" s="14">
         <v>43153</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F50" s="7"/>
+      <c r="F50" s="9"/>
       <c r="G50" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H50" s="9"/>
+      <c r="H50" s="21"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F51" s="7"/>
+      <c r="F51" s="9"/>
       <c r="G51" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H51" s="9"/>
+      <c r="H51" s="21"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F52" s="7"/>
+      <c r="F52" s="9"/>
       <c r="G52" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H52" s="9"/>
+      <c r="H52" s="21"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F53" s="7"/>
+      <c r="F53" s="9"/>
       <c r="G53" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H53" s="9"/>
+      <c r="H53" s="21"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F54" s="7"/>
+      <c r="F54" s="9"/>
       <c r="G54" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H54" s="10"/>
+      <c r="H54" s="15"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F55" s="6" t="s">
+      <c r="F55" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H55" s="8">
+      <c r="H55" s="14">
         <v>43154</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F56" s="7"/>
+      <c r="F56" s="9"/>
       <c r="G56" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H56" s="7"/>
+      <c r="H56" s="9"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F57" s="7"/>
+      <c r="F57" s="9"/>
       <c r="G57" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H57" s="7"/>
+      <c r="H57" s="9"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F58" s="14"/>
+      <c r="F58" s="10"/>
       <c r="G58" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H58" s="14"/>
-    </row>
-    <row r="59" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="22" t="s">
+      <c r="H58" s="10"/>
+    </row>
+    <row r="59" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B59" s="23"/>
-      <c r="C59" s="23"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="23"/>
-      <c r="F59" s="23"/>
-      <c r="G59" s="23"/>
-      <c r="H59" s="23"/>
-      <c r="I59" s="23"/>
-      <c r="J59" s="23"/>
-      <c r="K59" s="23"/>
-      <c r="L59" s="23"/>
-      <c r="M59" s="23"/>
-      <c r="N59" s="23"/>
-      <c r="O59" s="23"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="17"/>
+      <c r="J59" s="17"/>
+      <c r="K59" s="17"/>
+      <c r="L59" s="17"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F60" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H60" s="14">
+        <v>43157</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F61" s="10"/>
+      <c r="G61" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H61" s="15"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F62" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H62" s="14">
+        <v>43158</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F63" s="9"/>
+      <c r="G63" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H63" s="21"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F64" s="9"/>
+      <c r="G64" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H64" s="21"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F65" s="9"/>
+      <c r="G65" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H65" s="21"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F66" s="9"/>
+      <c r="G66" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H66" s="21"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F67" s="9"/>
+      <c r="G67" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H67" s="21"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F68" s="9"/>
+      <c r="G68" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H68" s="21"/>
+    </row>
+    <row r="69" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="5"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H69" s="21"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="5"/>
+      <c r="M69" s="5"/>
+      <c r="N69" s="5"/>
+      <c r="O69" s="5"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F70" s="10"/>
+      <c r="G70" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H70" s="15"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G78" s="4"/>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G79" s="4"/>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G80" s="4"/>
+    </row>
+    <row r="81" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G81" s="4"/>
+    </row>
+    <row r="82" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G82" s="4"/>
+    </row>
+    <row r="83" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G83" s="4"/>
+    </row>
+    <row r="84" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G84" s="5"/>
+    </row>
+    <row r="85" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G85" s="4"/>
+    </row>
+    <row r="86" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G86" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="87" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G87" s="4" t="s">
+        <v>77</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="H55:H58"/>
-    <mergeCell ref="F55:F58"/>
-    <mergeCell ref="A59:XFD59"/>
-    <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="A2:XFD2"/>
-    <mergeCell ref="A3:XFD3"/>
-    <mergeCell ref="A4:XFD4"/>
-    <mergeCell ref="A5:O5"/>
-    <mergeCell ref="F49:F54"/>
-    <mergeCell ref="H49:H54"/>
+  <mergeCells count="23">
+    <mergeCell ref="H62:H70"/>
+    <mergeCell ref="F62:F70"/>
     <mergeCell ref="A17:XFD17"/>
     <mergeCell ref="F7:F16"/>
     <mergeCell ref="H7:H16"/>
     <mergeCell ref="H37:H48"/>
     <mergeCell ref="F37:F48"/>
     <mergeCell ref="H28:H36"/>
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A2:XFD2"/>
+    <mergeCell ref="A3:XFD3"/>
+    <mergeCell ref="A4:XFD4"/>
+    <mergeCell ref="A5:O5"/>
     <mergeCell ref="F28:F36"/>
     <mergeCell ref="H18:H27"/>
     <mergeCell ref="F18:F27"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="H55:H58"/>
+    <mergeCell ref="F55:F58"/>
+    <mergeCell ref="A59:XFD59"/>
+    <mergeCell ref="F49:F54"/>
+    <mergeCell ref="H49:H54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/local/Actividades.xlsx
+++ b/local/Actividades.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="95">
   <si>
     <t>ARCHIVO</t>
   </si>
@@ -239,9 +239,6 @@
     <t>Cambio de imagen por imagen de la empresa en la vista de usuarios.</t>
   </si>
   <si>
-    <t>Creacion de tabla kardex en la BD para aduditar el sistema</t>
-  </si>
-  <si>
     <t>Creacion de modal para metodos de pagos con tarjetas</t>
   </si>
   <si>
@@ -264,13 +261,64 @@
   </si>
   <si>
     <t>Boton de resumen diario.</t>
+  </si>
+  <si>
+    <t>Creacion de tabla kardex en la BD para auditar el sistema</t>
+  </si>
+  <si>
+    <t>Inicio de sesion</t>
+  </si>
+  <si>
+    <t>Integracion de buscador</t>
+  </si>
+  <si>
+    <t>Validacion de inicio de sesion a nivel de back y front</t>
+  </si>
+  <si>
+    <t>Boton de imprimir con sus sub menus</t>
+  </si>
+  <si>
+    <t>Boton de editar con sus sub menus</t>
+  </si>
+  <si>
+    <t>Boton de agregar saldo en la tabla de detalles</t>
+  </si>
+  <si>
+    <t>Mascara a los campos numéricos</t>
+  </si>
+  <si>
+    <t>Fix a modal cheque con imágenes (ajuste de imagen a diseños responsive)</t>
+  </si>
+  <si>
+    <t>Implementar plugins para validar RUT</t>
+  </si>
+  <si>
+    <t>Botones para filtrado Hoy - Últimos 7 días - Todo</t>
+  </si>
+  <si>
+    <t>Cambio de plugin datepicker</t>
+  </si>
+  <si>
+    <t>Creación de modal el detalle de pagos con cheque y tarjetas</t>
+  </si>
+  <si>
+    <t>Mascara para los campos money</t>
+  </si>
+  <si>
+    <t>Nombre en la parte superior del header</t>
+  </si>
+  <si>
+    <t>Alerta modal notificacando cuando un usuario esta suspendido.</t>
+  </si>
+  <si>
+    <t>ing.Victor Fernandez</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,6 +366,23 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -446,7 +511,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -461,6 +526,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -470,21 +536,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -500,24 +584,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -824,8 +896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="G73" sqref="G73"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79:XFD79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,44 +913,44 @@
     <col min="9" max="15" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+    <row r="3" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+    <row r="4" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -908,132 +980,132 @@
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="9" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="18">
         <v>43147</v>
       </c>
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F8" s="9"/>
+      <c r="F8" s="10"/>
       <c r="G8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="25"/>
+      <c r="H8" s="19"/>
       <c r="P8" s="1"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F9" s="9"/>
+      <c r="F9" s="10"/>
       <c r="G9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="25"/>
+      <c r="H9" s="19"/>
       <c r="P9" s="1"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F10" s="9"/>
+      <c r="F10" s="10"/>
       <c r="G10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="25"/>
+      <c r="H10" s="19"/>
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="9"/>
+      <c r="F11" s="10"/>
       <c r="G11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="25"/>
+      <c r="H11" s="19"/>
       <c r="P11" s="1"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="9"/>
+      <c r="F12" s="10"/>
       <c r="G12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="25"/>
+      <c r="H12" s="19"/>
       <c r="P12" s="1"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="9"/>
+      <c r="F13" s="10"/>
       <c r="G13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="25"/>
+      <c r="H13" s="19"/>
       <c r="P13" s="1"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="9"/>
+      <c r="F14" s="10"/>
       <c r="G14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="25"/>
+      <c r="H14" s="19"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="9"/>
+      <c r="F15" s="10"/>
       <c r="G15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="25"/>
+      <c r="H15" s="19"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="10"/>
+      <c r="F16" s="11"/>
       <c r="G16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="26"/>
-    </row>
-    <row r="17" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
+      <c r="H16" s="20"/>
+    </row>
+    <row r="17" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="9" t="s">
         <v>35</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="18">
         <v>43150</v>
       </c>
     </row>
@@ -1041,103 +1113,103 @@
       <c r="C19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="9"/>
+      <c r="F19" s="10"/>
       <c r="G19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H19" s="12"/>
+      <c r="H19" s="21"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="9"/>
+      <c r="F20" s="10"/>
       <c r="G20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H20" s="12"/>
+      <c r="H20" s="21"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="9"/>
+      <c r="F21" s="10"/>
       <c r="G21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H21" s="12"/>
+      <c r="H21" s="21"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="9"/>
+      <c r="F22" s="10"/>
       <c r="G22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H22" s="12"/>
+      <c r="H22" s="21"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F23" s="9"/>
+      <c r="F23" s="10"/>
       <c r="G23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H23" s="12"/>
+      <c r="H23" s="21"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C24" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="9"/>
+      <c r="F24" s="10"/>
       <c r="G24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H24" s="12"/>
+      <c r="H24" s="21"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C25" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F25" s="9"/>
+      <c r="F25" s="10"/>
       <c r="G25" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H25" s="12"/>
+      <c r="H25" s="21"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C26" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F26" s="9"/>
+      <c r="F26" s="10"/>
       <c r="G26" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H26" s="12"/>
+      <c r="H26" s="21"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C27" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F27" s="10"/>
+      <c r="F27" s="11"/>
       <c r="G27" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H27" s="13"/>
+      <c r="H27" s="22"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="9" t="s">
         <v>35</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H28" s="11">
+      <c r="H28" s="18">
         <v>43151</v>
       </c>
     </row>
@@ -1145,93 +1217,93 @@
       <c r="B29" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F29" s="9"/>
+      <c r="F29" s="10"/>
       <c r="G29" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H29" s="12"/>
+      <c r="H29" s="21"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F30" s="9"/>
+      <c r="F30" s="10"/>
       <c r="G30" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H30" s="12"/>
+      <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C31" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F31" s="9"/>
+      <c r="F31" s="10"/>
       <c r="G31" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H31" s="12"/>
+      <c r="H31" s="21"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C32" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F32" s="9"/>
+      <c r="F32" s="10"/>
       <c r="G32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H32" s="12"/>
+      <c r="H32" s="21"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F33" s="9"/>
+      <c r="F33" s="10"/>
       <c r="G33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H33" s="12"/>
+      <c r="H33" s="21"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C34" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F34" s="9"/>
+      <c r="F34" s="10"/>
       <c r="G34" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H34" s="12"/>
+      <c r="H34" s="21"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C35" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F35" s="9"/>
+      <c r="F35" s="10"/>
       <c r="G35" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H35" s="12"/>
+      <c r="H35" s="21"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C36" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F36" s="10"/>
+      <c r="F36" s="11"/>
       <c r="G36" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H36" s="13"/>
+      <c r="H36" s="22"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D37" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="F37" s="9" t="s">
         <v>6</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H37" s="11">
+      <c r="H37" s="18">
         <v>43152</v>
       </c>
     </row>
@@ -1239,270 +1311,270 @@
       <c r="C38" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F38" s="9"/>
+      <c r="F38" s="10"/>
       <c r="G38" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H38" s="12"/>
+      <c r="H38" s="21"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C39" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F39" s="9"/>
+      <c r="F39" s="10"/>
       <c r="G39" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H39" s="12"/>
+      <c r="H39" s="21"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C40" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F40" s="9"/>
+      <c r="F40" s="10"/>
       <c r="G40" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H40" s="12"/>
+      <c r="H40" s="21"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C41" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F41" s="9"/>
+      <c r="F41" s="10"/>
       <c r="G41" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H41" s="12"/>
+      <c r="H41" s="21"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D42" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F42" s="9"/>
+      <c r="F42" s="10"/>
       <c r="G42" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H42" s="12"/>
+      <c r="H42" s="21"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F43" s="9"/>
+      <c r="F43" s="10"/>
       <c r="G43" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H43" s="12"/>
+      <c r="H43" s="21"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C44" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F44" s="9"/>
+      <c r="F44" s="10"/>
       <c r="G44" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H44" s="12"/>
+      <c r="H44" s="21"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D45" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F45" s="9"/>
+      <c r="F45" s="10"/>
       <c r="G45" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H45" s="12"/>
+      <c r="H45" s="21"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C46" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F46" s="9"/>
+      <c r="F46" s="10"/>
       <c r="G46" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="H46" s="12"/>
+      <c r="H46" s="21"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F47" s="9"/>
-      <c r="H47" s="12"/>
+      <c r="F47" s="10"/>
+      <c r="H47" s="21"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C48" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F48" s="10"/>
+      <c r="F48" s="11"/>
       <c r="G48" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H48" s="13"/>
+      <c r="H48" s="22"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F49" s="8" t="s">
+      <c r="F49" s="9" t="s">
         <v>6</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H49" s="14">
+      <c r="H49" s="12">
         <v>43153</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F50" s="9"/>
+      <c r="F50" s="10"/>
       <c r="G50" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H50" s="21"/>
+      <c r="H50" s="13"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F51" s="9"/>
+      <c r="F51" s="10"/>
       <c r="G51" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H51" s="21"/>
+      <c r="H51" s="13"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F52" s="9"/>
+      <c r="F52" s="10"/>
       <c r="G52" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H52" s="21"/>
+      <c r="H52" s="13"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F53" s="9"/>
+      <c r="F53" s="10"/>
       <c r="G53" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H53" s="21"/>
+      <c r="H53" s="13"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F54" s="9"/>
+      <c r="F54" s="10"/>
       <c r="G54" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H54" s="15"/>
+      <c r="H54" s="14"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F55" s="8" t="s">
+      <c r="F55" s="9" t="s">
         <v>6</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H55" s="14">
+      <c r="H55" s="12">
         <v>43154</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F56" s="9"/>
+      <c r="F56" s="10"/>
       <c r="G56" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H56" s="9"/>
+      <c r="H56" s="10"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F57" s="9"/>
+      <c r="F57" s="10"/>
       <c r="G57" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H57" s="9"/>
+      <c r="H57" s="10"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F58" s="10"/>
+      <c r="F58" s="11"/>
       <c r="G58" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H58" s="10"/>
-    </row>
-    <row r="59" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="16" t="s">
+      <c r="H58" s="11"/>
+    </row>
+    <row r="59" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B59" s="17"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="17"/>
-      <c r="I59" s="17"/>
-      <c r="J59" s="17"/>
-      <c r="K59" s="17"/>
-      <c r="L59" s="17"/>
-      <c r="M59" s="17"/>
-      <c r="N59" s="17"/>
-      <c r="O59" s="17"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="24"/>
+      <c r="G59" s="24"/>
+      <c r="H59" s="24"/>
+      <c r="I59" s="24"/>
+      <c r="J59" s="24"/>
+      <c r="K59" s="24"/>
+      <c r="L59" s="24"/>
+      <c r="M59" s="24"/>
+      <c r="N59" s="24"/>
+      <c r="O59" s="24"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F60" s="8" t="s">
+      <c r="F60" s="9" t="s">
         <v>6</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H60" s="14">
+      <c r="H60" s="12">
         <v>43157</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F61" s="10"/>
+      <c r="F61" s="11"/>
       <c r="G61" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H61" s="15"/>
+      <c r="H61" s="14"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F62" s="8" t="s">
+      <c r="F62" s="9" t="s">
         <v>6</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H62" s="14">
+      <c r="H62" s="12">
         <v>43158</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F63" s="9"/>
+      <c r="F63" s="10"/>
       <c r="G63" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H63" s="13"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F64" s="10"/>
+      <c r="G64" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H63" s="21"/>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F64" s="9"/>
-      <c r="G64" s="1" t="s">
+      <c r="H64" s="13"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F65" s="10"/>
+      <c r="G65" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H64" s="21"/>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F65" s="9"/>
-      <c r="G65" s="1" t="s">
+      <c r="H65" s="13"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F66" s="10"/>
+      <c r="G66" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H65" s="21"/>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F66" s="9"/>
-      <c r="G66" s="1" t="s">
+      <c r="H66" s="13"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F67" s="10"/>
+      <c r="G67" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H66" s="21"/>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F67" s="9"/>
-      <c r="G67" s="1" t="s">
+      <c r="H67" s="13"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F68" s="10"/>
+      <c r="G68" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H67" s="21"/>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F68" s="9"/>
-      <c r="G68" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H68" s="21"/>
+      <c r="H68" s="13"/>
     </row>
     <row r="69" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
@@ -1510,11 +1582,11 @@
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
-      <c r="F69" s="9"/>
+      <c r="F69" s="10"/>
       <c r="G69" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H69" s="21"/>
+        <v>75</v>
+      </c>
+      <c r="H69" s="13"/>
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
@@ -1524,64 +1596,223 @@
       <c r="O69" s="5"/>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F70" s="10"/>
+      <c r="F70" s="11"/>
       <c r="G70" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H70" s="15"/>
+        <v>77</v>
+      </c>
+      <c r="H70" s="14"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F71" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G71" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H71" s="12">
+        <v>43159</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F72" s="10"/>
+      <c r="G72" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H72" s="10"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F73" s="10"/>
+      <c r="G73" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H73" s="10"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F74" s="10"/>
+      <c r="G74" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="H74" s="10"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F75" s="10"/>
+      <c r="G75" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H75" s="10"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F76" s="10"/>
+      <c r="G76" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H76" s="10"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F77" s="10"/>
+      <c r="G77" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H77" s="10"/>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G78" s="4"/>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G79" s="4"/>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G80" s="4"/>
-    </row>
-    <row r="81" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G81" s="4"/>
-    </row>
-    <row r="82" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G82" s="4"/>
-    </row>
-    <row r="83" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G83" s="4"/>
-    </row>
-    <row r="84" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G84" s="5"/>
-    </row>
-    <row r="85" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G85" s="4"/>
-    </row>
-    <row r="86" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G86" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="87" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="F78" s="11"/>
+      <c r="G78" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="H78" s="11"/>
+    </row>
+    <row r="79" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="29"/>
+      <c r="B79" s="30"/>
+      <c r="C79" s="30"/>
+      <c r="D79" s="30"/>
+      <c r="E79" s="30"/>
+      <c r="F79" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G79" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="H79" s="29"/>
+      <c r="I79" s="29"/>
+      <c r="J79" s="29"/>
+      <c r="K79" s="29"/>
+      <c r="L79" s="29"/>
+      <c r="M79" s="29"/>
+      <c r="N79" s="29"/>
+      <c r="O79" s="29"/>
+    </row>
+    <row r="80" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="8"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
+      <c r="J80" s="8"/>
+      <c r="K80" s="8"/>
+      <c r="L80" s="8"/>
+      <c r="M80" s="8"/>
+      <c r="N80" s="8"/>
+      <c r="O80" s="8"/>
+    </row>
+    <row r="81" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="8"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H81" s="8"/>
+      <c r="I81" s="8"/>
+      <c r="J81" s="8"/>
+      <c r="K81" s="8"/>
+      <c r="L81" s="8"/>
+      <c r="M81" s="8"/>
+      <c r="N81" s="8"/>
+      <c r="O81" s="8"/>
+    </row>
+    <row r="82" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="8"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H82" s="8"/>
+      <c r="I82" s="8"/>
+      <c r="J82" s="8"/>
+      <c r="K82" s="8"/>
+      <c r="L82" s="8"/>
+      <c r="M82" s="8"/>
+      <c r="N82" s="8"/>
+      <c r="O82" s="8"/>
+    </row>
+    <row r="83" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="8"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="H83" s="8"/>
+      <c r="I83" s="8"/>
+      <c r="J83" s="8"/>
+      <c r="K83" s="8"/>
+      <c r="L83" s="8"/>
+      <c r="M83" s="8"/>
+      <c r="N83" s="8"/>
+      <c r="O83" s="8"/>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F84" s="10"/>
+      <c r="G84" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="8"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H85" s="8"/>
+      <c r="I85" s="8"/>
+      <c r="J85" s="8"/>
+      <c r="K85" s="8"/>
+      <c r="L85" s="8"/>
+      <c r="M85" s="8"/>
+      <c r="N85" s="8"/>
+      <c r="O85" s="8"/>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G86" s="4"/>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G87" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="H62:H70"/>
-    <mergeCell ref="F62:F70"/>
-    <mergeCell ref="A17:XFD17"/>
+  <mergeCells count="26">
+    <mergeCell ref="F79:F85"/>
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A2:XFD2"/>
+    <mergeCell ref="A3:XFD3"/>
+    <mergeCell ref="A4:XFD4"/>
+    <mergeCell ref="A5:O5"/>
     <mergeCell ref="F7:F16"/>
     <mergeCell ref="H7:H16"/>
     <mergeCell ref="H37:H48"/>
     <mergeCell ref="F37:F48"/>
     <mergeCell ref="H28:H36"/>
-    <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="A2:XFD2"/>
-    <mergeCell ref="A3:XFD3"/>
-    <mergeCell ref="A4:XFD4"/>
-    <mergeCell ref="A5:O5"/>
     <mergeCell ref="F28:F36"/>
     <mergeCell ref="H18:H27"/>
     <mergeCell ref="F18:F27"/>
+    <mergeCell ref="F71:F78"/>
+    <mergeCell ref="H71:H78"/>
+    <mergeCell ref="H62:H70"/>
+    <mergeCell ref="F62:F70"/>
+    <mergeCell ref="A17:XFD17"/>
     <mergeCell ref="H60:H61"/>
     <mergeCell ref="F60:F61"/>
     <mergeCell ref="H55:H58"/>

--- a/local/Actividades.xlsx
+++ b/local/Actividades.xlsx
@@ -318,7 +318,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -366,23 +366,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -527,6 +510,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -536,6 +520,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -554,21 +559,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -578,18 +568,15 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -896,8 +883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79:XFD79"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -913,44 +900,44 @@
     <col min="9" max="15" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+    <row r="3" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+    <row r="4" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -980,132 +967,132 @@
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="10" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="15">
         <v>43147</v>
       </c>
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F8" s="10"/>
+      <c r="F8" s="11"/>
       <c r="G8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="19"/>
+      <c r="H8" s="16"/>
       <c r="P8" s="1"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F9" s="10"/>
+      <c r="F9" s="11"/>
       <c r="G9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="19"/>
+      <c r="H9" s="16"/>
       <c r="P9" s="1"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F10" s="10"/>
+      <c r="F10" s="11"/>
       <c r="G10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="19"/>
+      <c r="H10" s="16"/>
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="10"/>
+      <c r="F11" s="11"/>
       <c r="G11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="19"/>
+      <c r="H11" s="16"/>
       <c r="P11" s="1"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="10"/>
+      <c r="F12" s="11"/>
       <c r="G12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="19"/>
+      <c r="H12" s="16"/>
       <c r="P12" s="1"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="10"/>
+      <c r="F13" s="11"/>
       <c r="G13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="19"/>
+      <c r="H13" s="16"/>
       <c r="P13" s="1"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="10"/>
+      <c r="F14" s="11"/>
       <c r="G14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="19"/>
+      <c r="H14" s="16"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="10"/>
+      <c r="F15" s="11"/>
       <c r="G15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="19"/>
+      <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="11"/>
+      <c r="F16" s="12"/>
       <c r="G16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="20"/>
-    </row>
-    <row r="17" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
+      <c r="H16" s="17"/>
+    </row>
+    <row r="17" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="23"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="10" t="s">
         <v>35</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H18" s="15">
         <v>43150</v>
       </c>
     </row>
@@ -1113,103 +1100,103 @@
       <c r="C19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="10"/>
+      <c r="F19" s="11"/>
       <c r="G19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H19" s="21"/>
+      <c r="H19" s="18"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="10"/>
+      <c r="F20" s="11"/>
       <c r="G20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H20" s="21"/>
+      <c r="H20" s="18"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="10"/>
+      <c r="F21" s="11"/>
       <c r="G21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H21" s="21"/>
+      <c r="H21" s="18"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="10"/>
+      <c r="F22" s="11"/>
       <c r="G22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H22" s="21"/>
+      <c r="H22" s="18"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F23" s="10"/>
+      <c r="F23" s="11"/>
       <c r="G23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H23" s="21"/>
+      <c r="H23" s="18"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C24" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="10"/>
+      <c r="F24" s="11"/>
       <c r="G24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H24" s="21"/>
+      <c r="H24" s="18"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C25" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F25" s="10"/>
+      <c r="F25" s="11"/>
       <c r="G25" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H25" s="21"/>
+      <c r="H25" s="18"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C26" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F26" s="10"/>
+      <c r="F26" s="11"/>
       <c r="G26" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H26" s="21"/>
+      <c r="H26" s="18"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C27" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F27" s="11"/>
+      <c r="F27" s="12"/>
       <c r="G27" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H27" s="22"/>
+      <c r="H27" s="19"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="10" t="s">
         <v>35</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H28" s="18">
+      <c r="H28" s="15">
         <v>43151</v>
       </c>
     </row>
@@ -1217,93 +1204,93 @@
       <c r="B29" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F29" s="10"/>
+      <c r="F29" s="11"/>
       <c r="G29" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H29" s="21"/>
+      <c r="H29" s="18"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F30" s="10"/>
+      <c r="F30" s="11"/>
       <c r="G30" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H30" s="21"/>
+      <c r="H30" s="18"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C31" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F31" s="10"/>
+      <c r="F31" s="11"/>
       <c r="G31" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H31" s="21"/>
+      <c r="H31" s="18"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C32" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F32" s="10"/>
+      <c r="F32" s="11"/>
       <c r="G32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H32" s="21"/>
+      <c r="H32" s="18"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F33" s="10"/>
+      <c r="F33" s="11"/>
       <c r="G33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H33" s="21"/>
+      <c r="H33" s="18"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C34" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F34" s="10"/>
+      <c r="F34" s="11"/>
       <c r="G34" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H34" s="21"/>
+      <c r="H34" s="18"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C35" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F35" s="10"/>
+      <c r="F35" s="11"/>
       <c r="G35" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H35" s="21"/>
+      <c r="H35" s="18"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C36" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F36" s="11"/>
+      <c r="F36" s="12"/>
       <c r="G36" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H36" s="22"/>
+      <c r="H36" s="19"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D37" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="F37" s="10" t="s">
         <v>6</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H37" s="18">
+      <c r="H37" s="15">
         <v>43152</v>
       </c>
     </row>
@@ -1311,270 +1298,270 @@
       <c r="C38" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F38" s="10"/>
+      <c r="F38" s="11"/>
       <c r="G38" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H38" s="21"/>
+      <c r="H38" s="18"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C39" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F39" s="10"/>
+      <c r="F39" s="11"/>
       <c r="G39" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H39" s="21"/>
+      <c r="H39" s="18"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C40" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F40" s="10"/>
+      <c r="F40" s="11"/>
       <c r="G40" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H40" s="21"/>
+      <c r="H40" s="18"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C41" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F41" s="10"/>
+      <c r="F41" s="11"/>
       <c r="G41" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H41" s="21"/>
+      <c r="H41" s="18"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D42" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F42" s="10"/>
+      <c r="F42" s="11"/>
       <c r="G42" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H42" s="21"/>
+      <c r="H42" s="18"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F43" s="10"/>
+      <c r="F43" s="11"/>
       <c r="G43" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H43" s="21"/>
+      <c r="H43" s="18"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C44" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F44" s="10"/>
+      <c r="F44" s="11"/>
       <c r="G44" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H44" s="21"/>
+      <c r="H44" s="18"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D45" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F45" s="10"/>
+      <c r="F45" s="11"/>
       <c r="G45" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H45" s="21"/>
+      <c r="H45" s="18"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C46" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F46" s="10"/>
+      <c r="F46" s="11"/>
       <c r="G46" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="H46" s="21"/>
+      <c r="H46" s="18"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F47" s="10"/>
-      <c r="H47" s="21"/>
+      <c r="F47" s="11"/>
+      <c r="H47" s="18"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C48" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F48" s="11"/>
+      <c r="F48" s="12"/>
       <c r="G48" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H48" s="22"/>
+      <c r="H48" s="19"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F49" s="9" t="s">
+      <c r="F49" s="10" t="s">
         <v>6</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H49" s="12">
+      <c r="H49" s="20">
         <v>43153</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F50" s="10"/>
+      <c r="F50" s="11"/>
       <c r="G50" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H50" s="13"/>
+      <c r="H50" s="21"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F51" s="10"/>
+      <c r="F51" s="11"/>
       <c r="G51" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H51" s="13"/>
+      <c r="H51" s="21"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F52" s="10"/>
+      <c r="F52" s="11"/>
       <c r="G52" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H52" s="13"/>
+      <c r="H52" s="21"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F53" s="10"/>
+      <c r="F53" s="11"/>
       <c r="G53" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H53" s="13"/>
+      <c r="H53" s="21"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F54" s="10"/>
+      <c r="F54" s="11"/>
       <c r="G54" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H54" s="14"/>
+      <c r="H54" s="22"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F55" s="9" t="s">
+      <c r="F55" s="10" t="s">
         <v>6</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H55" s="12">
+      <c r="H55" s="20">
         <v>43154</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F56" s="10"/>
+      <c r="F56" s="11"/>
       <c r="G56" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H56" s="10"/>
+      <c r="H56" s="11"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F57" s="10"/>
+      <c r="F57" s="11"/>
       <c r="G57" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H57" s="10"/>
+      <c r="H57" s="11"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F58" s="11"/>
+      <c r="F58" s="12"/>
       <c r="G58" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H58" s="11"/>
-    </row>
-    <row r="59" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="23" t="s">
+      <c r="H58" s="12"/>
+    </row>
+    <row r="59" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="B59" s="24"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="24"/>
-      <c r="E59" s="24"/>
-      <c r="F59" s="24"/>
-      <c r="G59" s="24"/>
-      <c r="H59" s="24"/>
-      <c r="I59" s="24"/>
-      <c r="J59" s="24"/>
-      <c r="K59" s="24"/>
-      <c r="L59" s="24"/>
-      <c r="M59" s="24"/>
-      <c r="N59" s="24"/>
-      <c r="O59" s="24"/>
+      <c r="B59" s="27"/>
+      <c r="C59" s="27"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="27"/>
+      <c r="I59" s="27"/>
+      <c r="J59" s="27"/>
+      <c r="K59" s="27"/>
+      <c r="L59" s="27"/>
+      <c r="M59" s="27"/>
+      <c r="N59" s="27"/>
+      <c r="O59" s="27"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F60" s="9" t="s">
+      <c r="F60" s="10" t="s">
         <v>6</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H60" s="12">
+      <c r="H60" s="20">
         <v>43157</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F61" s="11"/>
+      <c r="F61" s="12"/>
       <c r="G61" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H61" s="14"/>
+      <c r="H61" s="22"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F62" s="9" t="s">
+      <c r="F62" s="10" t="s">
         <v>6</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H62" s="12">
+      <c r="H62" s="20">
         <v>43158</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F63" s="10"/>
+      <c r="F63" s="11"/>
       <c r="G63" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H63" s="13"/>
+      <c r="H63" s="21"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F64" s="10"/>
+      <c r="F64" s="11"/>
       <c r="G64" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H64" s="13"/>
+      <c r="H64" s="21"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F65" s="10"/>
+      <c r="F65" s="11"/>
       <c r="G65" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H65" s="13"/>
+      <c r="H65" s="21"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F66" s="10"/>
+      <c r="F66" s="11"/>
       <c r="G66" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H66" s="13"/>
+      <c r="H66" s="21"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F67" s="10"/>
+      <c r="F67" s="11"/>
       <c r="G67" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H67" s="13"/>
+      <c r="H67" s="21"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F68" s="10"/>
+      <c r="F68" s="11"/>
       <c r="G68" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H68" s="13"/>
+      <c r="H68" s="21"/>
     </row>
     <row r="69" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
@@ -1582,11 +1569,11 @@
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
-      <c r="F69" s="10"/>
+      <c r="F69" s="11"/>
       <c r="G69" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="H69" s="13"/>
+      <c r="H69" s="21"/>
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
@@ -1596,104 +1583,106 @@
       <c r="O69" s="5"/>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F70" s="11"/>
+      <c r="F70" s="12"/>
       <c r="G70" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H70" s="14"/>
+      <c r="H70" s="22"/>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F71" s="9" t="s">
+      <c r="F71" s="10" t="s">
         <v>6</v>
       </c>
       <c r="G71" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="H71" s="12">
+      <c r="H71" s="20">
         <v>43159</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F72" s="10"/>
+      <c r="F72" s="11"/>
       <c r="G72" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="H72" s="10"/>
+      <c r="H72" s="11"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F73" s="10"/>
+      <c r="F73" s="11"/>
       <c r="G73" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="H73" s="10"/>
+      <c r="H73" s="11"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F74" s="10"/>
+      <c r="F74" s="11"/>
       <c r="G74" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="H74" s="10"/>
+      <c r="H74" s="11"/>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F75" s="10"/>
+      <c r="F75" s="11"/>
       <c r="G75" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="H75" s="10"/>
+      <c r="H75" s="11"/>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F76" s="10"/>
+      <c r="F76" s="11"/>
       <c r="G76" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="H76" s="10"/>
+      <c r="H76" s="11"/>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F77" s="10"/>
+      <c r="F77" s="11"/>
       <c r="G77" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="H77" s="10"/>
+      <c r="H77" s="11"/>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F78" s="11"/>
+      <c r="F78" s="12"/>
       <c r="G78" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="H78" s="11"/>
-    </row>
-    <row r="79" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="29"/>
-      <c r="B79" s="30"/>
-      <c r="C79" s="30"/>
-      <c r="D79" s="30"/>
-      <c r="E79" s="30"/>
-      <c r="F79" s="9" t="s">
+      <c r="H78" s="12"/>
+    </row>
+    <row r="79" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="8"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="G79" s="29" t="s">
+      <c r="G79" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="H79" s="29"/>
-      <c r="I79" s="29"/>
-      <c r="J79" s="29"/>
-      <c r="K79" s="29"/>
-      <c r="L79" s="29"/>
-      <c r="M79" s="29"/>
-      <c r="N79" s="29"/>
-      <c r="O79" s="29"/>
-    </row>
-    <row r="80" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H79" s="29">
+        <v>43160</v>
+      </c>
+      <c r="I79" s="8"/>
+      <c r="J79" s="8"/>
+      <c r="K79" s="8"/>
+      <c r="L79" s="8"/>
+      <c r="M79" s="8"/>
+      <c r="N79" s="8"/>
+      <c r="O79" s="8"/>
+    </row>
+    <row r="80" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
-      <c r="F80" s="10"/>
+      <c r="F80" s="11"/>
       <c r="G80" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="H80" s="8"/>
+      <c r="H80" s="30"/>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
@@ -1702,17 +1691,17 @@
       <c r="N80" s="8"/>
       <c r="O80" s="8"/>
     </row>
-    <row r="81" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
-      <c r="F81" s="10"/>
+      <c r="F81" s="11"/>
       <c r="G81" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="H81" s="8"/>
+      <c r="H81" s="30"/>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
@@ -1721,17 +1710,17 @@
       <c r="N81" s="8"/>
       <c r="O81" s="8"/>
     </row>
-    <row r="82" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="8"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
-      <c r="F82" s="10"/>
+      <c r="F82" s="11"/>
       <c r="G82" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="H82" s="8"/>
+      <c r="H82" s="30"/>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
@@ -1740,17 +1729,17 @@
       <c r="N82" s="8"/>
       <c r="O82" s="8"/>
     </row>
-    <row r="83" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="8"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
-      <c r="F83" s="10"/>
+      <c r="F83" s="11"/>
       <c r="G83" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="H83" s="8"/>
+      <c r="H83" s="30"/>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
@@ -1760,22 +1749,23 @@
       <c r="O83" s="8"/>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F84" s="10"/>
+      <c r="F84" s="11"/>
       <c r="G84" s="5" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="85" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H84" s="30"/>
+    </row>
+    <row r="85" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="8"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
-      <c r="F85" s="11"/>
+      <c r="F85" s="12"/>
       <c r="G85" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="H85" s="8"/>
+      <c r="H85" s="31"/>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
@@ -1793,7 +1783,18 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="27">
+    <mergeCell ref="H79:H85"/>
+    <mergeCell ref="H62:H70"/>
+    <mergeCell ref="F62:F70"/>
+    <mergeCell ref="A17:XFD17"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="H55:H58"/>
+    <mergeCell ref="F55:F58"/>
+    <mergeCell ref="A59:XFD59"/>
+    <mergeCell ref="F49:F54"/>
+    <mergeCell ref="H49:H54"/>
     <mergeCell ref="F79:F85"/>
     <mergeCell ref="A1:XFD1"/>
     <mergeCell ref="A2:XFD2"/>
@@ -1810,16 +1811,6 @@
     <mergeCell ref="F18:F27"/>
     <mergeCell ref="F71:F78"/>
     <mergeCell ref="H71:H78"/>
-    <mergeCell ref="H62:H70"/>
-    <mergeCell ref="F62:F70"/>
-    <mergeCell ref="A17:XFD17"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="H55:H58"/>
-    <mergeCell ref="F55:F58"/>
-    <mergeCell ref="A59:XFD59"/>
-    <mergeCell ref="F49:F54"/>
-    <mergeCell ref="H49:H54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/local/Actividades.xlsx
+++ b/local/Actividades.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="123">
   <si>
     <t>ARCHIVO</t>
   </si>
@@ -257,9 +257,6 @@
     <t>Boton de datos contabilidados</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Boton de resumen diario.</t>
   </si>
   <si>
@@ -312,6 +309,93 @@
   </si>
   <si>
     <t>ing.Victor Fernandez</t>
+  </si>
+  <si>
+    <t>Listado de kardex para usuarios con provilegio de administrador.</t>
+  </si>
+  <si>
+    <t>Fix de validacion para el campo sucursal en el login.</t>
+  </si>
+  <si>
+    <t>Registo de inicio de sesión en el kardex (Usuarios)</t>
+  </si>
+  <si>
+    <t>Registro en el kardex de salida de sesión (usuarios)</t>
+  </si>
+  <si>
+    <t>Registo de inicio de sesión en el kardex (Administrador)</t>
+  </si>
+  <si>
+    <t>Registro en el kardex de salida de sesión (Administrador)</t>
+  </si>
+  <si>
+    <t>Menú de kardex en la viasta de administrador.</t>
+  </si>
+  <si>
+    <t>Subir al servidor</t>
+  </si>
+  <si>
+    <t>actualizacion de BD en el servidor</t>
+  </si>
+  <si>
+    <t>Registro de usuario en sistema Kardex</t>
+  </si>
+  <si>
+    <t>Suspension de usuario en sistema kardex</t>
+  </si>
+  <si>
+    <t>Activacion de usuario en sistema Kardex</t>
+  </si>
+  <si>
+    <t>Modificación de usuario en sistema Kardex</t>
+  </si>
+  <si>
+    <t>Creacion de tabla tbl_producto</t>
+  </si>
+  <si>
+    <t>Maquetacion de 15 controles para el producto (lentes de cerca)</t>
+  </si>
+  <si>
+    <t>Exportacion e importacion de la tabla medicos</t>
+  </si>
+  <si>
+    <t>Exportacion e importacion de la tabla eje</t>
+  </si>
+  <si>
+    <t>Exportacion e importacion de la tabla dp</t>
+  </si>
+  <si>
+    <t>Exportacion e importacion de la tabla datos</t>
+  </si>
+  <si>
+    <t>Exportacion e importacion de la tabla armazones</t>
+  </si>
+  <si>
+    <t>Maquetaciión para lentes de lejos</t>
+  </si>
+  <si>
+    <t>Crear paginación dinamica con el select producto</t>
+  </si>
+  <si>
+    <t>Maquetaciónvista lentes de lejos</t>
+  </si>
+  <si>
+    <t>Maquetación vista lentes de contacto</t>
+  </si>
+  <si>
+    <t>Maquetaciónvista lentes de sol</t>
+  </si>
+  <si>
+    <t>Maquetaciónvista lentes de traspaso</t>
+  </si>
+  <si>
+    <t>Maquetaciónvista lentes de otros</t>
+  </si>
+  <si>
+    <t>Creación de tabla ventas en la BD</t>
+  </si>
+  <si>
+    <t>Creacion de tabla de tipo deproducto (para saber que se esta vendiendo) en la BD</t>
   </si>
 </sst>
 </file>
@@ -511,21 +595,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -539,15 +632,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -881,10 +965,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P87"/>
+  <dimension ref="A1:P114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="G73" sqref="G73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G117" sqref="G117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -895,49 +980,49 @@
     <col min="4" max="4" width="4.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="47.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="71.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="74.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" style="1" customWidth="1"/>
     <col min="9" max="15" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -967,103 +1052,103 @@
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="13" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="18">
         <v>43147</v>
       </c>
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F8" s="11"/>
+      <c r="F8" s="14"/>
       <c r="G8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="16"/>
+      <c r="H8" s="19"/>
       <c r="P8" s="1"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F9" s="11"/>
+      <c r="F9" s="14"/>
       <c r="G9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="16"/>
+      <c r="H9" s="19"/>
       <c r="P9" s="1"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F10" s="11"/>
+      <c r="F10" s="14"/>
       <c r="G10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="16"/>
+      <c r="H10" s="19"/>
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="11"/>
+      <c r="F11" s="14"/>
       <c r="G11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="16"/>
+      <c r="H11" s="19"/>
       <c r="P11" s="1"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="11"/>
+      <c r="F12" s="14"/>
       <c r="G12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="16"/>
+      <c r="H12" s="19"/>
       <c r="P12" s="1"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="11"/>
+      <c r="F13" s="14"/>
       <c r="G13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="16"/>
+      <c r="H13" s="19"/>
       <c r="P13" s="1"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="11"/>
+      <c r="F14" s="14"/>
       <c r="G14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="16"/>
+      <c r="H14" s="19"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="11"/>
+      <c r="F15" s="14"/>
       <c r="G15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="16"/>
+      <c r="H15" s="19"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="12"/>
+      <c r="F16" s="17"/>
       <c r="G16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="17"/>
+      <c r="H16" s="20"/>
     </row>
     <row r="17" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="23"/>
@@ -1086,13 +1171,13 @@
       <c r="C18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="13" t="s">
         <v>35</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H18" s="18">
         <v>43150</v>
       </c>
     </row>
@@ -1100,103 +1185,103 @@
       <c r="C19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="11"/>
+      <c r="F19" s="14"/>
       <c r="G19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H19" s="18"/>
+      <c r="H19" s="21"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="11"/>
+      <c r="F20" s="14"/>
       <c r="G20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H20" s="18"/>
+      <c r="H20" s="21"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="11"/>
+      <c r="F21" s="14"/>
       <c r="G21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H21" s="18"/>
+      <c r="H21" s="21"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="11"/>
+      <c r="F22" s="14"/>
       <c r="G22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H22" s="18"/>
+      <c r="H22" s="21"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F23" s="11"/>
+      <c r="F23" s="14"/>
       <c r="G23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H23" s="18"/>
+      <c r="H23" s="21"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C24" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="11"/>
+      <c r="F24" s="14"/>
       <c r="G24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H24" s="18"/>
+      <c r="H24" s="21"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C25" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F25" s="11"/>
+      <c r="F25" s="14"/>
       <c r="G25" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H25" s="18"/>
+      <c r="H25" s="21"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C26" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F26" s="11"/>
+      <c r="F26" s="14"/>
       <c r="G26" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H26" s="18"/>
+      <c r="H26" s="21"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C27" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F27" s="12"/>
+      <c r="F27" s="17"/>
       <c r="G27" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H27" s="19"/>
+      <c r="H27" s="22"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="F28" s="13" t="s">
         <v>35</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H28" s="15">
+      <c r="H28" s="18">
         <v>43151</v>
       </c>
     </row>
@@ -1204,93 +1289,93 @@
       <c r="B29" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F29" s="11"/>
+      <c r="F29" s="14"/>
       <c r="G29" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H29" s="18"/>
+      <c r="H29" s="21"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F30" s="11"/>
+      <c r="F30" s="14"/>
       <c r="G30" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H30" s="18"/>
+      <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C31" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F31" s="11"/>
+      <c r="F31" s="14"/>
       <c r="G31" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H31" s="18"/>
+      <c r="H31" s="21"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C32" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F32" s="11"/>
+      <c r="F32" s="14"/>
       <c r="G32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H32" s="18"/>
+      <c r="H32" s="21"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F33" s="11"/>
+      <c r="F33" s="14"/>
       <c r="G33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H33" s="18"/>
+      <c r="H33" s="21"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C34" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F34" s="11"/>
+      <c r="F34" s="14"/>
       <c r="G34" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H34" s="18"/>
+      <c r="H34" s="21"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C35" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F35" s="11"/>
+      <c r="F35" s="14"/>
       <c r="G35" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H35" s="18"/>
+      <c r="H35" s="21"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C36" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F36" s="12"/>
+      <c r="F36" s="17"/>
       <c r="G36" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H36" s="19"/>
+      <c r="H36" s="22"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D37" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F37" s="10" t="s">
+      <c r="F37" s="13" t="s">
         <v>6</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H37" s="15">
+      <c r="H37" s="18">
         <v>43152</v>
       </c>
     </row>
@@ -1298,180 +1383,180 @@
       <c r="C38" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F38" s="11"/>
+      <c r="F38" s="14"/>
       <c r="G38" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H38" s="18"/>
+      <c r="H38" s="21"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C39" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F39" s="11"/>
+      <c r="F39" s="14"/>
       <c r="G39" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H39" s="18"/>
+      <c r="H39" s="21"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C40" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F40" s="11"/>
+      <c r="F40" s="14"/>
       <c r="G40" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H40" s="18"/>
+      <c r="H40" s="21"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C41" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F41" s="11"/>
+      <c r="F41" s="14"/>
       <c r="G41" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H41" s="18"/>
+      <c r="H41" s="21"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D42" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F42" s="11"/>
+      <c r="F42" s="14"/>
       <c r="G42" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H42" s="18"/>
+      <c r="H42" s="21"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F43" s="11"/>
+      <c r="F43" s="14"/>
       <c r="G43" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H43" s="18"/>
+      <c r="H43" s="21"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C44" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F44" s="11"/>
+      <c r="F44" s="14"/>
       <c r="G44" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H44" s="18"/>
+      <c r="H44" s="21"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D45" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F45" s="11"/>
+      <c r="F45" s="14"/>
       <c r="G45" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H45" s="18"/>
+      <c r="H45" s="21"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C46" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F46" s="11"/>
+      <c r="F46" s="14"/>
       <c r="G46" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="H46" s="18"/>
+      <c r="H46" s="21"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F47" s="11"/>
-      <c r="H47" s="18"/>
+      <c r="F47" s="14"/>
+      <c r="H47" s="21"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C48" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F48" s="12"/>
+      <c r="F48" s="17"/>
       <c r="G48" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H48" s="19"/>
+      <c r="H48" s="22"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F49" s="10" t="s">
+      <c r="F49" s="13" t="s">
         <v>6</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H49" s="20">
+      <c r="H49" s="10">
         <v>43153</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F50" s="11"/>
+      <c r="F50" s="14"/>
       <c r="G50" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H50" s="21"/>
+      <c r="H50" s="11"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F51" s="11"/>
+      <c r="F51" s="14"/>
       <c r="G51" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H51" s="21"/>
+      <c r="H51" s="11"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F52" s="11"/>
+      <c r="F52" s="14"/>
       <c r="G52" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H52" s="21"/>
+      <c r="H52" s="11"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F53" s="11"/>
+      <c r="F53" s="14"/>
       <c r="G53" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H53" s="21"/>
+      <c r="H53" s="11"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F54" s="11"/>
+      <c r="F54" s="14"/>
       <c r="G54" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H54" s="22"/>
+      <c r="H54" s="12"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F55" s="10" t="s">
+      <c r="F55" s="13" t="s">
         <v>6</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H55" s="20">
+      <c r="H55" s="10">
         <v>43154</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F56" s="11"/>
+      <c r="F56" s="14"/>
       <c r="G56" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H56" s="11"/>
+      <c r="H56" s="14"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F57" s="11"/>
+      <c r="F57" s="14"/>
       <c r="G57" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H57" s="11"/>
+      <c r="H57" s="14"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F58" s="12"/>
+      <c r="F58" s="17"/>
       <c r="G58" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H58" s="12"/>
+      <c r="H58" s="17"/>
     </row>
     <row r="59" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="26" t="s">
@@ -1493,75 +1578,75 @@
       <c r="O59" s="27"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F60" s="10" t="s">
+      <c r="F60" s="13" t="s">
         <v>6</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H60" s="20">
+      <c r="H60" s="10">
         <v>43157</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F61" s="12"/>
+      <c r="F61" s="17"/>
       <c r="G61" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H61" s="22"/>
+      <c r="H61" s="12"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F62" s="10" t="s">
+      <c r="F62" s="13" t="s">
         <v>6</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H62" s="20">
+      <c r="H62" s="10">
         <v>43158</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F63" s="11"/>
+      <c r="F63" s="14"/>
       <c r="G63" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H63" s="21"/>
+        <v>77</v>
+      </c>
+      <c r="H63" s="11"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F64" s="11"/>
+      <c r="F64" s="14"/>
       <c r="G64" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H64" s="21"/>
+      <c r="H64" s="11"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F65" s="11"/>
+      <c r="F65" s="14"/>
       <c r="G65" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H65" s="21"/>
+      <c r="H65" s="11"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F66" s="11"/>
+      <c r="F66" s="14"/>
       <c r="G66" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H66" s="21"/>
+      <c r="H66" s="11"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F67" s="11"/>
+      <c r="F67" s="14"/>
       <c r="G67" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H67" s="21"/>
+      <c r="H67" s="11"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F68" s="11"/>
+      <c r="F68" s="14"/>
       <c r="G68" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H68" s="21"/>
+      <c r="H68" s="11"/>
     </row>
     <row r="69" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
@@ -1569,11 +1654,11 @@
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
-      <c r="F69" s="11"/>
+      <c r="F69" s="14"/>
       <c r="G69" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="H69" s="21"/>
+      <c r="H69" s="11"/>
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
@@ -1583,71 +1668,71 @@
       <c r="O69" s="5"/>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F70" s="12"/>
+      <c r="F70" s="17"/>
       <c r="G70" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H70" s="22"/>
+        <v>76</v>
+      </c>
+      <c r="H70" s="12"/>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F71" s="10" t="s">
+      <c r="F71" s="13" t="s">
         <v>6</v>
       </c>
       <c r="G71" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="H71" s="10">
+        <v>43159</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F72" s="14"/>
+      <c r="G72" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H72" s="14"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F73" s="14"/>
+      <c r="G73" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H73" s="14"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F74" s="14"/>
+      <c r="G74" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H74" s="14"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F75" s="14"/>
+      <c r="G75" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="H71" s="20">
-        <v>43159</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F72" s="11"/>
-      <c r="G72" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="H72" s="11"/>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F73" s="11"/>
-      <c r="G73" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="H73" s="11"/>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F74" s="11"/>
-      <c r="G74" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="H74" s="11"/>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F75" s="11"/>
-      <c r="G75" s="8" t="s">
+      <c r="H75" s="14"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F76" s="14"/>
+      <c r="G76" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H76" s="14"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F77" s="14"/>
+      <c r="G77" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="H75" s="11"/>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F76" s="11"/>
-      <c r="G76" s="8" t="s">
+      <c r="H77" s="14"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F78" s="17"/>
+      <c r="G78" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="H76" s="11"/>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F77" s="11"/>
-      <c r="G77" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="H77" s="11"/>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F78" s="12"/>
-      <c r="G78" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="H78" s="12"/>
+      <c r="H78" s="17"/>
     </row>
     <row r="79" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
@@ -1655,11 +1740,11 @@
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
-      <c r="F79" s="10" t="s">
-        <v>94</v>
+      <c r="F79" s="13" t="s">
+        <v>93</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H79" s="29">
         <v>43160</v>
@@ -1678,9 +1763,9 @@
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
-      <c r="F80" s="11"/>
+      <c r="F80" s="14"/>
       <c r="G80" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H80" s="30"/>
       <c r="I80" s="8"/>
@@ -1697,9 +1782,9 @@
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
-      <c r="F81" s="11"/>
+      <c r="F81" s="14"/>
       <c r="G81" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H81" s="30"/>
       <c r="I81" s="8"/>
@@ -1716,9 +1801,9 @@
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
-      <c r="F82" s="11"/>
+      <c r="F82" s="14"/>
       <c r="G82" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H82" s="30"/>
       <c r="I82" s="8"/>
@@ -1735,9 +1820,9 @@
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
-      <c r="F83" s="11"/>
+      <c r="F83" s="14"/>
       <c r="G83" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H83" s="30"/>
       <c r="I83" s="8"/>
@@ -1749,9 +1834,9 @@
       <c r="O83" s="8"/>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F84" s="11"/>
+      <c r="F84" s="14"/>
       <c r="G84" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H84" s="30"/>
     </row>
@@ -1761,9 +1846,9 @@
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
-      <c r="F85" s="12"/>
+      <c r="F85" s="17"/>
       <c r="G85" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H85" s="31"/>
       <c r="I85" s="8"/>
@@ -1775,27 +1860,258 @@
       <c r="O85" s="8"/>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G86" s="4"/>
+      <c r="F86" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H86" s="10">
+        <v>43161</v>
+      </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G87" s="4" t="s">
-        <v>76</v>
-      </c>
+      <c r="F87" s="14"/>
+      <c r="G87" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H87" s="14"/>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F88" s="14"/>
+      <c r="G88" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H88" s="14"/>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F89" s="14"/>
+      <c r="G89" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H89" s="14"/>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F90" s="14"/>
+      <c r="G90" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H90" s="14"/>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F91" s="14"/>
+      <c r="G91" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="H91" s="14"/>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F92" s="14"/>
+      <c r="G92" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="H92" s="14"/>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F93" s="14"/>
+      <c r="G93" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="H93" s="14"/>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F94" s="17"/>
+      <c r="G94" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H94" s="17"/>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F95" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H95" s="10">
+        <v>43164</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F96" s="14"/>
+      <c r="G96" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H96" s="11"/>
+    </row>
+    <row r="97" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F97" s="14"/>
+      <c r="G97" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H97" s="11"/>
+    </row>
+    <row r="98" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F98" s="17"/>
+      <c r="G98" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H98" s="12"/>
+    </row>
+    <row r="99" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F99" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H99" s="10">
+        <v>43165</v>
+      </c>
+    </row>
+    <row r="100" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F100" s="14"/>
+      <c r="G100" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H100" s="11"/>
+    </row>
+    <row r="101" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F101" s="14"/>
+      <c r="G101" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H101" s="11"/>
+    </row>
+    <row r="102" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F102" s="14"/>
+      <c r="G102" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H102" s="11"/>
+    </row>
+    <row r="103" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F103" s="14"/>
+      <c r="G103" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H103" s="11"/>
+    </row>
+    <row r="104" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F104" s="14"/>
+      <c r="G104" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H104" s="11"/>
+    </row>
+    <row r="105" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F105" s="17"/>
+      <c r="G105" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H105" s="12"/>
+    </row>
+    <row r="106" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F106" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H106" s="10">
+        <v>43166</v>
+      </c>
+    </row>
+    <row r="107" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F107" s="14"/>
+      <c r="G107" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H107" s="11"/>
+    </row>
+    <row r="108" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F108" s="14"/>
+      <c r="G108" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H108" s="12"/>
+    </row>
+    <row r="109" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F109" s="14"/>
+      <c r="G109" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H109" s="10">
+        <v>43167</v>
+      </c>
+    </row>
+    <row r="110" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F110" s="14"/>
+      <c r="G110" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H110" s="11"/>
+    </row>
+    <row r="111" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F111" s="14"/>
+      <c r="G111" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H111" s="11"/>
+    </row>
+    <row r="112" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F112" s="17"/>
+      <c r="G112" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H112" s="12"/>
+    </row>
+    <row r="113" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F113" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H113" s="10">
+        <v>43168</v>
+      </c>
+    </row>
+    <row r="114" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F114" s="17"/>
+      <c r="G114" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H114" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="38">
+    <mergeCell ref="F106:F112"/>
+    <mergeCell ref="H113:H114"/>
+    <mergeCell ref="F113:F114"/>
+    <mergeCell ref="H95:H98"/>
+    <mergeCell ref="H99:H105"/>
+    <mergeCell ref="F79:F85"/>
+    <mergeCell ref="F71:F78"/>
+    <mergeCell ref="H71:H78"/>
+    <mergeCell ref="F86:F94"/>
+    <mergeCell ref="F95:F98"/>
+    <mergeCell ref="F99:F105"/>
+    <mergeCell ref="H86:H94"/>
     <mergeCell ref="H79:H85"/>
     <mergeCell ref="H62:H70"/>
     <mergeCell ref="F62:F70"/>
-    <mergeCell ref="A17:XFD17"/>
     <mergeCell ref="H60:H61"/>
     <mergeCell ref="F60:F61"/>
+    <mergeCell ref="F18:F27"/>
+    <mergeCell ref="A17:XFD17"/>
     <mergeCell ref="H55:H58"/>
     <mergeCell ref="F55:F58"/>
     <mergeCell ref="A59:XFD59"/>
+    <mergeCell ref="H106:H108"/>
+    <mergeCell ref="H109:H112"/>
     <mergeCell ref="F49:F54"/>
     <mergeCell ref="H49:H54"/>
-    <mergeCell ref="F79:F85"/>
     <mergeCell ref="A1:XFD1"/>
     <mergeCell ref="A2:XFD2"/>
     <mergeCell ref="A3:XFD3"/>
@@ -1808,9 +2124,6 @@
     <mergeCell ref="H28:H36"/>
     <mergeCell ref="F28:F36"/>
     <mergeCell ref="H18:H27"/>
-    <mergeCell ref="F18:F27"/>
-    <mergeCell ref="F71:F78"/>
-    <mergeCell ref="H71:H78"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/local/Actividades.xlsx
+++ b/local/Actividades.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="147">
   <si>
     <t>ARCHIVO</t>
   </si>
@@ -397,12 +397,97 @@
   <si>
     <t>Creacion de tabla de tipo deproducto (para saber que se esta vendiendo) en la BD</t>
   </si>
+  <si>
+    <t>Margin top 5px a los select en la vista lentes  - cerca</t>
+  </si>
+  <si>
+    <t>Colocar select buscardor en lentes -cerca</t>
+  </si>
+  <si>
+    <t>Carga de datos en controles en la vista productos lentes - cerca (6 SQL)</t>
+  </si>
+  <si>
+    <t>Quitar redimencionar en el textcerca lentes - cerca</t>
+  </si>
+  <si>
+    <t>Colocar select buscar a odos los controles</t>
+  </si>
+  <si>
+    <t>Colocar date picker para los input date para que funcionen en firefox</t>
+  </si>
+  <si>
+    <t>Colocar boton de continuar el la seccion de ventas - paso dos</t>
+  </si>
+  <si>
+    <t>(No se trabajo, falla a nivel de servicio eléctrico e internet durante el día)</t>
+  </si>
+  <si>
+    <t>fix al select de producto quitar busqueda - ver producto.</t>
+  </si>
+  <si>
+    <t>Validar campos requeridos en el formulario ventas - cliente</t>
+  </si>
+  <si>
+    <t>Validar correo en formualario ventas - cliente</t>
+  </si>
+  <si>
+    <t>Paginacion con los botones siguientes en formulario de ventas</t>
+  </si>
+  <si>
+    <t>Ssweetaler para las validaciones en formulario ventas -cliente</t>
+  </si>
+  <si>
+    <t>Validacion de campos requeridos (14 controles) en productos lentes de cerca.</t>
+  </si>
+  <si>
+    <t>http://www.paginasamarillas.com.ar/b/laser-corte-y-grabado/argentina/</t>
+  </si>
+  <si>
+    <t>ingrids@universalcranes.com.ar</t>
+  </si>
+  <si>
+    <t>kallay@kallay.com</t>
+  </si>
+  <si>
+    <t>tolsaconstructora@gmail.com</t>
+  </si>
+  <si>
+    <t>ventas@marinellisa.com</t>
+  </si>
+  <si>
+    <t>info@pjasrl.com.ar</t>
+  </si>
+  <si>
+    <t>info@estructurasdelnorte.com.ar</t>
+  </si>
+  <si>
+    <t>(No se trabajó, falla a nivel de servicio eléctrico)</t>
+  </si>
+  <si>
+    <r>
+      <t>Resumen de la semana: 13 Actividades - Monto facturado: 27 USD - Estado del monto:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Carga de los avances en producción</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -454,8 +539,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -477,6 +569,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,7 +676,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -595,20 +693,57 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -616,9 +751,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -642,24 +774,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -965,11 +1079,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P114"/>
+  <dimension ref="A1:P29842"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G117" sqref="G117"/>
+      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G133" sqref="G133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -985,44 +1099,44 @@
     <col min="9" max="15" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -1052,132 +1166,132 @@
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="21" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="32">
         <v>43147</v>
       </c>
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F8" s="14"/>
+      <c r="F8" s="22"/>
       <c r="G8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="19"/>
+      <c r="H8" s="33"/>
       <c r="P8" s="1"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F9" s="14"/>
+      <c r="F9" s="22"/>
       <c r="G9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="19"/>
+      <c r="H9" s="33"/>
       <c r="P9" s="1"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F10" s="14"/>
+      <c r="F10" s="22"/>
       <c r="G10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="19"/>
+      <c r="H10" s="33"/>
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="14"/>
+      <c r="F11" s="22"/>
       <c r="G11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="19"/>
+      <c r="H11" s="33"/>
       <c r="P11" s="1"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="14"/>
+      <c r="F12" s="22"/>
       <c r="G12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="19"/>
+      <c r="H12" s="33"/>
       <c r="P12" s="1"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="14"/>
+      <c r="F13" s="22"/>
       <c r="G13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="19"/>
+      <c r="H13" s="33"/>
       <c r="P13" s="1"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="14"/>
+      <c r="F14" s="22"/>
       <c r="G14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="19"/>
+      <c r="H14" s="33"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="14"/>
+      <c r="F15" s="22"/>
       <c r="G15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="19"/>
+      <c r="H15" s="33"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="17"/>
+      <c r="F16" s="23"/>
       <c r="G16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="20"/>
-    </row>
-    <row r="17" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
+      <c r="H16" s="34"/>
+    </row>
+    <row r="17" spans="1:15" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="37"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="21" t="s">
         <v>35</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H18" s="32">
         <v>43150</v>
       </c>
     </row>
@@ -1185,103 +1299,103 @@
       <c r="C19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="14"/>
+      <c r="F19" s="22"/>
       <c r="G19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H19" s="21"/>
+      <c r="H19" s="35"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="14"/>
+      <c r="F20" s="22"/>
       <c r="G20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H20" s="21"/>
+      <c r="H20" s="35"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="14"/>
+      <c r="F21" s="22"/>
       <c r="G21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H21" s="21"/>
+      <c r="H21" s="35"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="14"/>
+      <c r="F22" s="22"/>
       <c r="G22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H22" s="21"/>
+      <c r="H22" s="35"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F23" s="14"/>
+      <c r="F23" s="22"/>
       <c r="G23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H23" s="21"/>
+      <c r="H23" s="35"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C24" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="14"/>
+      <c r="F24" s="22"/>
       <c r="G24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H24" s="21"/>
+      <c r="H24" s="35"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C25" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F25" s="14"/>
+      <c r="F25" s="22"/>
       <c r="G25" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H25" s="21"/>
+      <c r="H25" s="35"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C26" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F26" s="14"/>
+      <c r="F26" s="22"/>
       <c r="G26" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H26" s="21"/>
+      <c r="H26" s="35"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C27" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F27" s="17"/>
+      <c r="F27" s="23"/>
       <c r="G27" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H27" s="22"/>
+      <c r="H27" s="36"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="21" t="s">
         <v>35</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H28" s="18">
+      <c r="H28" s="32">
         <v>43151</v>
       </c>
     </row>
@@ -1289,93 +1403,93 @@
       <c r="B29" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F29" s="14"/>
+      <c r="F29" s="22"/>
       <c r="G29" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H29" s="21"/>
+      <c r="H29" s="35"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F30" s="14"/>
+      <c r="F30" s="22"/>
       <c r="G30" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H30" s="21"/>
+      <c r="H30" s="35"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C31" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F31" s="14"/>
+      <c r="F31" s="22"/>
       <c r="G31" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H31" s="21"/>
+      <c r="H31" s="35"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C32" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F32" s="14"/>
+      <c r="F32" s="22"/>
       <c r="G32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H32" s="21"/>
+      <c r="H32" s="35"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F33" s="14"/>
+      <c r="F33" s="22"/>
       <c r="G33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H33" s="21"/>
+      <c r="H33" s="35"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C34" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F34" s="14"/>
+      <c r="F34" s="22"/>
       <c r="G34" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H34" s="21"/>
+      <c r="H34" s="35"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C35" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F35" s="14"/>
+      <c r="F35" s="22"/>
       <c r="G35" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H35" s="21"/>
+      <c r="H35" s="35"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C36" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F36" s="17"/>
+      <c r="F36" s="23"/>
       <c r="G36" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H36" s="22"/>
+      <c r="H36" s="36"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D37" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F37" s="13" t="s">
+      <c r="F37" s="21" t="s">
         <v>6</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H37" s="18">
+      <c r="H37" s="32">
         <v>43152</v>
       </c>
     </row>
@@ -1383,270 +1497,270 @@
       <c r="C38" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F38" s="14"/>
+      <c r="F38" s="22"/>
       <c r="G38" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H38" s="21"/>
+      <c r="H38" s="35"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C39" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F39" s="14"/>
+      <c r="F39" s="22"/>
       <c r="G39" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H39" s="21"/>
+      <c r="H39" s="35"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C40" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F40" s="14"/>
+      <c r="F40" s="22"/>
       <c r="G40" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H40" s="21"/>
+      <c r="H40" s="35"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C41" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F41" s="14"/>
+      <c r="F41" s="22"/>
       <c r="G41" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H41" s="21"/>
+      <c r="H41" s="35"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D42" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F42" s="14"/>
+      <c r="F42" s="22"/>
       <c r="G42" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H42" s="21"/>
+      <c r="H42" s="35"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F43" s="14"/>
+      <c r="F43" s="22"/>
       <c r="G43" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H43" s="21"/>
+      <c r="H43" s="35"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C44" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F44" s="14"/>
+      <c r="F44" s="22"/>
       <c r="G44" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H44" s="21"/>
+      <c r="H44" s="35"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D45" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F45" s="14"/>
+      <c r="F45" s="22"/>
       <c r="G45" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H45" s="21"/>
+      <c r="H45" s="35"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C46" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F46" s="14"/>
+      <c r="F46" s="22"/>
       <c r="G46" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="H46" s="21"/>
+      <c r="H46" s="35"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F47" s="14"/>
-      <c r="H47" s="21"/>
+      <c r="F47" s="22"/>
+      <c r="H47" s="35"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C48" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F48" s="17"/>
+      <c r="F48" s="23"/>
       <c r="G48" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H48" s="22"/>
+      <c r="H48" s="36"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F49" s="13" t="s">
+      <c r="F49" s="21" t="s">
         <v>6</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H49" s="10">
+      <c r="H49" s="24">
         <v>43153</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F50" s="14"/>
+      <c r="F50" s="22"/>
       <c r="G50" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H50" s="11"/>
+      <c r="H50" s="26"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F51" s="14"/>
+      <c r="F51" s="22"/>
       <c r="G51" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H51" s="11"/>
+      <c r="H51" s="26"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F52" s="14"/>
+      <c r="F52" s="22"/>
       <c r="G52" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H52" s="11"/>
+      <c r="H52" s="26"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F53" s="14"/>
+      <c r="F53" s="22"/>
       <c r="G53" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H53" s="11"/>
+      <c r="H53" s="26"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F54" s="14"/>
+      <c r="F54" s="22"/>
       <c r="G54" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H54" s="12"/>
+      <c r="H54" s="25"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F55" s="13" t="s">
+      <c r="F55" s="21" t="s">
         <v>6</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H55" s="10">
+      <c r="H55" s="24">
         <v>43154</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F56" s="14"/>
+      <c r="F56" s="22"/>
       <c r="G56" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H56" s="14"/>
+      <c r="H56" s="22"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F57" s="14"/>
+      <c r="F57" s="22"/>
       <c r="G57" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H57" s="14"/>
+      <c r="H57" s="22"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F58" s="17"/>
+      <c r="F58" s="23"/>
       <c r="G58" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H58" s="17"/>
-    </row>
-    <row r="59" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="26" t="s">
+      <c r="H58" s="23"/>
+    </row>
+    <row r="59" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="B59" s="27"/>
-      <c r="C59" s="27"/>
-      <c r="D59" s="27"/>
-      <c r="E59" s="27"/>
-      <c r="F59" s="27"/>
-      <c r="G59" s="27"/>
-      <c r="H59" s="27"/>
-      <c r="I59" s="27"/>
-      <c r="J59" s="27"/>
-      <c r="K59" s="27"/>
-      <c r="L59" s="27"/>
-      <c r="M59" s="27"/>
-      <c r="N59" s="27"/>
-      <c r="O59" s="27"/>
+      <c r="B59" s="28"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="28"/>
+      <c r="J59" s="28"/>
+      <c r="K59" s="28"/>
+      <c r="L59" s="28"/>
+      <c r="M59" s="28"/>
+      <c r="N59" s="28"/>
+      <c r="O59" s="28"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F60" s="13" t="s">
+      <c r="F60" s="21" t="s">
         <v>6</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H60" s="10">
+      <c r="H60" s="24">
         <v>43157</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F61" s="17"/>
+      <c r="F61" s="23"/>
       <c r="G61" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H61" s="12"/>
+      <c r="H61" s="25"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F62" s="13" t="s">
+      <c r="F62" s="21" t="s">
         <v>6</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H62" s="10">
+      <c r="H62" s="24">
         <v>43158</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F63" s="14"/>
+      <c r="F63" s="22"/>
       <c r="G63" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H63" s="11"/>
+      <c r="H63" s="26"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F64" s="14"/>
+      <c r="F64" s="22"/>
       <c r="G64" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H64" s="11"/>
+      <c r="H64" s="26"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F65" s="14"/>
+      <c r="F65" s="22"/>
       <c r="G65" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H65" s="11"/>
+      <c r="H65" s="26"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F66" s="14"/>
+      <c r="F66" s="22"/>
       <c r="G66" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H66" s="11"/>
+      <c r="H66" s="26"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F67" s="14"/>
+      <c r="F67" s="22"/>
       <c r="G67" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H67" s="11"/>
+      <c r="H67" s="26"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F68" s="14"/>
+      <c r="F68" s="22"/>
       <c r="G68" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H68" s="11"/>
+      <c r="H68" s="26"/>
     </row>
     <row r="69" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
@@ -1654,11 +1768,11 @@
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
-      <c r="F69" s="14"/>
+      <c r="F69" s="22"/>
       <c r="G69" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="H69" s="11"/>
+      <c r="H69" s="26"/>
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
@@ -1668,71 +1782,71 @@
       <c r="O69" s="5"/>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F70" s="17"/>
+      <c r="F70" s="23"/>
       <c r="G70" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H70" s="12"/>
+      <c r="H70" s="25"/>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F71" s="13" t="s">
+      <c r="F71" s="21" t="s">
         <v>6</v>
       </c>
       <c r="G71" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="H71" s="10">
+      <c r="H71" s="24">
         <v>43159</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F72" s="14"/>
+      <c r="F72" s="22"/>
       <c r="G72" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="H72" s="14"/>
+      <c r="H72" s="22"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F73" s="14"/>
+      <c r="F73" s="22"/>
       <c r="G73" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="H73" s="14"/>
+      <c r="H73" s="22"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F74" s="14"/>
+      <c r="F74" s="22"/>
       <c r="G74" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="H74" s="14"/>
+      <c r="H74" s="22"/>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F75" s="14"/>
+      <c r="F75" s="22"/>
       <c r="G75" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="H75" s="14"/>
+      <c r="H75" s="22"/>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F76" s="14"/>
+      <c r="F76" s="22"/>
       <c r="G76" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="H76" s="14"/>
+      <c r="H76" s="22"/>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F77" s="14"/>
+      <c r="F77" s="22"/>
       <c r="G77" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="H77" s="14"/>
+      <c r="H77" s="22"/>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F78" s="17"/>
+      <c r="F78" s="23"/>
       <c r="G78" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="H78" s="17"/>
+      <c r="H78" s="23"/>
     </row>
     <row r="79" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
@@ -1740,13 +1854,13 @@
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
-      <c r="F79" s="13" t="s">
+      <c r="F79" s="21" t="s">
         <v>93</v>
       </c>
       <c r="G79" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="H79" s="29">
+      <c r="H79" s="18">
         <v>43160</v>
       </c>
       <c r="I79" s="8"/>
@@ -1763,11 +1877,11 @@
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
-      <c r="F80" s="14"/>
+      <c r="F80" s="22"/>
       <c r="G80" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="H80" s="30"/>
+      <c r="H80" s="19"/>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
@@ -1782,11 +1896,11 @@
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
-      <c r="F81" s="14"/>
+      <c r="F81" s="22"/>
       <c r="G81" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="H81" s="30"/>
+      <c r="H81" s="19"/>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
@@ -1801,11 +1915,11 @@
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
-      <c r="F82" s="14"/>
+      <c r="F82" s="22"/>
       <c r="G82" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="H82" s="30"/>
+      <c r="H82" s="19"/>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
@@ -1820,11 +1934,11 @@
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
-      <c r="F83" s="14"/>
+      <c r="F83" s="22"/>
       <c r="G83" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="H83" s="30"/>
+      <c r="H83" s="19"/>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
@@ -1834,11 +1948,11 @@
       <c r="O83" s="8"/>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F84" s="14"/>
+      <c r="F84" s="22"/>
       <c r="G84" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="H84" s="30"/>
+      <c r="H84" s="19"/>
     </row>
     <row r="85" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="8"/>
@@ -1846,11 +1960,11 @@
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
-      <c r="F85" s="17"/>
+      <c r="F85" s="23"/>
       <c r="G85" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="H85" s="31"/>
+      <c r="H85" s="20"/>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
@@ -1860,263 +1974,459 @@
       <c r="O85" s="8"/>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F86" s="13" t="s">
+      <c r="F86" s="21" t="s">
         <v>93</v>
       </c>
       <c r="G86" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="H86" s="10">
+      <c r="H86" s="24">
         <v>43161</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F87" s="14"/>
+      <c r="F87" s="22"/>
       <c r="G87" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="H87" s="14"/>
+      <c r="H87" s="22"/>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F88" s="14"/>
+      <c r="F88" s="22"/>
       <c r="G88" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H88" s="14"/>
+      <c r="H88" s="22"/>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F89" s="14"/>
+      <c r="F89" s="22"/>
       <c r="G89" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="H89" s="14"/>
+      <c r="H89" s="22"/>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F90" s="14"/>
+      <c r="F90" s="22"/>
       <c r="G90" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="H90" s="14"/>
+      <c r="H90" s="22"/>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F91" s="14"/>
+      <c r="F91" s="22"/>
       <c r="G91" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="H91" s="14"/>
+      <c r="H91" s="22"/>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F92" s="14"/>
+      <c r="F92" s="22"/>
       <c r="G92" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="H92" s="14"/>
+      <c r="H92" s="22"/>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F93" s="14"/>
+      <c r="F93" s="22"/>
       <c r="G93" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="H93" s="14"/>
+      <c r="H93" s="22"/>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F94" s="17"/>
+      <c r="F94" s="23"/>
       <c r="G94" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="H94" s="17"/>
+      <c r="H94" s="23"/>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F95" s="13" t="s">
+      <c r="F95" s="21" t="s">
         <v>93</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H95" s="10">
+      <c r="H95" s="24">
         <v>43164</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F96" s="14"/>
+      <c r="F96" s="22"/>
       <c r="G96" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H96" s="11"/>
+      <c r="H96" s="26"/>
     </row>
     <row r="97" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F97" s="14"/>
+      <c r="F97" s="22"/>
       <c r="G97" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H97" s="11"/>
+      <c r="H97" s="26"/>
     </row>
     <row r="98" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F98" s="17"/>
+      <c r="F98" s="23"/>
       <c r="G98" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H98" s="12"/>
+      <c r="H98" s="25"/>
     </row>
     <row r="99" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F99" s="13" t="s">
+      <c r="F99" s="21" t="s">
         <v>93</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="H99" s="10">
+      <c r="H99" s="24">
         <v>43165</v>
       </c>
     </row>
     <row r="100" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F100" s="14"/>
+      <c r="F100" s="22"/>
       <c r="G100" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="H100" s="11"/>
+      <c r="H100" s="26"/>
     </row>
     <row r="101" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F101" s="14"/>
+      <c r="F101" s="22"/>
       <c r="G101" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="H101" s="11"/>
+      <c r="H101" s="26"/>
     </row>
     <row r="102" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F102" s="14"/>
+      <c r="F102" s="22"/>
       <c r="G102" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H102" s="11"/>
+      <c r="H102" s="26"/>
     </row>
     <row r="103" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F103" s="14"/>
+      <c r="F103" s="22"/>
       <c r="G103" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H103" s="11"/>
+      <c r="H103" s="26"/>
     </row>
     <row r="104" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F104" s="14"/>
+      <c r="F104" s="22"/>
       <c r="G104" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H104" s="11"/>
+      <c r="H104" s="26"/>
     </row>
     <row r="105" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F105" s="17"/>
+      <c r="F105" s="23"/>
       <c r="G105" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H105" s="12"/>
+      <c r="H105" s="25"/>
     </row>
     <row r="106" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F106" s="13" t="s">
+      <c r="F106" s="21" t="s">
         <v>93</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H106" s="10">
+      <c r="H106" s="24">
         <v>43166</v>
       </c>
     </row>
     <row r="107" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F107" s="14"/>
+      <c r="F107" s="22"/>
       <c r="G107" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H107" s="11"/>
+      <c r="H107" s="26"/>
     </row>
     <row r="108" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F108" s="14"/>
+      <c r="F108" s="22"/>
       <c r="G108" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="H108" s="12"/>
+      <c r="H108" s="25"/>
     </row>
     <row r="109" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F109" s="14"/>
+      <c r="F109" s="22"/>
       <c r="G109" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H109" s="10">
+      <c r="H109" s="24">
         <v>43167</v>
       </c>
     </row>
     <row r="110" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F110" s="14"/>
+      <c r="F110" s="22"/>
       <c r="G110" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H110" s="11"/>
+      <c r="H110" s="26"/>
     </row>
     <row r="111" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F111" s="14"/>
+      <c r="F111" s="22"/>
       <c r="G111" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H111" s="11"/>
+      <c r="H111" s="26"/>
     </row>
     <row r="112" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F112" s="17"/>
+      <c r="F112" s="23"/>
       <c r="G112" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="H112" s="12"/>
-    </row>
-    <row r="113" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F113" s="13" t="s">
+      <c r="H112" s="25"/>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F113" s="21" t="s">
         <v>93</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="H113" s="10">
+      <c r="H113" s="24">
         <v>43168</v>
       </c>
     </row>
-    <row r="114" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F114" s="17"/>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F114" s="23"/>
       <c r="G114" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H114" s="12"/>
+      <c r="H114" s="25"/>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G115" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H115" s="10">
+        <v>43171</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G116" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G117" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G118" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G119" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G120" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G121" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="11"/>
+      <c r="B122" s="12"/>
+      <c r="C122" s="12"/>
+      <c r="D122" s="12"/>
+      <c r="E122" s="12"/>
+      <c r="F122" s="11"/>
+      <c r="G122" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="H122" s="14">
+        <v>43172</v>
+      </c>
+      <c r="I122" s="11"/>
+      <c r="J122" s="11"/>
+      <c r="K122" s="11"/>
+      <c r="L122" s="11"/>
+      <c r="M122" s="11"/>
+      <c r="N122" s="11"/>
+      <c r="O122" s="11"/>
+    </row>
+    <row r="123" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="5"/>
+      <c r="B123" s="6"/>
+      <c r="C123" s="6"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="6"/>
+      <c r="F123" s="5"/>
+      <c r="G123" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="H123" s="15">
+        <v>43173</v>
+      </c>
+      <c r="I123" s="5"/>
+      <c r="J123" s="5"/>
+      <c r="K123" s="5"/>
+      <c r="L123" s="5"/>
+      <c r="M123" s="5"/>
+      <c r="N123" s="5"/>
+      <c r="O123" s="5"/>
+    </row>
+    <row r="124" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="5"/>
+      <c r="B124" s="6"/>
+      <c r="C124" s="6"/>
+      <c r="D124" s="6"/>
+      <c r="E124" s="6"/>
+      <c r="F124" s="5"/>
+      <c r="G124" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="H124" s="16"/>
+      <c r="I124" s="5"/>
+      <c r="J124" s="5"/>
+      <c r="K124" s="5"/>
+      <c r="L124" s="5"/>
+      <c r="M124" s="5"/>
+      <c r="N124" s="5"/>
+      <c r="O124" s="5"/>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G125" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H125" s="16"/>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G126" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H126" s="16"/>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G127" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H127" s="17"/>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G128" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H128" s="10">
+        <v>43174</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="11"/>
+      <c r="B129" s="12"/>
+      <c r="C129" s="12"/>
+      <c r="D129" s="12"/>
+      <c r="E129" s="12"/>
+      <c r="F129" s="11"/>
+      <c r="G129" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="H129" s="14">
+        <v>43175</v>
+      </c>
+      <c r="I129" s="11"/>
+      <c r="J129" s="11"/>
+      <c r="K129" s="11"/>
+      <c r="L129" s="11"/>
+      <c r="M129" s="11"/>
+      <c r="N129" s="11"/>
+      <c r="O129" s="11"/>
+    </row>
+    <row r="130" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="B130" s="28"/>
+      <c r="C130" s="28"/>
+      <c r="D130" s="28"/>
+      <c r="E130" s="28"/>
+      <c r="F130" s="28"/>
+      <c r="G130" s="28"/>
+      <c r="H130" s="28"/>
+      <c r="I130" s="28"/>
+      <c r="J130" s="28"/>
+      <c r="K130" s="28"/>
+      <c r="L130" s="28"/>
+      <c r="M130" s="28"/>
+      <c r="N130" s="28"/>
+      <c r="O130" s="28"/>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G131" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H131" s="10">
+        <v>43178</v>
+      </c>
+    </row>
+    <row r="29836" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C29836" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29837" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29837" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C29837" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29838" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29838" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C29838" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29839" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29839" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C29839" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29840" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29840" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C29840" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29841" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29841" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C29841" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29842" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29842" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C29842" s="2" t="s">
+        <v>137</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="F106:F112"/>
-    <mergeCell ref="H113:H114"/>
-    <mergeCell ref="F113:F114"/>
-    <mergeCell ref="H95:H98"/>
-    <mergeCell ref="H99:H105"/>
-    <mergeCell ref="F79:F85"/>
-    <mergeCell ref="F71:F78"/>
-    <mergeCell ref="H71:H78"/>
-    <mergeCell ref="F86:F94"/>
-    <mergeCell ref="F95:F98"/>
-    <mergeCell ref="F99:F105"/>
-    <mergeCell ref="H86:H94"/>
-    <mergeCell ref="H79:H85"/>
-    <mergeCell ref="H62:H70"/>
-    <mergeCell ref="F62:F70"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="F18:F27"/>
-    <mergeCell ref="A17:XFD17"/>
-    <mergeCell ref="H55:H58"/>
-    <mergeCell ref="F55:F58"/>
-    <mergeCell ref="A59:XFD59"/>
-    <mergeCell ref="H106:H108"/>
-    <mergeCell ref="H109:H112"/>
-    <mergeCell ref="F49:F54"/>
-    <mergeCell ref="H49:H54"/>
-    <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="A2:XFD2"/>
-    <mergeCell ref="A3:XFD3"/>
-    <mergeCell ref="A4:XFD4"/>
-    <mergeCell ref="A5:O5"/>
+  <mergeCells count="40">
+    <mergeCell ref="A130:XFD130"/>
     <mergeCell ref="F7:F16"/>
     <mergeCell ref="H7:H16"/>
     <mergeCell ref="H37:H48"/>
@@ -2124,6 +2434,38 @@
     <mergeCell ref="H28:H36"/>
     <mergeCell ref="F28:F36"/>
     <mergeCell ref="H18:H27"/>
+    <mergeCell ref="A17:XFD17"/>
+    <mergeCell ref="F18:F27"/>
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A2:XFD2"/>
+    <mergeCell ref="A3:XFD3"/>
+    <mergeCell ref="A4:XFD4"/>
+    <mergeCell ref="A5:O5"/>
+    <mergeCell ref="H55:H58"/>
+    <mergeCell ref="F55:F58"/>
+    <mergeCell ref="A59:XFD59"/>
+    <mergeCell ref="H106:H108"/>
+    <mergeCell ref="F49:F54"/>
+    <mergeCell ref="H49:H54"/>
+    <mergeCell ref="H62:H70"/>
+    <mergeCell ref="F62:F70"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="F79:F85"/>
+    <mergeCell ref="F71:F78"/>
+    <mergeCell ref="H71:H78"/>
+    <mergeCell ref="F86:F94"/>
+    <mergeCell ref="F95:F98"/>
+    <mergeCell ref="H86:H94"/>
+    <mergeCell ref="H123:H127"/>
+    <mergeCell ref="H79:H85"/>
+    <mergeCell ref="F106:F112"/>
+    <mergeCell ref="H113:H114"/>
+    <mergeCell ref="F113:F114"/>
+    <mergeCell ref="H95:H98"/>
+    <mergeCell ref="H99:H105"/>
+    <mergeCell ref="F99:F105"/>
+    <mergeCell ref="H109:H112"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/local/Actividades.xlsx
+++ b/local/Actividades.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="172">
   <si>
     <t>ARCHIVO</t>
   </si>
@@ -480,7 +480,82 @@
     </r>
   </si>
   <si>
-    <t>Carga de los avances en producción</t>
+    <t>Validacion de campos requeridos (16 controles) en productos lentes de lejos.</t>
+  </si>
+  <si>
+    <t>Sweetaler para las validaciones en productos lentes de lejos.</t>
+  </si>
+  <si>
+    <t>Validacion de campos requeridos (9 controles) en productos - traspaso.</t>
+  </si>
+  <si>
+    <t>Sweetaler para las validaciones en productos - traspaso</t>
+  </si>
+  <si>
+    <t>Sweetaler para las validaciones en productos - lentes de contacto</t>
+  </si>
+  <si>
+    <t>Validacion de campos requeridos (11 controles) en productos - lentes de contacto</t>
+  </si>
+  <si>
+    <t>Validacion de campos requeridos (2 controles) en productos - lentes de sol</t>
+  </si>
+  <si>
+    <t>Validacion de campos requeridos (2 controles) en productos - otros</t>
+  </si>
+  <si>
+    <t>Sweetaler para las validaciones en productos - otros</t>
+  </si>
+  <si>
+    <t>Resolucion de Bug en select otros (No se mostraba la vista otros)</t>
+  </si>
+  <si>
+    <t>Carga de los avances en producción (los de la semana pasada)</t>
+  </si>
+  <si>
+    <t>Carga de avances en producción (los avances del día)</t>
+  </si>
+  <si>
+    <t>Completar select de bancos</t>
+  </si>
+  <si>
+    <t>Colocar select buscar en campo banco  - medio de pago - cheque</t>
+  </si>
+  <si>
+    <t>Retiro de boton agregar en opciones avanzadas</t>
+  </si>
+  <si>
+    <t>Formato de dinerpo campo transferencia medio de pago  - transferencia</t>
+  </si>
+  <si>
+    <t>Crear tabla temporal en la BD (para la utilizacion de tarjetas)</t>
+  </si>
+  <si>
+    <t>Crear tabla temporal en la BD (para la utilizacion de cheques)</t>
+  </si>
+  <si>
+    <t>Sweetaler para las validaciones en modal tarjetas en medio de pago - tarjetas</t>
+  </si>
+  <si>
+    <t>Quitar clase de solo lectura input transferencia medio de pago - transferencia</t>
+  </si>
+  <si>
+    <t>Validacion de modal tarjetas (campos requeridos) en medio de pago - tarjetas</t>
+  </si>
+  <si>
+    <t>Inserción de datos de tarjetas en tabla temporalde tarjetas</t>
+  </si>
+  <si>
+    <t>Inserción de datos de cheques en tabla temporalde creques</t>
+  </si>
+  <si>
+    <t>Validacion de modal cheques (campos requeridos) en medio de pago - cheques</t>
+  </si>
+  <si>
+    <t>Sweetaler para las validaciones en modal tarjetas en medio de pago - cheques</t>
+  </si>
+  <si>
+    <t>Carga de avances en producción (Del dia 20-03-2018)</t>
   </si>
 </sst>
 </file>
@@ -700,6 +775,72 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -708,72 +849,6 @@
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1082,8 +1157,8 @@
   <dimension ref="A1:P29842"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G133" sqref="G133"/>
+      <pane ySplit="1" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G158" sqref="G158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1099,44 +1174,44 @@
     <col min="9" max="15" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:16" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:16" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+    <row r="3" spans="1:16" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+    <row r="4" spans="1:16" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -1166,132 +1241,132 @@
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="20" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="32">
+      <c r="H7" s="24">
         <v>43147</v>
       </c>
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F8" s="22"/>
+      <c r="F8" s="18"/>
       <c r="G8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="33"/>
+      <c r="H8" s="25"/>
       <c r="P8" s="1"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F9" s="22"/>
+      <c r="F9" s="18"/>
       <c r="G9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="33"/>
+      <c r="H9" s="25"/>
       <c r="P9" s="1"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F10" s="22"/>
+      <c r="F10" s="18"/>
       <c r="G10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="33"/>
+      <c r="H10" s="25"/>
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="22"/>
+      <c r="F11" s="18"/>
       <c r="G11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="33"/>
+      <c r="H11" s="25"/>
       <c r="P11" s="1"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="22"/>
+      <c r="F12" s="18"/>
       <c r="G12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="33"/>
+      <c r="H12" s="25"/>
       <c r="P12" s="1"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="22"/>
+      <c r="F13" s="18"/>
       <c r="G13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="33"/>
+      <c r="H13" s="25"/>
       <c r="P13" s="1"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="22"/>
+      <c r="F14" s="18"/>
       <c r="G14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="33"/>
+      <c r="H14" s="25"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="22"/>
+      <c r="F15" s="18"/>
       <c r="G15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="33"/>
+      <c r="H15" s="25"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="23"/>
+      <c r="F16" s="19"/>
       <c r="G16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="34"/>
-    </row>
-    <row r="17" spans="1:15" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="38"/>
+      <c r="H16" s="26"/>
+    </row>
+    <row r="17" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="29"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="21" t="s">
+      <c r="F18" s="20" t="s">
         <v>35</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H18" s="32">
+      <c r="H18" s="24">
         <v>43150</v>
       </c>
     </row>
@@ -1299,103 +1374,103 @@
       <c r="C19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="22"/>
+      <c r="F19" s="18"/>
       <c r="G19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H19" s="35"/>
+      <c r="H19" s="27"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="22"/>
+      <c r="F20" s="18"/>
       <c r="G20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H20" s="35"/>
+      <c r="H20" s="27"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="22"/>
+      <c r="F21" s="18"/>
       <c r="G21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H21" s="35"/>
+      <c r="H21" s="27"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="22"/>
+      <c r="F22" s="18"/>
       <c r="G22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H22" s="35"/>
+      <c r="H22" s="27"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F23" s="22"/>
+      <c r="F23" s="18"/>
       <c r="G23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H23" s="35"/>
+      <c r="H23" s="27"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C24" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="22"/>
+      <c r="F24" s="18"/>
       <c r="G24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H24" s="35"/>
+      <c r="H24" s="27"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C25" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F25" s="22"/>
+      <c r="F25" s="18"/>
       <c r="G25" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H25" s="35"/>
+      <c r="H25" s="27"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C26" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F26" s="22"/>
+      <c r="F26" s="18"/>
       <c r="G26" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H26" s="35"/>
+      <c r="H26" s="27"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C27" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F27" s="23"/>
+      <c r="F27" s="19"/>
       <c r="G27" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H27" s="36"/>
+      <c r="H27" s="28"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F28" s="21" t="s">
+      <c r="F28" s="20" t="s">
         <v>35</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H28" s="32">
+      <c r="H28" s="24">
         <v>43151</v>
       </c>
     </row>
@@ -1403,93 +1478,93 @@
       <c r="B29" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F29" s="22"/>
+      <c r="F29" s="18"/>
       <c r="G29" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H29" s="35"/>
+      <c r="H29" s="27"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F30" s="22"/>
+      <c r="F30" s="18"/>
       <c r="G30" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H30" s="35"/>
+      <c r="H30" s="27"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C31" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F31" s="22"/>
+      <c r="F31" s="18"/>
       <c r="G31" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H31" s="35"/>
+      <c r="H31" s="27"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C32" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F32" s="22"/>
+      <c r="F32" s="18"/>
       <c r="G32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H32" s="35"/>
+      <c r="H32" s="27"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F33" s="22"/>
+      <c r="F33" s="18"/>
       <c r="G33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H33" s="35"/>
+      <c r="H33" s="27"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C34" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F34" s="22"/>
+      <c r="F34" s="18"/>
       <c r="G34" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H34" s="35"/>
+      <c r="H34" s="27"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C35" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F35" s="22"/>
+      <c r="F35" s="18"/>
       <c r="G35" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H35" s="35"/>
+      <c r="H35" s="27"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C36" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F36" s="23"/>
+      <c r="F36" s="19"/>
       <c r="G36" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H36" s="36"/>
+      <c r="H36" s="28"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D37" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F37" s="21" t="s">
+      <c r="F37" s="20" t="s">
         <v>6</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H37" s="32">
+      <c r="H37" s="24">
         <v>43152</v>
       </c>
     </row>
@@ -1497,270 +1572,270 @@
       <c r="C38" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F38" s="22"/>
+      <c r="F38" s="18"/>
       <c r="G38" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H38" s="35"/>
+      <c r="H38" s="27"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C39" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F39" s="22"/>
+      <c r="F39" s="18"/>
       <c r="G39" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H39" s="35"/>
+      <c r="H39" s="27"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C40" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F40" s="22"/>
+      <c r="F40" s="18"/>
       <c r="G40" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H40" s="35"/>
+      <c r="H40" s="27"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C41" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F41" s="22"/>
+      <c r="F41" s="18"/>
       <c r="G41" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H41" s="35"/>
+      <c r="H41" s="27"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D42" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F42" s="22"/>
+      <c r="F42" s="18"/>
       <c r="G42" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H42" s="35"/>
+      <c r="H42" s="27"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F43" s="22"/>
+      <c r="F43" s="18"/>
       <c r="G43" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H43" s="35"/>
+      <c r="H43" s="27"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C44" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F44" s="22"/>
+      <c r="F44" s="18"/>
       <c r="G44" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H44" s="35"/>
+      <c r="H44" s="27"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D45" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F45" s="22"/>
+      <c r="F45" s="18"/>
       <c r="G45" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H45" s="35"/>
+      <c r="H45" s="27"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C46" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F46" s="22"/>
+      <c r="F46" s="18"/>
       <c r="G46" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="H46" s="35"/>
+      <c r="H46" s="27"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F47" s="22"/>
-      <c r="H47" s="35"/>
+      <c r="F47" s="18"/>
+      <c r="H47" s="27"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C48" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F48" s="23"/>
+      <c r="F48" s="19"/>
       <c r="G48" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H48" s="36"/>
+      <c r="H48" s="28"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F49" s="21" t="s">
+      <c r="F49" s="20" t="s">
         <v>6</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H49" s="24">
+      <c r="H49" s="15">
         <v>43153</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F50" s="22"/>
+      <c r="F50" s="18"/>
       <c r="G50" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H50" s="26"/>
+      <c r="H50" s="16"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F51" s="22"/>
+      <c r="F51" s="18"/>
       <c r="G51" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H51" s="26"/>
+      <c r="H51" s="16"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F52" s="22"/>
+      <c r="F52" s="18"/>
       <c r="G52" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H52" s="26"/>
+      <c r="H52" s="16"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F53" s="22"/>
+      <c r="F53" s="18"/>
       <c r="G53" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H53" s="26"/>
+      <c r="H53" s="16"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F54" s="22"/>
+      <c r="F54" s="18"/>
       <c r="G54" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H54" s="25"/>
+      <c r="H54" s="17"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F55" s="21" t="s">
+      <c r="F55" s="20" t="s">
         <v>6</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H55" s="24">
+      <c r="H55" s="15">
         <v>43154</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F56" s="22"/>
+      <c r="F56" s="18"/>
       <c r="G56" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H56" s="22"/>
+      <c r="H56" s="18"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F57" s="22"/>
+      <c r="F57" s="18"/>
       <c r="G57" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H57" s="22"/>
+      <c r="H57" s="18"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F58" s="23"/>
+      <c r="F58" s="19"/>
       <c r="G58" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H58" s="23"/>
-    </row>
-    <row r="59" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="27" t="s">
+      <c r="H58" s="19"/>
+    </row>
+    <row r="59" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="B59" s="28"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="28"/>
-      <c r="J59" s="28"/>
-      <c r="K59" s="28"/>
-      <c r="L59" s="28"/>
-      <c r="M59" s="28"/>
-      <c r="N59" s="28"/>
-      <c r="O59" s="28"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="22"/>
+      <c r="I59" s="22"/>
+      <c r="J59" s="22"/>
+      <c r="K59" s="22"/>
+      <c r="L59" s="22"/>
+      <c r="M59" s="22"/>
+      <c r="N59" s="22"/>
+      <c r="O59" s="22"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F60" s="21" t="s">
+      <c r="F60" s="20" t="s">
         <v>6</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H60" s="24">
+      <c r="H60" s="15">
         <v>43157</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F61" s="23"/>
+      <c r="F61" s="19"/>
       <c r="G61" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H61" s="25"/>
+      <c r="H61" s="17"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F62" s="21" t="s">
+      <c r="F62" s="20" t="s">
         <v>6</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H62" s="24">
+      <c r="H62" s="15">
         <v>43158</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F63" s="22"/>
+      <c r="F63" s="18"/>
       <c r="G63" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H63" s="26"/>
+      <c r="H63" s="16"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F64" s="22"/>
+      <c r="F64" s="18"/>
       <c r="G64" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H64" s="26"/>
+      <c r="H64" s="16"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F65" s="22"/>
+      <c r="F65" s="18"/>
       <c r="G65" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H65" s="26"/>
+      <c r="H65" s="16"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F66" s="22"/>
+      <c r="F66" s="18"/>
       <c r="G66" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H66" s="26"/>
+      <c r="H66" s="16"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F67" s="22"/>
+      <c r="F67" s="18"/>
       <c r="G67" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H67" s="26"/>
+      <c r="H67" s="16"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F68" s="22"/>
+      <c r="F68" s="18"/>
       <c r="G68" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H68" s="26"/>
+      <c r="H68" s="16"/>
     </row>
     <row r="69" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
@@ -1768,11 +1843,11 @@
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
-      <c r="F69" s="22"/>
+      <c r="F69" s="18"/>
       <c r="G69" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="H69" s="26"/>
+      <c r="H69" s="16"/>
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
@@ -1782,71 +1857,71 @@
       <c r="O69" s="5"/>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F70" s="23"/>
+      <c r="F70" s="19"/>
       <c r="G70" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H70" s="25"/>
+      <c r="H70" s="17"/>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F71" s="21" t="s">
+      <c r="F71" s="20" t="s">
         <v>6</v>
       </c>
       <c r="G71" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="H71" s="24">
+      <c r="H71" s="15">
         <v>43159</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F72" s="22"/>
+      <c r="F72" s="18"/>
       <c r="G72" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="H72" s="22"/>
+      <c r="H72" s="18"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F73" s="22"/>
+      <c r="F73" s="18"/>
       <c r="G73" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="H73" s="22"/>
+      <c r="H73" s="18"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F74" s="22"/>
+      <c r="F74" s="18"/>
       <c r="G74" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="H74" s="22"/>
+      <c r="H74" s="18"/>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F75" s="22"/>
+      <c r="F75" s="18"/>
       <c r="G75" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="H75" s="22"/>
+      <c r="H75" s="18"/>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F76" s="22"/>
+      <c r="F76" s="18"/>
       <c r="G76" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="H76" s="22"/>
+      <c r="H76" s="18"/>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F77" s="22"/>
+      <c r="F77" s="18"/>
       <c r="G77" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="H77" s="22"/>
+      <c r="H77" s="18"/>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F78" s="23"/>
+      <c r="F78" s="19"/>
       <c r="G78" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="H78" s="23"/>
+      <c r="H78" s="19"/>
     </row>
     <row r="79" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
@@ -1854,13 +1929,13 @@
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
-      <c r="F79" s="21" t="s">
+      <c r="F79" s="20" t="s">
         <v>93</v>
       </c>
       <c r="G79" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="H79" s="18">
+      <c r="H79" s="34">
         <v>43160</v>
       </c>
       <c r="I79" s="8"/>
@@ -1877,11 +1952,11 @@
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
-      <c r="F80" s="22"/>
+      <c r="F80" s="18"/>
       <c r="G80" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="H80" s="19"/>
+      <c r="H80" s="35"/>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
@@ -1896,11 +1971,11 @@
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
-      <c r="F81" s="22"/>
+      <c r="F81" s="18"/>
       <c r="G81" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="H81" s="19"/>
+      <c r="H81" s="35"/>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
@@ -1915,11 +1990,11 @@
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
-      <c r="F82" s="22"/>
+      <c r="F82" s="18"/>
       <c r="G82" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="H82" s="19"/>
+      <c r="H82" s="35"/>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
@@ -1934,11 +2009,11 @@
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
-      <c r="F83" s="22"/>
+      <c r="F83" s="18"/>
       <c r="G83" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="H83" s="19"/>
+      <c r="H83" s="35"/>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
@@ -1948,11 +2023,11 @@
       <c r="O83" s="8"/>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F84" s="22"/>
+      <c r="F84" s="18"/>
       <c r="G84" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="H84" s="19"/>
+      <c r="H84" s="35"/>
     </row>
     <row r="85" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="8"/>
@@ -1960,11 +2035,11 @@
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
-      <c r="F85" s="23"/>
+      <c r="F85" s="19"/>
       <c r="G85" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="H85" s="20"/>
+      <c r="H85" s="36"/>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
@@ -1974,229 +2049,229 @@
       <c r="O85" s="8"/>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F86" s="21" t="s">
+      <c r="F86" s="20" t="s">
         <v>93</v>
       </c>
       <c r="G86" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="H86" s="24">
+      <c r="H86" s="15">
         <v>43161</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F87" s="22"/>
+      <c r="F87" s="18"/>
       <c r="G87" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="H87" s="22"/>
+      <c r="H87" s="18"/>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F88" s="22"/>
+      <c r="F88" s="18"/>
       <c r="G88" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H88" s="22"/>
+      <c r="H88" s="18"/>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F89" s="22"/>
+      <c r="F89" s="18"/>
       <c r="G89" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="H89" s="22"/>
+      <c r="H89" s="18"/>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F90" s="22"/>
+      <c r="F90" s="18"/>
       <c r="G90" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="H90" s="22"/>
+      <c r="H90" s="18"/>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F91" s="22"/>
+      <c r="F91" s="18"/>
       <c r="G91" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="H91" s="22"/>
+      <c r="H91" s="18"/>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F92" s="22"/>
+      <c r="F92" s="18"/>
       <c r="G92" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="H92" s="22"/>
+      <c r="H92" s="18"/>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F93" s="22"/>
+      <c r="F93" s="18"/>
       <c r="G93" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="H93" s="22"/>
+      <c r="H93" s="18"/>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F94" s="23"/>
+      <c r="F94" s="19"/>
       <c r="G94" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="H94" s="23"/>
+      <c r="H94" s="19"/>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F95" s="21" t="s">
+      <c r="F95" s="20" t="s">
         <v>93</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H95" s="24">
+      <c r="H95" s="15">
         <v>43164</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F96" s="22"/>
+      <c r="F96" s="18"/>
       <c r="G96" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H96" s="26"/>
+      <c r="H96" s="16"/>
     </row>
     <row r="97" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F97" s="22"/>
+      <c r="F97" s="18"/>
       <c r="G97" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H97" s="26"/>
+      <c r="H97" s="16"/>
     </row>
     <row r="98" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F98" s="23"/>
+      <c r="F98" s="19"/>
       <c r="G98" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H98" s="25"/>
+      <c r="H98" s="17"/>
     </row>
     <row r="99" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F99" s="21" t="s">
+      <c r="F99" s="20" t="s">
         <v>93</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="H99" s="24">
+      <c r="H99" s="15">
         <v>43165</v>
       </c>
     </row>
     <row r="100" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F100" s="22"/>
+      <c r="F100" s="18"/>
       <c r="G100" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="H100" s="26"/>
+      <c r="H100" s="16"/>
     </row>
     <row r="101" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F101" s="22"/>
+      <c r="F101" s="18"/>
       <c r="G101" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="H101" s="26"/>
+      <c r="H101" s="16"/>
     </row>
     <row r="102" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F102" s="22"/>
+      <c r="F102" s="18"/>
       <c r="G102" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H102" s="26"/>
+      <c r="H102" s="16"/>
     </row>
     <row r="103" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F103" s="22"/>
+      <c r="F103" s="18"/>
       <c r="G103" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H103" s="26"/>
+      <c r="H103" s="16"/>
     </row>
     <row r="104" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F104" s="22"/>
+      <c r="F104" s="18"/>
       <c r="G104" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H104" s="26"/>
+      <c r="H104" s="16"/>
     </row>
     <row r="105" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F105" s="23"/>
+      <c r="F105" s="19"/>
       <c r="G105" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H105" s="25"/>
+      <c r="H105" s="17"/>
     </row>
     <row r="106" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F106" s="21" t="s">
+      <c r="F106" s="20" t="s">
         <v>93</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H106" s="24">
+      <c r="H106" s="15">
         <v>43166</v>
       </c>
     </row>
     <row r="107" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F107" s="22"/>
+      <c r="F107" s="18"/>
       <c r="G107" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H107" s="26"/>
+      <c r="H107" s="16"/>
     </row>
     <row r="108" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F108" s="22"/>
+      <c r="F108" s="18"/>
       <c r="G108" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="H108" s="25"/>
+      <c r="H108" s="17"/>
     </row>
     <row r="109" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F109" s="22"/>
+      <c r="F109" s="18"/>
       <c r="G109" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H109" s="24">
+      <c r="H109" s="15">
         <v>43167</v>
       </c>
     </row>
     <row r="110" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F110" s="22"/>
+      <c r="F110" s="18"/>
       <c r="G110" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H110" s="26"/>
+      <c r="H110" s="16"/>
     </row>
     <row r="111" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F111" s="22"/>
+      <c r="F111" s="18"/>
       <c r="G111" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H111" s="26"/>
+      <c r="H111" s="16"/>
     </row>
     <row r="112" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F112" s="23"/>
+      <c r="F112" s="19"/>
       <c r="G112" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="H112" s="25"/>
+      <c r="H112" s="17"/>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F113" s="21" t="s">
+      <c r="F113" s="20" t="s">
         <v>93</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="H113" s="24">
+      <c r="H113" s="15">
         <v>43168</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F114" s="23"/>
+      <c r="F114" s="19"/>
       <c r="G114" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H114" s="25"/>
+      <c r="H114" s="17"/>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G115" s="1" t="s">
@@ -2267,7 +2342,7 @@
       <c r="G123" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="H123" s="15">
+      <c r="H123" s="37">
         <v>43173</v>
       </c>
       <c r="I123" s="5"/>
@@ -2288,7 +2363,7 @@
       <c r="G124" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="H124" s="16"/>
+      <c r="H124" s="38"/>
       <c r="I124" s="5"/>
       <c r="J124" s="5"/>
       <c r="K124" s="5"/>
@@ -2301,21 +2376,21 @@
       <c r="G125" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="H125" s="16"/>
+      <c r="H125" s="38"/>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G126" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="H126" s="16"/>
+      <c r="H126" s="38"/>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G127" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="H127" s="17"/>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H127" s="39"/>
+    </row>
+    <row r="128" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G128" s="1" t="s">
         <v>136</v>
       </c>
@@ -2344,31 +2419,191 @@
       <c r="N129" s="11"/>
       <c r="O129" s="11"/>
     </row>
-    <row r="130" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="27" t="s">
+    <row r="130" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="B130" s="28"/>
-      <c r="C130" s="28"/>
-      <c r="D130" s="28"/>
-      <c r="E130" s="28"/>
-      <c r="F130" s="28"/>
-      <c r="G130" s="28"/>
-      <c r="H130" s="28"/>
-      <c r="I130" s="28"/>
-      <c r="J130" s="28"/>
-      <c r="K130" s="28"/>
-      <c r="L130" s="28"/>
-      <c r="M130" s="28"/>
-      <c r="N130" s="28"/>
-      <c r="O130" s="28"/>
+      <c r="B130" s="22"/>
+      <c r="C130" s="22"/>
+      <c r="D130" s="22"/>
+      <c r="E130" s="22"/>
+      <c r="F130" s="22"/>
+      <c r="G130" s="22"/>
+      <c r="H130" s="22"/>
+      <c r="I130" s="22"/>
+      <c r="J130" s="22"/>
+      <c r="K130" s="22"/>
+      <c r="L130" s="22"/>
+      <c r="M130" s="22"/>
+      <c r="N130" s="22"/>
+      <c r="O130" s="22"/>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G131" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H131" s="15">
+        <v>43178</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G132" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="H131" s="10">
-        <v>43178</v>
+      <c r="H132" s="16"/>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G133" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H133" s="16"/>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G134" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H134" s="16"/>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G135" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H135" s="16"/>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G136" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H136" s="16"/>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G137" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H137" s="16"/>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G138" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H138" s="16"/>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G139" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H139" s="16"/>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G140" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H140" s="16"/>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G141" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H141" s="16"/>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G142" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H142" s="16"/>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G143" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H143" s="17"/>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G144" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H144" s="15">
+        <v>43179</v>
+      </c>
+    </row>
+    <row r="145" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G145" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H145" s="16"/>
+    </row>
+    <row r="146" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G146" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H146" s="16"/>
+    </row>
+    <row r="147" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G147" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H147" s="16"/>
+    </row>
+    <row r="148" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G148" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H148" s="16"/>
+    </row>
+    <row r="149" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G149" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H149" s="16"/>
+    </row>
+    <row r="150" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G150" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H150" s="16"/>
+    </row>
+    <row r="151" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G151" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H151" s="16"/>
+    </row>
+    <row r="152" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G152" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H152" s="16"/>
+    </row>
+    <row r="153" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G153" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H153" s="16"/>
+    </row>
+    <row r="154" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G154" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H154" s="16"/>
+    </row>
+    <row r="155" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G155" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H155" s="16"/>
+    </row>
+    <row r="156" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G156" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H156" s="17"/>
+    </row>
+    <row r="157" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G157" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H157" s="10">
+        <v>43180</v>
       </c>
     </row>
     <row r="29836" spans="1:3" x14ac:dyDescent="0.25">
@@ -2425,8 +2660,24 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="42">
+    <mergeCell ref="F86:F94"/>
+    <mergeCell ref="F95:F98"/>
+    <mergeCell ref="H86:H94"/>
+    <mergeCell ref="H123:H127"/>
     <mergeCell ref="A130:XFD130"/>
+    <mergeCell ref="H95:H98"/>
+    <mergeCell ref="H99:H105"/>
+    <mergeCell ref="F99:F105"/>
+    <mergeCell ref="H109:H112"/>
+    <mergeCell ref="H131:H143"/>
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A2:XFD2"/>
+    <mergeCell ref="A3:XFD3"/>
+    <mergeCell ref="A4:XFD4"/>
+    <mergeCell ref="A5:O5"/>
+    <mergeCell ref="F49:F54"/>
+    <mergeCell ref="H49:H54"/>
     <mergeCell ref="F7:F16"/>
     <mergeCell ref="H7:H16"/>
     <mergeCell ref="H37:H48"/>
@@ -2436,17 +2687,11 @@
     <mergeCell ref="H18:H27"/>
     <mergeCell ref="A17:XFD17"/>
     <mergeCell ref="F18:F27"/>
-    <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="A2:XFD2"/>
-    <mergeCell ref="A3:XFD3"/>
-    <mergeCell ref="A4:XFD4"/>
-    <mergeCell ref="A5:O5"/>
+    <mergeCell ref="H144:H156"/>
     <mergeCell ref="H55:H58"/>
     <mergeCell ref="F55:F58"/>
     <mergeCell ref="A59:XFD59"/>
     <mergeCell ref="H106:H108"/>
-    <mergeCell ref="F49:F54"/>
-    <mergeCell ref="H49:H54"/>
     <mergeCell ref="H62:H70"/>
     <mergeCell ref="F62:F70"/>
     <mergeCell ref="H60:H61"/>
@@ -2454,18 +2699,10 @@
     <mergeCell ref="F79:F85"/>
     <mergeCell ref="F71:F78"/>
     <mergeCell ref="H71:H78"/>
-    <mergeCell ref="F86:F94"/>
-    <mergeCell ref="F95:F98"/>
-    <mergeCell ref="H86:H94"/>
-    <mergeCell ref="H123:H127"/>
     <mergeCell ref="H79:H85"/>
     <mergeCell ref="F106:F112"/>
     <mergeCell ref="H113:H114"/>
     <mergeCell ref="F113:F114"/>
-    <mergeCell ref="H95:H98"/>
-    <mergeCell ref="H99:H105"/>
-    <mergeCell ref="F99:F105"/>
-    <mergeCell ref="H109:H112"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/local/Actividades.xlsx
+++ b/local/Actividades.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="203">
   <si>
     <t>ARCHIVO</t>
   </si>
@@ -464,8 +464,176 @@
     <t>(No se trabajó, falla a nivel de servicio eléctrico)</t>
   </si>
   <si>
+    <t>Validacion de campos requeridos (16 controles) en productos lentes de lejos.</t>
+  </si>
+  <si>
+    <t>Sweetaler para las validaciones en productos lentes de lejos.</t>
+  </si>
+  <si>
+    <t>Validacion de campos requeridos (9 controles) en productos - traspaso.</t>
+  </si>
+  <si>
+    <t>Sweetaler para las validaciones en productos - traspaso</t>
+  </si>
+  <si>
+    <t>Sweetaler para las validaciones en productos - lentes de contacto</t>
+  </si>
+  <si>
+    <t>Validacion de campos requeridos (11 controles) en productos - lentes de contacto</t>
+  </si>
+  <si>
+    <t>Validacion de campos requeridos (2 controles) en productos - lentes de sol</t>
+  </si>
+  <si>
+    <t>Validacion de campos requeridos (2 controles) en productos - otros</t>
+  </si>
+  <si>
+    <t>Sweetaler para las validaciones en productos - otros</t>
+  </si>
+  <si>
+    <t>Resolucion de Bug en select otros (No se mostraba la vista otros)</t>
+  </si>
+  <si>
+    <t>Carga de los avances en producción (los de la semana pasada)</t>
+  </si>
+  <si>
+    <t>Carga de avances en producción (los avances del día)</t>
+  </si>
+  <si>
+    <t>Completar select de bancos</t>
+  </si>
+  <si>
+    <t>Colocar select buscar en campo banco  - medio de pago - cheque</t>
+  </si>
+  <si>
+    <t>Retiro de boton agregar en opciones avanzadas</t>
+  </si>
+  <si>
+    <t>Formato de dinerpo campo transferencia medio de pago  - transferencia</t>
+  </si>
+  <si>
+    <t>Crear tabla temporal en la BD (para la utilizacion de tarjetas)</t>
+  </si>
+  <si>
+    <t>Crear tabla temporal en la BD (para la utilizacion de cheques)</t>
+  </si>
+  <si>
+    <t>Sweetaler para las validaciones en modal tarjetas en medio de pago - tarjetas</t>
+  </si>
+  <si>
+    <t>Quitar clase de solo lectura input transferencia medio de pago - transferencia</t>
+  </si>
+  <si>
+    <t>Validacion de modal tarjetas (campos requeridos) en medio de pago - tarjetas</t>
+  </si>
+  <si>
+    <t>Inserción de datos de tarjetas en tabla temporalde tarjetas</t>
+  </si>
+  <si>
+    <t>Inserción de datos de cheques en tabla temporalde creques</t>
+  </si>
+  <si>
+    <t>Validacion de modal cheques (campos requeridos) en medio de pago - cheques</t>
+  </si>
+  <si>
+    <t>Sweetaler para las validaciones en modal tarjetas en medio de pago - cheques</t>
+  </si>
+  <si>
+    <t>Carga de avances en producción (Del dia 20-03-2018)</t>
+  </si>
+  <si>
+    <t>Crear columna token, y id_ usaurio en las tablas tbl_temp_tarjetas y tbl_temp_cheque</t>
+  </si>
+  <si>
+    <t>Funcion para generar tokens</t>
+  </si>
+  <si>
+    <t>Listado de tarjetas en el modal opciones avanzadas</t>
+  </si>
+  <si>
+    <t>Eliminacion de tarjetas en el modal opciones avanzadas.</t>
+  </si>
+  <si>
+    <t>Listado de cheques en el modal de opciones avanzadas</t>
+  </si>
+  <si>
+    <t>Eliminacion de cheques en modal opciones avanzadas</t>
+  </si>
+  <si>
+    <t>Cargar cambios en produccion</t>
+  </si>
+  <si>
+    <t>Calcular sumatoria de carjetas</t>
+  </si>
+  <si>
+    <t>Calcular sumatoria de cheques</t>
+  </si>
+  <si>
+    <t>mostrar total cheque y tarjetas en en los controles Tarjeta(+) y cheque(+)</t>
+  </si>
+  <si>
+    <t>Crear boton calcular total</t>
+  </si>
+  <si>
+    <t>Obtener sumatoria Total y mostrar en el input total</t>
+  </si>
+  <si>
+    <t>Creacion de tabla  tbl_tarjetas</t>
+  </si>
+  <si>
+    <t>Creacion de tabla tbl_cheques</t>
+  </si>
+  <si>
+    <t>creacion de columna token para la tabla tbl_ventas</t>
+  </si>
+  <si>
+    <t>Creacion de tabla factura en la BD</t>
+  </si>
+  <si>
+    <t>Creacion de columna id_usuario en la tabla ventas</t>
+  </si>
+  <si>
+    <t>Recion de columna id_factura en la tabla ventas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insercion de datos en la tabla factura </t>
+  </si>
+  <si>
+    <t>Insercion de datos en la tabla ventas</t>
+  </si>
+  <si>
+    <t>Insercion de los datos de las tarjetas en la BD</t>
+  </si>
+  <si>
+    <t>Insercion de datos en la tabla cheques</t>
+  </si>
+  <si>
+    <t>Eliminacion de datos en la tabla temporal de tarjetas (despues de guardar la transaccion)</t>
+  </si>
+  <si>
+    <t>Eliminacion de datos en la tabla temporal de cheques (despues de guardar la transaccion)</t>
+  </si>
+  <si>
+    <t>Limpiar todo el proceso de formulario despues de guardar la transaccion</t>
+  </si>
+  <si>
+    <t>Colocar en la posicion paso 1 clientes despues de guardar la transaccion</t>
+  </si>
+  <si>
+    <t>Listar tabla de ventas</t>
+  </si>
+  <si>
+    <t>Resolver bug en OC medios de pago</t>
+  </si>
+  <si>
+    <t>Almacenar la sucursal en la venta</t>
+  </si>
+  <si>
+    <t>Validar formuario dellado del back-end</t>
+  </si>
+  <si>
     <r>
-      <t>Resumen de la semana: 13 Actividades - Monto facturado: 27 USD - Estado del monto:</t>
+      <t>Resumen de la semana: 55 Actividades - Monto facturado: 45 - 18 = 27 USD - Estado del monto:</t>
     </r>
     <r>
       <rPr>
@@ -480,82 +648,20 @@
     </r>
   </si>
   <si>
-    <t>Validacion de campos requeridos (16 controles) en productos lentes de lejos.</t>
-  </si>
-  <si>
-    <t>Sweetaler para las validaciones en productos lentes de lejos.</t>
-  </si>
-  <si>
-    <t>Validacion de campos requeridos (9 controles) en productos - traspaso.</t>
-  </si>
-  <si>
-    <t>Sweetaler para las validaciones en productos - traspaso</t>
-  </si>
-  <si>
-    <t>Sweetaler para las validaciones en productos - lentes de contacto</t>
-  </si>
-  <si>
-    <t>Validacion de campos requeridos (11 controles) en productos - lentes de contacto</t>
-  </si>
-  <si>
-    <t>Validacion de campos requeridos (2 controles) en productos - lentes de sol</t>
-  </si>
-  <si>
-    <t>Validacion de campos requeridos (2 controles) en productos - otros</t>
-  </si>
-  <si>
-    <t>Sweetaler para las validaciones en productos - otros</t>
-  </si>
-  <si>
-    <t>Resolucion de Bug en select otros (No se mostraba la vista otros)</t>
-  </si>
-  <si>
-    <t>Carga de los avances en producción (los de la semana pasada)</t>
-  </si>
-  <si>
-    <t>Carga de avances en producción (los avances del día)</t>
-  </si>
-  <si>
-    <t>Completar select de bancos</t>
-  </si>
-  <si>
-    <t>Colocar select buscar en campo banco  - medio de pago - cheque</t>
-  </si>
-  <si>
-    <t>Retiro de boton agregar en opciones avanzadas</t>
-  </si>
-  <si>
-    <t>Formato de dinerpo campo transferencia medio de pago  - transferencia</t>
-  </si>
-  <si>
-    <t>Crear tabla temporal en la BD (para la utilizacion de tarjetas)</t>
-  </si>
-  <si>
-    <t>Crear tabla temporal en la BD (para la utilizacion de cheques)</t>
-  </si>
-  <si>
-    <t>Sweetaler para las validaciones en modal tarjetas en medio de pago - tarjetas</t>
-  </si>
-  <si>
-    <t>Quitar clase de solo lectura input transferencia medio de pago - transferencia</t>
-  </si>
-  <si>
-    <t>Validacion de modal tarjetas (campos requeridos) en medio de pago - tarjetas</t>
-  </si>
-  <si>
-    <t>Inserción de datos de tarjetas en tabla temporalde tarjetas</t>
-  </si>
-  <si>
-    <t>Inserción de datos de cheques en tabla temporalde creques</t>
-  </si>
-  <si>
-    <t>Validacion de modal cheques (campos requeridos) en medio de pago - cheques</t>
-  </si>
-  <si>
-    <t>Sweetaler para las validaciones en modal tarjetas en medio de pago - cheques</t>
-  </si>
-  <si>
-    <t>Carga de avances en producción (Del dia 20-03-2018)</t>
+    <r>
+      <t>Resumen de la semana: 13 Actividades - Monto facturado: 45 USD - Estado del monto:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -775,13 +881,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -790,17 +890,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -817,6 +917,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -826,21 +932,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -849,6 +940,21 @@
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1154,11 +1260,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P29842"/>
+  <dimension ref="A1:P29843"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G158" sqref="G158"/>
+      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A131" sqref="A131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1169,49 +1275,49 @@
     <col min="4" max="4" width="4.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="47.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="74.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="81.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" style="1" customWidth="1"/>
     <col min="9" max="15" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:16" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+    <row r="2" spans="1:16" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+    <row r="3" spans="1:16" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+    <row r="4" spans="1:16" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -1241,103 +1347,103 @@
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="15" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="24">
+      <c r="H7" s="22">
         <v>43147</v>
       </c>
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F8" s="18"/>
+      <c r="F8" s="16"/>
       <c r="G8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="25"/>
+      <c r="H8" s="23"/>
       <c r="P8" s="1"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F9" s="18"/>
+      <c r="F9" s="16"/>
       <c r="G9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="25"/>
+      <c r="H9" s="23"/>
       <c r="P9" s="1"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F10" s="18"/>
+      <c r="F10" s="16"/>
       <c r="G10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="25"/>
+      <c r="H10" s="23"/>
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="18"/>
+      <c r="F11" s="16"/>
       <c r="G11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="25"/>
+      <c r="H11" s="23"/>
       <c r="P11" s="1"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="18"/>
+      <c r="F12" s="16"/>
       <c r="G12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="25"/>
+      <c r="H12" s="23"/>
       <c r="P12" s="1"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="18"/>
+      <c r="F13" s="16"/>
       <c r="G13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="25"/>
+      <c r="H13" s="23"/>
       <c r="P13" s="1"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="18"/>
+      <c r="F14" s="16"/>
       <c r="G14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="25"/>
+      <c r="H14" s="23"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="18"/>
+      <c r="F15" s="16"/>
       <c r="G15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="25"/>
+      <c r="H15" s="23"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="19"/>
+      <c r="F16" s="17"/>
       <c r="G16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="26"/>
+      <c r="H16" s="24"/>
     </row>
     <row r="17" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29"/>
@@ -1360,13 +1466,13 @@
       <c r="C18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="F18" s="15" t="s">
         <v>35</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H18" s="24">
+      <c r="H18" s="22">
         <v>43150</v>
       </c>
     </row>
@@ -1374,103 +1480,103 @@
       <c r="C19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="18"/>
+      <c r="F19" s="16"/>
       <c r="G19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H19" s="27"/>
+      <c r="H19" s="25"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="18"/>
+      <c r="F20" s="16"/>
       <c r="G20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H20" s="27"/>
+      <c r="H20" s="25"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="18"/>
+      <c r="F21" s="16"/>
       <c r="G21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H21" s="27"/>
+      <c r="H21" s="25"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="18"/>
+      <c r="F22" s="16"/>
       <c r="G22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H22" s="27"/>
+      <c r="H22" s="25"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F23" s="18"/>
+      <c r="F23" s="16"/>
       <c r="G23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H23" s="27"/>
+      <c r="H23" s="25"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C24" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="18"/>
+      <c r="F24" s="16"/>
       <c r="G24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H24" s="27"/>
+      <c r="H24" s="25"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C25" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F25" s="18"/>
+      <c r="F25" s="16"/>
       <c r="G25" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H25" s="27"/>
+      <c r="H25" s="25"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C26" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F26" s="18"/>
+      <c r="F26" s="16"/>
       <c r="G26" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H26" s="27"/>
+      <c r="H26" s="25"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C27" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F27" s="19"/>
+      <c r="F27" s="17"/>
       <c r="G27" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H27" s="28"/>
+      <c r="H27" s="26"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F28" s="20" t="s">
+      <c r="F28" s="15" t="s">
         <v>35</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H28" s="24">
+      <c r="H28" s="22">
         <v>43151</v>
       </c>
     </row>
@@ -1478,93 +1584,93 @@
       <c r="B29" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F29" s="18"/>
+      <c r="F29" s="16"/>
       <c r="G29" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H29" s="27"/>
+      <c r="H29" s="25"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F30" s="18"/>
+      <c r="F30" s="16"/>
       <c r="G30" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H30" s="27"/>
+      <c r="H30" s="25"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C31" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F31" s="18"/>
+      <c r="F31" s="16"/>
       <c r="G31" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H31" s="27"/>
+      <c r="H31" s="25"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C32" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F32" s="18"/>
+      <c r="F32" s="16"/>
       <c r="G32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H32" s="27"/>
+      <c r="H32" s="25"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F33" s="18"/>
+      <c r="F33" s="16"/>
       <c r="G33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H33" s="27"/>
+      <c r="H33" s="25"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C34" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F34" s="18"/>
+      <c r="F34" s="16"/>
       <c r="G34" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H34" s="27"/>
+      <c r="H34" s="25"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C35" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F35" s="18"/>
+      <c r="F35" s="16"/>
       <c r="G35" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H35" s="27"/>
+      <c r="H35" s="25"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C36" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F36" s="19"/>
+      <c r="F36" s="17"/>
       <c r="G36" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H36" s="28"/>
+      <c r="H36" s="26"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D37" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F37" s="20" t="s">
+      <c r="F37" s="15" t="s">
         <v>6</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H37" s="24">
+      <c r="H37" s="22">
         <v>43152</v>
       </c>
     </row>
@@ -1572,270 +1678,270 @@
       <c r="C38" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F38" s="18"/>
+      <c r="F38" s="16"/>
       <c r="G38" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H38" s="27"/>
+      <c r="H38" s="25"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C39" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F39" s="18"/>
+      <c r="F39" s="16"/>
       <c r="G39" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H39" s="27"/>
+      <c r="H39" s="25"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C40" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F40" s="18"/>
+      <c r="F40" s="16"/>
       <c r="G40" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H40" s="27"/>
+      <c r="H40" s="25"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C41" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F41" s="18"/>
+      <c r="F41" s="16"/>
       <c r="G41" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H41" s="27"/>
+      <c r="H41" s="25"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D42" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F42" s="18"/>
+      <c r="F42" s="16"/>
       <c r="G42" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H42" s="27"/>
+      <c r="H42" s="25"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F43" s="18"/>
+      <c r="F43" s="16"/>
       <c r="G43" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H43" s="27"/>
+      <c r="H43" s="25"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C44" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F44" s="18"/>
+      <c r="F44" s="16"/>
       <c r="G44" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H44" s="27"/>
+      <c r="H44" s="25"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D45" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F45" s="18"/>
+      <c r="F45" s="16"/>
       <c r="G45" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H45" s="27"/>
+      <c r="H45" s="25"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C46" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F46" s="18"/>
+      <c r="F46" s="16"/>
       <c r="G46" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="H46" s="27"/>
+      <c r="H46" s="25"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F47" s="18"/>
-      <c r="H47" s="27"/>
+      <c r="F47" s="16"/>
+      <c r="H47" s="25"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C48" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F48" s="19"/>
+      <c r="F48" s="17"/>
       <c r="G48" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H48" s="28"/>
+      <c r="H48" s="26"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F49" s="20" t="s">
+      <c r="F49" s="15" t="s">
         <v>6</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H49" s="15">
+      <c r="H49" s="18">
         <v>43153</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F50" s="18"/>
+      <c r="F50" s="16"/>
       <c r="G50" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H50" s="16"/>
+      <c r="H50" s="36"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F51" s="18"/>
+      <c r="F51" s="16"/>
       <c r="G51" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H51" s="16"/>
+      <c r="H51" s="36"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F52" s="18"/>
+      <c r="F52" s="16"/>
       <c r="G52" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H52" s="16"/>
+      <c r="H52" s="36"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F53" s="18"/>
+      <c r="F53" s="16"/>
       <c r="G53" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H53" s="16"/>
+      <c r="H53" s="36"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F54" s="18"/>
+      <c r="F54" s="16"/>
       <c r="G54" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H54" s="17"/>
+      <c r="H54" s="35"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F55" s="20" t="s">
+      <c r="F55" s="15" t="s">
         <v>6</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H55" s="15">
+      <c r="H55" s="18">
         <v>43154</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F56" s="18"/>
+      <c r="F56" s="16"/>
       <c r="G56" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H56" s="18"/>
+      <c r="H56" s="16"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F57" s="18"/>
+      <c r="F57" s="16"/>
       <c r="G57" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H57" s="18"/>
+      <c r="H57" s="16"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F58" s="19"/>
+      <c r="F58" s="17"/>
       <c r="G58" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H58" s="19"/>
-    </row>
-    <row r="59" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="21" t="s">
+      <c r="H58" s="17"/>
+    </row>
+    <row r="59" spans="1:15" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="B59" s="22"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="22"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="22"/>
-      <c r="I59" s="22"/>
-      <c r="J59" s="22"/>
-      <c r="K59" s="22"/>
-      <c r="L59" s="22"/>
-      <c r="M59" s="22"/>
-      <c r="N59" s="22"/>
-      <c r="O59" s="22"/>
+      <c r="B59" s="38"/>
+      <c r="C59" s="38"/>
+      <c r="D59" s="38"/>
+      <c r="E59" s="38"/>
+      <c r="F59" s="38"/>
+      <c r="G59" s="38"/>
+      <c r="H59" s="38"/>
+      <c r="I59" s="38"/>
+      <c r="J59" s="38"/>
+      <c r="K59" s="38"/>
+      <c r="L59" s="38"/>
+      <c r="M59" s="38"/>
+      <c r="N59" s="38"/>
+      <c r="O59" s="38"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F60" s="20" t="s">
+      <c r="F60" s="15" t="s">
         <v>6</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H60" s="15">
+      <c r="H60" s="18">
         <v>43157</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F61" s="19"/>
+      <c r="F61" s="17"/>
       <c r="G61" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H61" s="17"/>
+      <c r="H61" s="35"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F62" s="20" t="s">
+      <c r="F62" s="15" t="s">
         <v>6</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H62" s="15">
+      <c r="H62" s="18">
         <v>43158</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F63" s="18"/>
+      <c r="F63" s="16"/>
       <c r="G63" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H63" s="16"/>
+      <c r="H63" s="36"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F64" s="18"/>
+      <c r="F64" s="16"/>
       <c r="G64" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H64" s="16"/>
+      <c r="H64" s="36"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F65" s="18"/>
+      <c r="F65" s="16"/>
       <c r="G65" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H65" s="16"/>
+      <c r="H65" s="36"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F66" s="18"/>
+      <c r="F66" s="16"/>
       <c r="G66" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H66" s="16"/>
+      <c r="H66" s="36"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F67" s="18"/>
+      <c r="F67" s="16"/>
       <c r="G67" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H67" s="16"/>
+      <c r="H67" s="36"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F68" s="18"/>
+      <c r="F68" s="16"/>
       <c r="G68" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H68" s="16"/>
+      <c r="H68" s="36"/>
     </row>
     <row r="69" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
@@ -1843,11 +1949,11 @@
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
-      <c r="F69" s="18"/>
+      <c r="F69" s="16"/>
       <c r="G69" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="H69" s="16"/>
+      <c r="H69" s="36"/>
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
@@ -1857,71 +1963,71 @@
       <c r="O69" s="5"/>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F70" s="19"/>
+      <c r="F70" s="17"/>
       <c r="G70" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H70" s="17"/>
+      <c r="H70" s="35"/>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F71" s="20" t="s">
+      <c r="F71" s="15" t="s">
         <v>6</v>
       </c>
       <c r="G71" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="H71" s="15">
+      <c r="H71" s="18">
         <v>43159</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F72" s="18"/>
+      <c r="F72" s="16"/>
       <c r="G72" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="H72" s="18"/>
+      <c r="H72" s="16"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F73" s="18"/>
+      <c r="F73" s="16"/>
       <c r="G73" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="H73" s="18"/>
+      <c r="H73" s="16"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F74" s="18"/>
+      <c r="F74" s="16"/>
       <c r="G74" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="H74" s="18"/>
+      <c r="H74" s="16"/>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F75" s="18"/>
+      <c r="F75" s="16"/>
       <c r="G75" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="H75" s="18"/>
+      <c r="H75" s="16"/>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F76" s="18"/>
+      <c r="F76" s="16"/>
       <c r="G76" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="H76" s="18"/>
+      <c r="H76" s="16"/>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F77" s="18"/>
+      <c r="F77" s="16"/>
       <c r="G77" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="H77" s="18"/>
+      <c r="H77" s="16"/>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F78" s="19"/>
+      <c r="F78" s="17"/>
       <c r="G78" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="H78" s="19"/>
+      <c r="H78" s="17"/>
     </row>
     <row r="79" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
@@ -1929,13 +2035,13 @@
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
-      <c r="F79" s="20" t="s">
+      <c r="F79" s="15" t="s">
         <v>93</v>
       </c>
       <c r="G79" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="H79" s="34">
+      <c r="H79" s="19">
         <v>43160</v>
       </c>
       <c r="I79" s="8"/>
@@ -1952,11 +2058,11 @@
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
-      <c r="F80" s="18"/>
+      <c r="F80" s="16"/>
       <c r="G80" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="H80" s="35"/>
+      <c r="H80" s="20"/>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
@@ -1971,11 +2077,11 @@
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
-      <c r="F81" s="18"/>
+      <c r="F81" s="16"/>
       <c r="G81" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="H81" s="35"/>
+      <c r="H81" s="20"/>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
@@ -1990,11 +2096,11 @@
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
-      <c r="F82" s="18"/>
+      <c r="F82" s="16"/>
       <c r="G82" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="H82" s="35"/>
+      <c r="H82" s="20"/>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
@@ -2009,11 +2115,11 @@
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
-      <c r="F83" s="18"/>
+      <c r="F83" s="16"/>
       <c r="G83" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="H83" s="35"/>
+      <c r="H83" s="20"/>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
@@ -2023,11 +2129,11 @@
       <c r="O83" s="8"/>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F84" s="18"/>
+      <c r="F84" s="16"/>
       <c r="G84" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="H84" s="35"/>
+      <c r="H84" s="20"/>
     </row>
     <row r="85" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="8"/>
@@ -2035,11 +2141,11 @@
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
-      <c r="F85" s="19"/>
+      <c r="F85" s="17"/>
       <c r="G85" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="H85" s="36"/>
+      <c r="H85" s="21"/>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
@@ -2049,229 +2155,229 @@
       <c r="O85" s="8"/>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F86" s="20" t="s">
+      <c r="F86" s="15" t="s">
         <v>93</v>
       </c>
       <c r="G86" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="H86" s="15">
+      <c r="H86" s="18">
         <v>43161</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F87" s="18"/>
+      <c r="F87" s="16"/>
       <c r="G87" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="H87" s="18"/>
+      <c r="H87" s="16"/>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F88" s="18"/>
+      <c r="F88" s="16"/>
       <c r="G88" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H88" s="18"/>
+      <c r="H88" s="16"/>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F89" s="18"/>
+      <c r="F89" s="16"/>
       <c r="G89" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="H89" s="18"/>
+      <c r="H89" s="16"/>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F90" s="18"/>
+      <c r="F90" s="16"/>
       <c r="G90" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="H90" s="18"/>
+      <c r="H90" s="16"/>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F91" s="18"/>
+      <c r="F91" s="16"/>
       <c r="G91" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="H91" s="18"/>
+      <c r="H91" s="16"/>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F92" s="18"/>
+      <c r="F92" s="16"/>
       <c r="G92" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="H92" s="18"/>
+      <c r="H92" s="16"/>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F93" s="18"/>
+      <c r="F93" s="16"/>
       <c r="G93" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="H93" s="18"/>
+      <c r="H93" s="16"/>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F94" s="19"/>
+      <c r="F94" s="17"/>
       <c r="G94" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="H94" s="19"/>
+      <c r="H94" s="17"/>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F95" s="20" t="s">
+      <c r="F95" s="15" t="s">
         <v>93</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H95" s="15">
+      <c r="H95" s="18">
         <v>43164</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F96" s="18"/>
+      <c r="F96" s="16"/>
       <c r="G96" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H96" s="16"/>
+      <c r="H96" s="36"/>
     </row>
     <row r="97" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F97" s="18"/>
+      <c r="F97" s="16"/>
       <c r="G97" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H97" s="16"/>
+      <c r="H97" s="36"/>
     </row>
     <row r="98" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F98" s="19"/>
+      <c r="F98" s="17"/>
       <c r="G98" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H98" s="17"/>
+      <c r="H98" s="35"/>
     </row>
     <row r="99" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F99" s="20" t="s">
+      <c r="F99" s="15" t="s">
         <v>93</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="H99" s="15">
+      <c r="H99" s="18">
         <v>43165</v>
       </c>
     </row>
     <row r="100" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F100" s="18"/>
+      <c r="F100" s="16"/>
       <c r="G100" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="H100" s="16"/>
+      <c r="H100" s="36"/>
     </row>
     <row r="101" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F101" s="18"/>
+      <c r="F101" s="16"/>
       <c r="G101" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="H101" s="16"/>
+      <c r="H101" s="36"/>
     </row>
     <row r="102" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F102" s="18"/>
+      <c r="F102" s="16"/>
       <c r="G102" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H102" s="16"/>
+      <c r="H102" s="36"/>
     </row>
     <row r="103" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F103" s="18"/>
+      <c r="F103" s="16"/>
       <c r="G103" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H103" s="16"/>
+      <c r="H103" s="36"/>
     </row>
     <row r="104" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F104" s="18"/>
+      <c r="F104" s="16"/>
       <c r="G104" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H104" s="16"/>
+      <c r="H104" s="36"/>
     </row>
     <row r="105" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F105" s="19"/>
+      <c r="F105" s="17"/>
       <c r="G105" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H105" s="17"/>
+      <c r="H105" s="35"/>
     </row>
     <row r="106" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F106" s="20" t="s">
+      <c r="F106" s="15" t="s">
         <v>93</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H106" s="15">
+      <c r="H106" s="18">
         <v>43166</v>
       </c>
     </row>
     <row r="107" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F107" s="18"/>
+      <c r="F107" s="16"/>
       <c r="G107" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H107" s="16"/>
+      <c r="H107" s="36"/>
     </row>
     <row r="108" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F108" s="18"/>
+      <c r="F108" s="16"/>
       <c r="G108" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="H108" s="17"/>
+      <c r="H108" s="35"/>
     </row>
     <row r="109" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F109" s="18"/>
+      <c r="F109" s="16"/>
       <c r="G109" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H109" s="15">
+      <c r="H109" s="18">
         <v>43167</v>
       </c>
     </row>
     <row r="110" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F110" s="18"/>
+      <c r="F110" s="16"/>
       <c r="G110" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H110" s="16"/>
+      <c r="H110" s="36"/>
     </row>
     <row r="111" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F111" s="18"/>
+      <c r="F111" s="16"/>
       <c r="G111" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H111" s="16"/>
+      <c r="H111" s="36"/>
     </row>
     <row r="112" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F112" s="19"/>
+      <c r="F112" s="17"/>
       <c r="G112" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="H112" s="17"/>
+      <c r="H112" s="35"/>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F113" s="20" t="s">
+      <c r="F113" s="15" t="s">
         <v>93</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="H113" s="15">
+      <c r="H113" s="18">
         <v>43168</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F114" s="19"/>
+      <c r="F114" s="17"/>
       <c r="G114" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H114" s="17"/>
+      <c r="H114" s="35"/>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G115" s="1" t="s">
@@ -2342,7 +2448,7 @@
       <c r="G123" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="H123" s="37">
+      <c r="H123" s="32">
         <v>43173</v>
       </c>
       <c r="I123" s="5"/>
@@ -2363,7 +2469,7 @@
       <c r="G124" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="H124" s="38"/>
+      <c r="H124" s="33"/>
       <c r="I124" s="5"/>
       <c r="J124" s="5"/>
       <c r="K124" s="5"/>
@@ -2376,19 +2482,19 @@
       <c r="G125" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="H125" s="38"/>
+      <c r="H125" s="33"/>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G126" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="H126" s="38"/>
+      <c r="H126" s="33"/>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G127" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="H127" s="39"/>
+      <c r="H127" s="34"/>
     </row>
     <row r="128" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G128" s="1" t="s">
@@ -2419,209 +2525,443 @@
       <c r="N129" s="11"/>
       <c r="O129" s="11"/>
     </row>
-    <row r="130" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="B130" s="22"/>
-      <c r="C130" s="22"/>
-      <c r="D130" s="22"/>
-      <c r="E130" s="22"/>
-      <c r="F130" s="22"/>
-      <c r="G130" s="22"/>
-      <c r="H130" s="22"/>
-      <c r="I130" s="22"/>
-      <c r="J130" s="22"/>
-      <c r="K130" s="22"/>
-      <c r="L130" s="22"/>
-      <c r="M130" s="22"/>
-      <c r="N130" s="22"/>
-      <c r="O130" s="22"/>
+    <row r="130" spans="1:15" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="B130" s="38"/>
+      <c r="C130" s="38"/>
+      <c r="D130" s="38"/>
+      <c r="E130" s="38"/>
+      <c r="F130" s="38"/>
+      <c r="G130" s="38"/>
+      <c r="H130" s="38"/>
+      <c r="I130" s="38"/>
+      <c r="J130" s="38"/>
+      <c r="K130" s="38"/>
+      <c r="L130" s="38"/>
+      <c r="M130" s="38"/>
+      <c r="N130" s="38"/>
+      <c r="O130" s="38"/>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G131" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="H131" s="15">
+        <v>155</v>
+      </c>
+      <c r="H131" s="18">
         <v>43178</v>
       </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G132" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="H132" s="16"/>
+        <v>145</v>
+      </c>
+      <c r="H132" s="36"/>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G133" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="H133" s="16"/>
+        <v>146</v>
+      </c>
+      <c r="H133" s="36"/>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G134" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="H134" s="16"/>
+        <v>147</v>
+      </c>
+      <c r="H134" s="36"/>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G135" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="H135" s="16"/>
+        <v>148</v>
+      </c>
+      <c r="H135" s="36"/>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G136" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H136" s="16"/>
+        <v>150</v>
+      </c>
+      <c r="H136" s="36"/>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G137" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="H137" s="16"/>
+        <v>149</v>
+      </c>
+      <c r="H137" s="36"/>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G138" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="H138" s="16"/>
+        <v>151</v>
+      </c>
+      <c r="H138" s="36"/>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G139" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="H139" s="16"/>
+        <v>149</v>
+      </c>
+      <c r="H139" s="36"/>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G140" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="H140" s="16"/>
+        <v>154</v>
+      </c>
+      <c r="H140" s="36"/>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G141" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="H141" s="16"/>
+        <v>152</v>
+      </c>
+      <c r="H141" s="36"/>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G142" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="H142" s="16"/>
+        <v>153</v>
+      </c>
+      <c r="H142" s="36"/>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G143" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="H143" s="17"/>
+        <v>156</v>
+      </c>
+      <c r="H143" s="35"/>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G144" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="H144" s="15">
+        <v>157</v>
+      </c>
+      <c r="H144" s="18">
         <v>43179</v>
       </c>
     </row>
     <row r="145" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G145" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="H145" s="16"/>
+        <v>158</v>
+      </c>
+      <c r="H145" s="36"/>
     </row>
     <row r="146" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G146" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="H146" s="16"/>
+        <v>159</v>
+      </c>
+      <c r="H146" s="36"/>
     </row>
     <row r="147" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G147" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="H147" s="16"/>
+        <v>164</v>
+      </c>
+      <c r="H147" s="36"/>
     </row>
     <row r="148" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G148" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="H148" s="16"/>
+        <v>160</v>
+      </c>
+      <c r="H148" s="36"/>
     </row>
     <row r="149" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G149" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="H149" s="16"/>
+        <v>161</v>
+      </c>
+      <c r="H149" s="36"/>
     </row>
     <row r="150" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G150" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="H150" s="16"/>
+        <v>162</v>
+      </c>
+      <c r="H150" s="36"/>
     </row>
     <row r="151" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G151" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="H151" s="16"/>
+        <v>165</v>
+      </c>
+      <c r="H151" s="36"/>
     </row>
     <row r="152" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G152" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="H152" s="16"/>
+        <v>163</v>
+      </c>
+      <c r="H152" s="36"/>
     </row>
     <row r="153" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G153" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="H153" s="16"/>
+        <v>168</v>
+      </c>
+      <c r="H153" s="36"/>
     </row>
     <row r="154" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G154" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="H154" s="16"/>
+        <v>169</v>
+      </c>
+      <c r="H154" s="36"/>
     </row>
     <row r="155" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G155" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="H155" s="16"/>
+        <v>166</v>
+      </c>
+      <c r="H155" s="36"/>
     </row>
     <row r="156" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G156" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="H156" s="17"/>
+        <v>167</v>
+      </c>
+      <c r="H156" s="35"/>
     </row>
     <row r="157" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G157" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H157" s="18">
+        <v>43180</v>
+      </c>
+    </row>
+    <row r="158" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G158" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="H157" s="10">
-        <v>43180</v>
-      </c>
-    </row>
-    <row r="29836" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C29836" s="2" t="s">
-        <v>137</v>
-      </c>
+      <c r="H158" s="36"/>
+    </row>
+    <row r="159" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G159" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H159" s="36"/>
+    </row>
+    <row r="160" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G160" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H160" s="36"/>
+    </row>
+    <row r="161" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G161" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H161" s="36"/>
+    </row>
+    <row r="162" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G162" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H162" s="36"/>
+    </row>
+    <row r="163" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G163" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H163" s="36"/>
+    </row>
+    <row r="164" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G164" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H164" s="35"/>
+    </row>
+    <row r="165" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G165" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H165" s="18">
+        <v>43181</v>
+      </c>
+    </row>
+    <row r="166" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G166" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H166" s="16"/>
+    </row>
+    <row r="167" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G167" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H167" s="16"/>
+    </row>
+    <row r="168" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G168" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H168" s="16"/>
+    </row>
+    <row r="169" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G169" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H169" s="17"/>
+    </row>
+    <row r="170" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G170" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H170" s="10">
+        <v>43182</v>
+      </c>
+    </row>
+    <row r="171" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G171" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="172" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G172" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="173" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G173" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="174" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G174" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="175" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G175" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="176" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G176" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G177" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G178" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G179" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G180" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G181" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G182" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G183" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G184" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G185" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="B186" s="38"/>
+      <c r="C186" s="38"/>
+      <c r="D186" s="38"/>
+      <c r="E186" s="38"/>
+      <c r="F186" s="38"/>
+      <c r="G186" s="38"/>
+      <c r="H186" s="38"/>
+      <c r="I186" s="38"/>
+      <c r="J186" s="38"/>
+      <c r="K186" s="38"/>
+      <c r="L186" s="38"/>
+      <c r="M186" s="38"/>
+      <c r="N186" s="38"/>
+      <c r="O186" s="38"/>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G187" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="H187" s="10">
+        <v>43192</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G188" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G189" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G190" s="4"/>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G191" s="4"/>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G192" s="4"/>
+    </row>
+    <row r="193" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G193" s="4"/>
+    </row>
+    <row r="194" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G194" s="4"/>
+    </row>
+    <row r="195" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G195" s="4"/>
+    </row>
+    <row r="196" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G196" s="4"/>
+    </row>
+    <row r="197" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G197" s="4"/>
+    </row>
+    <row r="198" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G198" s="4"/>
+    </row>
+    <row r="199" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G199" s="4"/>
+    </row>
+    <row r="200" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G200" s="4"/>
+    </row>
+    <row r="201" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G201" s="4"/>
+    </row>
+    <row r="202" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G202" s="4"/>
+    </row>
+    <row r="203" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G203" s="4"/>
+    </row>
+    <row r="204" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G204" s="4"/>
+    </row>
+    <row r="205" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G205" s="4"/>
     </row>
     <row r="29837" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29837" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="C29837" s="2" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="29838" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29838" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C29838" s="2" t="s">
         <v>137</v>
@@ -2629,7 +2969,7 @@
     </row>
     <row r="29839" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29839" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C29839" s="2" t="s">
         <v>137</v>
@@ -2637,7 +2977,7 @@
     </row>
     <row r="29840" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29840" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C29840" s="2" t="s">
         <v>137</v>
@@ -2645,7 +2985,7 @@
     </row>
     <row r="29841" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29841" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C29841" s="2" t="s">
         <v>137</v>
@@ -2653,41 +2993,37 @@
     </row>
     <row r="29842" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29842" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C29842" s="2" t="s">
         <v>137</v>
       </c>
     </row>
+    <row r="29843" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29843" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C29843" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="F86:F94"/>
-    <mergeCell ref="F95:F98"/>
-    <mergeCell ref="H86:H94"/>
-    <mergeCell ref="H123:H127"/>
+  <mergeCells count="45">
+    <mergeCell ref="A186:XFD186"/>
+    <mergeCell ref="H165:H169"/>
     <mergeCell ref="A130:XFD130"/>
     <mergeCell ref="H95:H98"/>
     <mergeCell ref="H99:H105"/>
     <mergeCell ref="F99:F105"/>
     <mergeCell ref="H109:H112"/>
+    <mergeCell ref="F113:F114"/>
     <mergeCell ref="H131:H143"/>
-    <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="A2:XFD2"/>
-    <mergeCell ref="A3:XFD3"/>
-    <mergeCell ref="A4:XFD4"/>
-    <mergeCell ref="A5:O5"/>
+    <mergeCell ref="H157:H164"/>
+    <mergeCell ref="H144:H156"/>
+    <mergeCell ref="H123:H127"/>
+    <mergeCell ref="H113:H114"/>
     <mergeCell ref="F49:F54"/>
     <mergeCell ref="H49:H54"/>
-    <mergeCell ref="F7:F16"/>
-    <mergeCell ref="H7:H16"/>
-    <mergeCell ref="H37:H48"/>
-    <mergeCell ref="F37:F48"/>
-    <mergeCell ref="H28:H36"/>
-    <mergeCell ref="F28:F36"/>
-    <mergeCell ref="H18:H27"/>
-    <mergeCell ref="A17:XFD17"/>
-    <mergeCell ref="F18:F27"/>
-    <mergeCell ref="H144:H156"/>
     <mergeCell ref="H55:H58"/>
     <mergeCell ref="F55:F58"/>
     <mergeCell ref="A59:XFD59"/>
@@ -2696,13 +3032,28 @@
     <mergeCell ref="F62:F70"/>
     <mergeCell ref="H60:H61"/>
     <mergeCell ref="F60:F61"/>
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A2:XFD2"/>
+    <mergeCell ref="A3:XFD3"/>
+    <mergeCell ref="A4:XFD4"/>
+    <mergeCell ref="A5:O5"/>
+    <mergeCell ref="F7:F16"/>
+    <mergeCell ref="H7:H16"/>
+    <mergeCell ref="H37:H48"/>
+    <mergeCell ref="F37:F48"/>
+    <mergeCell ref="H28:H36"/>
+    <mergeCell ref="F28:F36"/>
+    <mergeCell ref="H18:H27"/>
+    <mergeCell ref="F18:F27"/>
+    <mergeCell ref="A17:XFD17"/>
     <mergeCell ref="F79:F85"/>
     <mergeCell ref="F71:F78"/>
     <mergeCell ref="H71:H78"/>
     <mergeCell ref="H79:H85"/>
     <mergeCell ref="F106:F112"/>
-    <mergeCell ref="H113:H114"/>
-    <mergeCell ref="F113:F114"/>
+    <mergeCell ref="F86:F94"/>
+    <mergeCell ref="F95:F98"/>
+    <mergeCell ref="H86:H94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/local/Actividades.xlsx
+++ b/local/Actividades.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="210">
   <si>
     <t>ARCHIVO</t>
   </si>
@@ -629,9 +629,6 @@
     <t>Almacenar la sucursal en la venta</t>
   </si>
   <si>
-    <t>Validar formuario dellado del back-end</t>
-  </si>
-  <si>
     <r>
       <t>Resumen de la semana: 55 Actividades - Monto facturado: 45 - 18 = 27 USD - Estado del monto:</t>
     </r>
@@ -662,6 +659,30 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
+  </si>
+  <si>
+    <t>Validar formuario del lado del back-end</t>
+  </si>
+  <si>
+    <t>Adaptar vista de ingresar saldos</t>
+  </si>
+  <si>
+    <t>Adaptar vista de cotización</t>
+  </si>
+  <si>
+    <t>Crear vista de ver / imprimir</t>
+  </si>
+  <si>
+    <t>Linkear ingresar ventas con pagina de inicio</t>
+  </si>
+  <si>
+    <t>Crear vista de buscar</t>
+  </si>
+  <si>
+    <t>Crear vista mis ventas</t>
+  </si>
+  <si>
+    <t>adaptar vista contabilizados</t>
   </si>
 </sst>
 </file>
@@ -893,6 +914,15 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -901,6 +931,18 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -917,20 +959,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -940,21 +976,6 @@
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1263,8 +1284,8 @@
   <dimension ref="A1:P29843"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A131" sqref="A131"/>
+      <pane ySplit="1" topLeftCell="A183" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F196" sqref="F196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1353,7 +1374,7 @@
       <c r="G7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H7" s="29">
         <v>43147</v>
       </c>
       <c r="P7" s="1"/>
@@ -1363,7 +1384,7 @@
       <c r="G8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="23"/>
+      <c r="H8" s="30"/>
       <c r="P8" s="1"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -1371,7 +1392,7 @@
       <c r="G9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="23"/>
+      <c r="H9" s="30"/>
       <c r="P9" s="1"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -1379,7 +1400,7 @@
       <c r="G10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="23"/>
+      <c r="H10" s="30"/>
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -1390,7 +1411,7 @@
       <c r="G11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="23"/>
+      <c r="H11" s="30"/>
       <c r="P11" s="1"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -1401,7 +1422,7 @@
       <c r="G12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="23"/>
+      <c r="H12" s="30"/>
       <c r="P12" s="1"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -1412,7 +1433,7 @@
       <c r="G13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="23"/>
+      <c r="H13" s="30"/>
       <c r="P13" s="1"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -1423,7 +1444,7 @@
       <c r="G14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="23"/>
+      <c r="H14" s="30"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C15" s="2" t="s">
@@ -1433,7 +1454,7 @@
       <c r="G15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="23"/>
+      <c r="H15" s="30"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C16" s="2" t="s">
@@ -1443,24 +1464,24 @@
       <c r="G16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="24"/>
-    </row>
-    <row r="17" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
+      <c r="H16" s="31"/>
+    </row>
+    <row r="17" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="19"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C18" s="2" t="s">
@@ -1472,7 +1493,7 @@
       <c r="G18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H18" s="22">
+      <c r="H18" s="29">
         <v>43150</v>
       </c>
     </row>
@@ -1484,7 +1505,7 @@
       <c r="G19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H19" s="25"/>
+      <c r="H19" s="32"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C20" s="2" t="s">
@@ -1494,7 +1515,7 @@
       <c r="G20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H20" s="25"/>
+      <c r="H20" s="32"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C21" s="2" t="s">
@@ -1504,7 +1525,7 @@
       <c r="G21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H21" s="25"/>
+      <c r="H21" s="32"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C22" s="2" t="s">
@@ -1514,7 +1535,7 @@
       <c r="G22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H22" s="25"/>
+      <c r="H22" s="32"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C23" s="2" t="s">
@@ -1524,7 +1545,7 @@
       <c r="G23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H23" s="25"/>
+      <c r="H23" s="32"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C24" s="2" t="s">
@@ -1534,7 +1555,7 @@
       <c r="G24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H24" s="25"/>
+      <c r="H24" s="32"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C25" s="2" t="s">
@@ -1544,7 +1565,7 @@
       <c r="G25" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H25" s="25"/>
+      <c r="H25" s="32"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C26" s="2" t="s">
@@ -1554,7 +1575,7 @@
       <c r="G26" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H26" s="25"/>
+      <c r="H26" s="32"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C27" s="2" t="s">
@@ -1564,7 +1585,7 @@
       <c r="G27" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H27" s="26"/>
+      <c r="H27" s="33"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
@@ -1576,7 +1597,7 @@
       <c r="G28" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H28" s="22">
+      <c r="H28" s="29">
         <v>43151</v>
       </c>
     </row>
@@ -1588,7 +1609,7 @@
       <c r="G29" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H29" s="25"/>
+      <c r="H29" s="32"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D30" s="2" t="s">
@@ -1598,7 +1619,7 @@
       <c r="G30" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H30" s="25"/>
+      <c r="H30" s="32"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C31" s="2" t="s">
@@ -1608,7 +1629,7 @@
       <c r="G31" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H31" s="25"/>
+      <c r="H31" s="32"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C32" s="2" t="s">
@@ -1618,7 +1639,7 @@
       <c r="G32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H32" s="25"/>
+      <c r="H32" s="32"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
@@ -1628,7 +1649,7 @@
       <c r="G33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H33" s="25"/>
+      <c r="H33" s="32"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C34" s="2" t="s">
@@ -1638,7 +1659,7 @@
       <c r="G34" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H34" s="25"/>
+      <c r="H34" s="32"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C35" s="2" t="s">
@@ -1648,7 +1669,7 @@
       <c r="G35" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H35" s="25"/>
+      <c r="H35" s="32"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C36" s="2" t="s">
@@ -1658,7 +1679,7 @@
       <c r="G36" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H36" s="26"/>
+      <c r="H36" s="33"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D37" s="2" t="s">
@@ -1670,7 +1691,7 @@
       <c r="G37" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H37" s="22">
+      <c r="H37" s="29">
         <v>43152</v>
       </c>
     </row>
@@ -1682,7 +1703,7 @@
       <c r="G38" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H38" s="25"/>
+      <c r="H38" s="32"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C39" s="2" t="s">
@@ -1692,7 +1713,7 @@
       <c r="G39" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H39" s="25"/>
+      <c r="H39" s="32"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C40" s="2" t="s">
@@ -1702,7 +1723,7 @@
       <c r="G40" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H40" s="25"/>
+      <c r="H40" s="32"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C41" s="2" t="s">
@@ -1712,7 +1733,7 @@
       <c r="G41" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H41" s="25"/>
+      <c r="H41" s="32"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D42" s="2" t="s">
@@ -1722,14 +1743,14 @@
       <c r="G42" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H42" s="25"/>
+      <c r="H42" s="32"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F43" s="16"/>
       <c r="G43" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H43" s="25"/>
+      <c r="H43" s="32"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C44" s="2" t="s">
@@ -1739,7 +1760,7 @@
       <c r="G44" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H44" s="25"/>
+      <c r="H44" s="32"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D45" s="2" t="s">
@@ -1749,7 +1770,7 @@
       <c r="G45" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H45" s="25"/>
+      <c r="H45" s="32"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C46" s="2" t="s">
@@ -1759,11 +1780,11 @@
       <c r="G46" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="H46" s="25"/>
+      <c r="H46" s="32"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F47" s="16"/>
-      <c r="H47" s="25"/>
+      <c r="H47" s="32"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C48" s="2" t="s">
@@ -1773,7 +1794,7 @@
       <c r="G48" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H48" s="26"/>
+      <c r="H48" s="33"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F49" s="15" t="s">
@@ -1791,35 +1812,35 @@
       <c r="G50" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H50" s="36"/>
+      <c r="H50" s="25"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F51" s="16"/>
       <c r="G51" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H51" s="36"/>
+      <c r="H51" s="25"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F52" s="16"/>
       <c r="G52" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H52" s="36"/>
+      <c r="H52" s="25"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F53" s="16"/>
       <c r="G53" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H53" s="36"/>
+      <c r="H53" s="25"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F54" s="16"/>
       <c r="G54" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H54" s="35"/>
+      <c r="H54" s="26"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F55" s="15" t="s">
@@ -1853,24 +1874,24 @@
       </c>
       <c r="H58" s="17"/>
     </row>
-    <row r="59" spans="1:15" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="37" t="s">
+    <row r="59" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="B59" s="38"/>
-      <c r="C59" s="38"/>
-      <c r="D59" s="38"/>
-      <c r="E59" s="38"/>
-      <c r="F59" s="38"/>
-      <c r="G59" s="38"/>
-      <c r="H59" s="38"/>
-      <c r="I59" s="38"/>
-      <c r="J59" s="38"/>
-      <c r="K59" s="38"/>
-      <c r="L59" s="38"/>
-      <c r="M59" s="38"/>
-      <c r="N59" s="38"/>
-      <c r="O59" s="38"/>
+      <c r="B59" s="35"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="35"/>
+      <c r="E59" s="35"/>
+      <c r="F59" s="35"/>
+      <c r="G59" s="35"/>
+      <c r="H59" s="35"/>
+      <c r="I59" s="35"/>
+      <c r="J59" s="35"/>
+      <c r="K59" s="35"/>
+      <c r="L59" s="35"/>
+      <c r="M59" s="35"/>
+      <c r="N59" s="35"/>
+      <c r="O59" s="35"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F60" s="15" t="s">
@@ -1888,7 +1909,7 @@
       <c r="G61" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H61" s="35"/>
+      <c r="H61" s="26"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F62" s="15" t="s">
@@ -1906,42 +1927,42 @@
       <c r="G63" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H63" s="36"/>
+      <c r="H63" s="25"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F64" s="16"/>
       <c r="G64" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H64" s="36"/>
+      <c r="H64" s="25"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F65" s="16"/>
       <c r="G65" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H65" s="36"/>
+      <c r="H65" s="25"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F66" s="16"/>
       <c r="G66" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H66" s="36"/>
+      <c r="H66" s="25"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F67" s="16"/>
       <c r="G67" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H67" s="36"/>
+      <c r="H67" s="25"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F68" s="16"/>
       <c r="G68" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H68" s="36"/>
+      <c r="H68" s="25"/>
     </row>
     <row r="69" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
@@ -1953,7 +1974,7 @@
       <c r="G69" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="H69" s="36"/>
+      <c r="H69" s="25"/>
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
@@ -1967,7 +1988,7 @@
       <c r="G70" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H70" s="35"/>
+      <c r="H70" s="26"/>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F71" s="15" t="s">
@@ -2041,7 +2062,7 @@
       <c r="G79" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="H79" s="19">
+      <c r="H79" s="22">
         <v>43160</v>
       </c>
       <c r="I79" s="8"/>
@@ -2062,7 +2083,7 @@
       <c r="G80" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="H80" s="20"/>
+      <c r="H80" s="23"/>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
@@ -2081,7 +2102,7 @@
       <c r="G81" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="H81" s="20"/>
+      <c r="H81" s="23"/>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
@@ -2100,7 +2121,7 @@
       <c r="G82" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="H82" s="20"/>
+      <c r="H82" s="23"/>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
@@ -2119,7 +2140,7 @@
       <c r="G83" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="H83" s="20"/>
+      <c r="H83" s="23"/>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
@@ -2133,7 +2154,7 @@
       <c r="G84" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="H84" s="20"/>
+      <c r="H84" s="23"/>
     </row>
     <row r="85" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="8"/>
@@ -2145,7 +2166,7 @@
       <c r="G85" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="H85" s="21"/>
+      <c r="H85" s="24"/>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
@@ -2237,21 +2258,21 @@
       <c r="G96" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H96" s="36"/>
+      <c r="H96" s="25"/>
     </row>
     <row r="97" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F97" s="16"/>
       <c r="G97" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H97" s="36"/>
+      <c r="H97" s="25"/>
     </row>
     <row r="98" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F98" s="17"/>
       <c r="G98" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H98" s="35"/>
+      <c r="H98" s="26"/>
     </row>
     <row r="99" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F99" s="15" t="s">
@@ -2269,42 +2290,42 @@
       <c r="G100" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="H100" s="36"/>
+      <c r="H100" s="25"/>
     </row>
     <row r="101" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F101" s="16"/>
       <c r="G101" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="H101" s="36"/>
+      <c r="H101" s="25"/>
     </row>
     <row r="102" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F102" s="16"/>
       <c r="G102" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H102" s="36"/>
+      <c r="H102" s="25"/>
     </row>
     <row r="103" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F103" s="16"/>
       <c r="G103" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H103" s="36"/>
+      <c r="H103" s="25"/>
     </row>
     <row r="104" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F104" s="16"/>
       <c r="G104" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H104" s="36"/>
+      <c r="H104" s="25"/>
     </row>
     <row r="105" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F105" s="17"/>
       <c r="G105" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H105" s="35"/>
+      <c r="H105" s="26"/>
     </row>
     <row r="106" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F106" s="15" t="s">
@@ -2322,14 +2343,14 @@
       <c r="G107" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H107" s="36"/>
+      <c r="H107" s="25"/>
     </row>
     <row r="108" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F108" s="16"/>
       <c r="G108" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="H108" s="35"/>
+      <c r="H108" s="26"/>
     </row>
     <row r="109" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F109" s="16"/>
@@ -2345,21 +2366,21 @@
       <c r="G110" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H110" s="36"/>
+      <c r="H110" s="25"/>
     </row>
     <row r="111" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F111" s="16"/>
       <c r="G111" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H111" s="36"/>
+      <c r="H111" s="25"/>
     </row>
     <row r="112" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F112" s="17"/>
       <c r="G112" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="H112" s="35"/>
+      <c r="H112" s="26"/>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F113" s="15" t="s">
@@ -2377,7 +2398,7 @@
       <c r="G114" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H114" s="35"/>
+      <c r="H114" s="26"/>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G115" s="1" t="s">
@@ -2448,7 +2469,7 @@
       <c r="G123" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="H123" s="32">
+      <c r="H123" s="37">
         <v>43173</v>
       </c>
       <c r="I123" s="5"/>
@@ -2469,7 +2490,7 @@
       <c r="G124" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="H124" s="33"/>
+      <c r="H124" s="38"/>
       <c r="I124" s="5"/>
       <c r="J124" s="5"/>
       <c r="K124" s="5"/>
@@ -2482,19 +2503,19 @@
       <c r="G125" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="H125" s="33"/>
+      <c r="H125" s="38"/>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G126" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="H126" s="33"/>
+      <c r="H126" s="38"/>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G127" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="H127" s="34"/>
+      <c r="H127" s="39"/>
     </row>
     <row r="128" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G128" s="1" t="s">
@@ -2525,24 +2546,24 @@
       <c r="N129" s="11"/>
       <c r="O129" s="11"/>
     </row>
-    <row r="130" spans="1:15" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="37" t="s">
-        <v>202</v>
-      </c>
-      <c r="B130" s="38"/>
-      <c r="C130" s="38"/>
-      <c r="D130" s="38"/>
-      <c r="E130" s="38"/>
-      <c r="F130" s="38"/>
-      <c r="G130" s="38"/>
-      <c r="H130" s="38"/>
-      <c r="I130" s="38"/>
-      <c r="J130" s="38"/>
-      <c r="K130" s="38"/>
-      <c r="L130" s="38"/>
-      <c r="M130" s="38"/>
-      <c r="N130" s="38"/>
-      <c r="O130" s="38"/>
+    <row r="130" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="B130" s="35"/>
+      <c r="C130" s="35"/>
+      <c r="D130" s="35"/>
+      <c r="E130" s="35"/>
+      <c r="F130" s="35"/>
+      <c r="G130" s="35"/>
+      <c r="H130" s="35"/>
+      <c r="I130" s="35"/>
+      <c r="J130" s="35"/>
+      <c r="K130" s="35"/>
+      <c r="L130" s="35"/>
+      <c r="M130" s="35"/>
+      <c r="N130" s="35"/>
+      <c r="O130" s="35"/>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G131" s="1" t="s">
@@ -2556,73 +2577,73 @@
       <c r="G132" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="H132" s="36"/>
+      <c r="H132" s="25"/>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G133" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="H133" s="36"/>
+      <c r="H133" s="25"/>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G134" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="H134" s="36"/>
+      <c r="H134" s="25"/>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G135" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="H135" s="36"/>
+      <c r="H135" s="25"/>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G136" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="H136" s="36"/>
+      <c r="H136" s="25"/>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G137" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H137" s="36"/>
+      <c r="H137" s="25"/>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G138" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="H138" s="36"/>
+      <c r="H138" s="25"/>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G139" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H139" s="36"/>
+      <c r="H139" s="25"/>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G140" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="H140" s="36"/>
+      <c r="H140" s="25"/>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G141" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="H141" s="36"/>
+      <c r="H141" s="25"/>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G142" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="H142" s="36"/>
+      <c r="H142" s="25"/>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G143" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="H143" s="35"/>
+      <c r="H143" s="26"/>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G144" s="1" t="s">
@@ -2636,73 +2657,73 @@
       <c r="G145" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="H145" s="36"/>
+      <c r="H145" s="25"/>
     </row>
     <row r="146" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G146" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="H146" s="36"/>
+      <c r="H146" s="25"/>
     </row>
     <row r="147" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G147" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="H147" s="36"/>
+      <c r="H147" s="25"/>
     </row>
     <row r="148" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G148" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="H148" s="36"/>
+      <c r="H148" s="25"/>
     </row>
     <row r="149" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G149" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="H149" s="36"/>
+      <c r="H149" s="25"/>
     </row>
     <row r="150" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G150" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="H150" s="36"/>
+      <c r="H150" s="25"/>
     </row>
     <row r="151" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G151" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="H151" s="36"/>
+      <c r="H151" s="25"/>
     </row>
     <row r="152" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G152" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H152" s="36"/>
+      <c r="H152" s="25"/>
     </row>
     <row r="153" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G153" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="H153" s="36"/>
+      <c r="H153" s="25"/>
     </row>
     <row r="154" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G154" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="H154" s="36"/>
+      <c r="H154" s="25"/>
     </row>
     <row r="155" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G155" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="H155" s="36"/>
+      <c r="H155" s="25"/>
     </row>
     <row r="156" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G156" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="H156" s="35"/>
+      <c r="H156" s="26"/>
     </row>
     <row r="157" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G157" s="1" t="s">
@@ -2716,43 +2737,43 @@
       <c r="G158" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="H158" s="36"/>
+      <c r="H158" s="25"/>
     </row>
     <row r="159" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G159" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="H159" s="36"/>
+      <c r="H159" s="25"/>
     </row>
     <row r="160" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G160" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="H160" s="36"/>
+      <c r="H160" s="25"/>
     </row>
     <row r="161" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G161" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="H161" s="36"/>
+      <c r="H161" s="25"/>
     </row>
     <row r="162" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G162" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="H162" s="36"/>
+      <c r="H162" s="25"/>
     </row>
     <row r="163" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G163" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="H163" s="36"/>
+      <c r="H163" s="25"/>
     </row>
     <row r="164" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G164" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="H164" s="35"/>
+      <c r="H164" s="26"/>
     </row>
     <row r="165" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G165" s="1" t="s">
@@ -2869,69 +2890,86 @@
         <v>101</v>
       </c>
     </row>
-    <row r="186" spans="1:15" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="37" t="s">
-        <v>201</v>
-      </c>
-      <c r="B186" s="38"/>
-      <c r="C186" s="38"/>
-      <c r="D186" s="38"/>
-      <c r="E186" s="38"/>
-      <c r="F186" s="38"/>
-      <c r="G186" s="38"/>
-      <c r="H186" s="38"/>
-      <c r="I186" s="38"/>
-      <c r="J186" s="38"/>
-      <c r="K186" s="38"/>
-      <c r="L186" s="38"/>
-      <c r="M186" s="38"/>
-      <c r="N186" s="38"/>
-      <c r="O186" s="38"/>
+    <row r="186" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="B186" s="35"/>
+      <c r="C186" s="35"/>
+      <c r="D186" s="35"/>
+      <c r="E186" s="35"/>
+      <c r="F186" s="35"/>
+      <c r="G186" s="35"/>
+      <c r="H186" s="35"/>
+      <c r="I186" s="35"/>
+      <c r="J186" s="35"/>
+      <c r="K186" s="35"/>
+      <c r="L186" s="35"/>
+      <c r="M186" s="35"/>
+      <c r="N186" s="35"/>
+      <c r="O186" s="35"/>
     </row>
     <row r="187" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G187" s="4" t="s">
+      <c r="G187" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H187" s="10">
+        <v>43216</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G188" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G189" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H189" s="10">
+        <v>43217</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G190" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G191" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G192" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="193" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G193" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="194" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G194" s="5"/>
+    </row>
+    <row r="195" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G195" s="5"/>
+    </row>
+    <row r="196" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G196" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="H187" s="10">
-        <v>43192</v>
-      </c>
-    </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G188" s="4" t="s">
+    </row>
+    <row r="197" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G197" s="4" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G189" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G190" s="4"/>
-    </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G191" s="4"/>
-    </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G192" s="4"/>
-    </row>
-    <row r="193" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G193" s="4"/>
-    </row>
-    <row r="194" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G194" s="4"/>
-    </row>
-    <row r="195" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G195" s="4"/>
-    </row>
-    <row r="196" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G196" s="4"/>
-    </row>
-    <row r="197" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G197" s="4"/>
-    </row>
     <row r="198" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G198" s="4"/>
+      <c r="G198" s="4" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="199" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G199" s="4"/>
@@ -3009,6 +3047,9 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="F106:F112"/>
+    <mergeCell ref="F55:F58"/>
+    <mergeCell ref="A59:XFD59"/>
     <mergeCell ref="A186:XFD186"/>
     <mergeCell ref="H165:H169"/>
     <mergeCell ref="A130:XFD130"/>
@@ -3022,21 +3063,7 @@
     <mergeCell ref="H144:H156"/>
     <mergeCell ref="H123:H127"/>
     <mergeCell ref="H113:H114"/>
-    <mergeCell ref="F49:F54"/>
-    <mergeCell ref="H49:H54"/>
-    <mergeCell ref="H55:H58"/>
-    <mergeCell ref="F55:F58"/>
-    <mergeCell ref="A59:XFD59"/>
     <mergeCell ref="H106:H108"/>
-    <mergeCell ref="H62:H70"/>
-    <mergeCell ref="F62:F70"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="A2:XFD2"/>
-    <mergeCell ref="A3:XFD3"/>
-    <mergeCell ref="A4:XFD4"/>
-    <mergeCell ref="A5:O5"/>
     <mergeCell ref="F7:F16"/>
     <mergeCell ref="H7:H16"/>
     <mergeCell ref="H37:H48"/>
@@ -3044,16 +3071,27 @@
     <mergeCell ref="H28:H36"/>
     <mergeCell ref="F28:F36"/>
     <mergeCell ref="H18:H27"/>
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A2:XFD2"/>
+    <mergeCell ref="A3:XFD3"/>
+    <mergeCell ref="A4:XFD4"/>
+    <mergeCell ref="A5:O5"/>
+    <mergeCell ref="F86:F94"/>
+    <mergeCell ref="F95:F98"/>
+    <mergeCell ref="H86:H94"/>
     <mergeCell ref="F18:F27"/>
     <mergeCell ref="A17:XFD17"/>
     <mergeCell ref="F79:F85"/>
     <mergeCell ref="F71:F78"/>
     <mergeCell ref="H71:H78"/>
     <mergeCell ref="H79:H85"/>
-    <mergeCell ref="F106:F112"/>
-    <mergeCell ref="F86:F94"/>
-    <mergeCell ref="F95:F98"/>
-    <mergeCell ref="H86:H94"/>
+    <mergeCell ref="H62:H70"/>
+    <mergeCell ref="F62:F70"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="F49:F54"/>
+    <mergeCell ref="H49:H54"/>
+    <mergeCell ref="H55:H58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/local/Actividades.xlsx
+++ b/local/Actividades.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="224">
   <si>
     <t>ARCHIVO</t>
   </si>
@@ -623,12 +623,6 @@
     <t>Listar tabla de ventas</t>
   </si>
   <si>
-    <t>Resolver bug en OC medios de pago</t>
-  </si>
-  <si>
-    <t>Almacenar la sucursal en la venta</t>
-  </si>
-  <si>
     <r>
       <t>Resumen de la semana: 55 Actividades - Monto facturado: 45 - 18 = 27 USD - Estado del monto:</t>
     </r>
@@ -682,7 +676,55 @@
     <t>Crear vista mis ventas</t>
   </si>
   <si>
-    <t>adaptar vista contabilizados</t>
+    <t>Adaptar vista contabilizados</t>
+  </si>
+  <si>
+    <t>Crear vista de entregados (Hospital)</t>
+  </si>
+  <si>
+    <t>Crear vista de fabricacion (Histpital)</t>
+  </si>
+  <si>
+    <t>Guardar la OC</t>
+  </si>
+  <si>
+    <t>Validar RUT en modal de cheques</t>
+  </si>
+  <si>
+    <t>Retiro de check en tabla resumen ventas.</t>
+  </si>
+  <si>
+    <t>Retiro de promociones 2017</t>
+  </si>
+  <si>
+    <t>Retiro de entregar OT</t>
+  </si>
+  <si>
+    <t>Crear columna id_sucursal en la tabla ventas</t>
+  </si>
+  <si>
+    <t>Listar las ventas en la rabla resumen filtrando por ID usuairo y sucursal</t>
+  </si>
+  <si>
+    <t>Retiro de columna OT en la tabla resumen de ventas</t>
+  </si>
+  <si>
+    <t>Resolver problema con el icono editar en tabla resumen de ventas</t>
+  </si>
+  <si>
+    <t>Ordenar Eje izquiedo lentes de contacto</t>
+  </si>
+  <si>
+    <t>Guardar las ventas por usuario y sucursal (Ejemplo Vendedor 1 - sucursal 2)</t>
+  </si>
+  <si>
+    <t>Resolver problema de NAN en totalde medios de pago</t>
+  </si>
+  <si>
+    <t>Establecer conexion FTP con el servidor</t>
+  </si>
+  <si>
+    <t>Subir cambios al servidor</t>
   </si>
 </sst>
 </file>
@@ -908,20 +950,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -930,12 +969,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -958,6 +991,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1281,11 +1323,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P29843"/>
+  <dimension ref="A1:P29844"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A183" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F196" sqref="F196"/>
+      <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G209" sqref="G209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1296,49 +1338,49 @@
     <col min="4" max="4" width="4.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="47.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="81.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="81.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" style="1" customWidth="1"/>
     <col min="9" max="15" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+    <row r="4" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -1374,7 +1416,7 @@
       <c r="G7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="29">
+      <c r="H7" s="26">
         <v>43147</v>
       </c>
       <c r="P7" s="1"/>
@@ -1384,7 +1426,7 @@
       <c r="G8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="30"/>
+      <c r="H8" s="27"/>
       <c r="P8" s="1"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -1392,7 +1434,7 @@
       <c r="G9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="30"/>
+      <c r="H9" s="27"/>
       <c r="P9" s="1"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -1400,7 +1442,7 @@
       <c r="G10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="30"/>
+      <c r="H10" s="27"/>
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -1411,7 +1453,7 @@
       <c r="G11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="30"/>
+      <c r="H11" s="27"/>
       <c r="P11" s="1"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -1422,7 +1464,7 @@
       <c r="G12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="30"/>
+      <c r="H12" s="27"/>
       <c r="P12" s="1"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -1433,7 +1475,7 @@
       <c r="G13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="30"/>
+      <c r="H13" s="27"/>
       <c r="P13" s="1"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -1444,7 +1486,7 @@
       <c r="G14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="30"/>
+      <c r="H14" s="27"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C15" s="2" t="s">
@@ -1454,34 +1496,34 @@
       <c r="G15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="30"/>
+      <c r="H15" s="27"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="17"/>
+      <c r="F16" s="20"/>
       <c r="G16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="31"/>
-    </row>
-    <row r="17" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
+      <c r="H16" s="28"/>
+    </row>
+    <row r="17" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="31"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="32"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C18" s="2" t="s">
@@ -1493,7 +1535,7 @@
       <c r="G18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H18" s="29">
+      <c r="H18" s="26">
         <v>43150</v>
       </c>
     </row>
@@ -1505,7 +1547,7 @@
       <c r="G19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H19" s="32"/>
+      <c r="H19" s="29"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C20" s="2" t="s">
@@ -1515,7 +1557,7 @@
       <c r="G20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H20" s="32"/>
+      <c r="H20" s="29"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C21" s="2" t="s">
@@ -1525,7 +1567,7 @@
       <c r="G21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H21" s="32"/>
+      <c r="H21" s="29"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C22" s="2" t="s">
@@ -1535,7 +1577,7 @@
       <c r="G22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H22" s="32"/>
+      <c r="H22" s="29"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C23" s="2" t="s">
@@ -1545,7 +1587,7 @@
       <c r="G23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H23" s="32"/>
+      <c r="H23" s="29"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C24" s="2" t="s">
@@ -1555,7 +1597,7 @@
       <c r="G24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H24" s="32"/>
+      <c r="H24" s="29"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C25" s="2" t="s">
@@ -1565,7 +1607,7 @@
       <c r="G25" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H25" s="32"/>
+      <c r="H25" s="29"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C26" s="2" t="s">
@@ -1575,17 +1617,17 @@
       <c r="G26" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H26" s="32"/>
+      <c r="H26" s="29"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C27" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F27" s="17"/>
+      <c r="F27" s="20"/>
       <c r="G27" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H27" s="33"/>
+      <c r="H27" s="30"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
@@ -1597,7 +1639,7 @@
       <c r="G28" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H28" s="29">
+      <c r="H28" s="26">
         <v>43151</v>
       </c>
     </row>
@@ -1609,7 +1651,7 @@
       <c r="G29" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H29" s="32"/>
+      <c r="H29" s="29"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D30" s="2" t="s">
@@ -1619,7 +1661,7 @@
       <c r="G30" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H30" s="32"/>
+      <c r="H30" s="29"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C31" s="2" t="s">
@@ -1629,7 +1671,7 @@
       <c r="G31" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H31" s="32"/>
+      <c r="H31" s="29"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C32" s="2" t="s">
@@ -1639,7 +1681,7 @@
       <c r="G32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H32" s="32"/>
+      <c r="H32" s="29"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
@@ -1649,7 +1691,7 @@
       <c r="G33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H33" s="32"/>
+      <c r="H33" s="29"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C34" s="2" t="s">
@@ -1659,7 +1701,7 @@
       <c r="G34" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H34" s="32"/>
+      <c r="H34" s="29"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C35" s="2" t="s">
@@ -1669,17 +1711,17 @@
       <c r="G35" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H35" s="32"/>
+      <c r="H35" s="29"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C36" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F36" s="17"/>
+      <c r="F36" s="20"/>
       <c r="G36" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H36" s="33"/>
+      <c r="H36" s="30"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D37" s="2" t="s">
@@ -1691,7 +1733,7 @@
       <c r="G37" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H37" s="29">
+      <c r="H37" s="26">
         <v>43152</v>
       </c>
     </row>
@@ -1703,7 +1745,7 @@
       <c r="G38" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H38" s="32"/>
+      <c r="H38" s="29"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C39" s="2" t="s">
@@ -1713,7 +1755,7 @@
       <c r="G39" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H39" s="32"/>
+      <c r="H39" s="29"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C40" s="2" t="s">
@@ -1723,7 +1765,7 @@
       <c r="G40" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H40" s="32"/>
+      <c r="H40" s="29"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C41" s="2" t="s">
@@ -1733,7 +1775,7 @@
       <c r="G41" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H41" s="32"/>
+      <c r="H41" s="29"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D42" s="2" t="s">
@@ -1743,14 +1785,14 @@
       <c r="G42" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H42" s="32"/>
+      <c r="H42" s="29"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F43" s="16"/>
       <c r="G43" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H43" s="32"/>
+      <c r="H43" s="29"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C44" s="2" t="s">
@@ -1760,7 +1802,7 @@
       <c r="G44" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H44" s="32"/>
+      <c r="H44" s="29"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D45" s="2" t="s">
@@ -1770,7 +1812,7 @@
       <c r="G45" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H45" s="32"/>
+      <c r="H45" s="29"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C46" s="2" t="s">
@@ -1780,21 +1822,22 @@
       <c r="G46" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="H46" s="32"/>
+      <c r="H46" s="29"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F47" s="16"/>
-      <c r="H47" s="32"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="29"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C48" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F48" s="17"/>
+      <c r="F48" s="20"/>
       <c r="G48" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H48" s="33"/>
+      <c r="H48" s="30"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F49" s="15" t="s">
@@ -1803,7 +1846,7 @@
       <c r="G49" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H49" s="18">
+      <c r="H49" s="17">
         <v>43153</v>
       </c>
     </row>
@@ -1812,35 +1855,35 @@
       <c r="G50" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H50" s="25"/>
+      <c r="H50" s="18"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F51" s="16"/>
       <c r="G51" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H51" s="25"/>
+      <c r="H51" s="18"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F52" s="16"/>
       <c r="G52" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H52" s="25"/>
+      <c r="H52" s="18"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F53" s="16"/>
       <c r="G53" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H53" s="25"/>
+      <c r="H53" s="18"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F54" s="16"/>
       <c r="G54" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H54" s="26"/>
+      <c r="H54" s="19"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F55" s="15" t="s">
@@ -1849,7 +1892,7 @@
       <c r="G55" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H55" s="18">
+      <c r="H55" s="17">
         <v>43154</v>
       </c>
     </row>
@@ -1868,11 +1911,11 @@
       <c r="H57" s="16"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F58" s="17"/>
+      <c r="F58" s="20"/>
       <c r="G58" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H58" s="17"/>
+      <c r="H58" s="20"/>
     </row>
     <row r="59" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="34" t="s">
@@ -1900,16 +1943,16 @@
       <c r="G60" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H60" s="18">
+      <c r="H60" s="17">
         <v>43157</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F61" s="17"/>
+      <c r="F61" s="20"/>
       <c r="G61" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H61" s="26"/>
+      <c r="H61" s="19"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F62" s="15" t="s">
@@ -1918,7 +1961,7 @@
       <c r="G62" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H62" s="18">
+      <c r="H62" s="17">
         <v>43158</v>
       </c>
     </row>
@@ -1927,42 +1970,42 @@
       <c r="G63" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H63" s="25"/>
+      <c r="H63" s="18"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F64" s="16"/>
       <c r="G64" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H64" s="25"/>
+      <c r="H64" s="18"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F65" s="16"/>
       <c r="G65" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H65" s="25"/>
+      <c r="H65" s="18"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F66" s="16"/>
       <c r="G66" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H66" s="25"/>
+      <c r="H66" s="18"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F67" s="16"/>
       <c r="G67" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H67" s="25"/>
+      <c r="H67" s="18"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F68" s="16"/>
       <c r="G68" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H68" s="25"/>
+      <c r="H68" s="18"/>
     </row>
     <row r="69" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
@@ -1974,7 +2017,7 @@
       <c r="G69" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="H69" s="25"/>
+      <c r="H69" s="18"/>
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
@@ -1984,11 +2027,11 @@
       <c r="O69" s="5"/>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F70" s="17"/>
+      <c r="F70" s="20"/>
       <c r="G70" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H70" s="26"/>
+      <c r="H70" s="19"/>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F71" s="15" t="s">
@@ -1997,7 +2040,7 @@
       <c r="G71" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="H71" s="18">
+      <c r="H71" s="17">
         <v>43159</v>
       </c>
     </row>
@@ -2044,11 +2087,11 @@
       <c r="H77" s="16"/>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F78" s="17"/>
+      <c r="F78" s="20"/>
       <c r="G78" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="H78" s="17"/>
+      <c r="H78" s="20"/>
     </row>
     <row r="79" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
@@ -2062,7 +2105,7 @@
       <c r="G79" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="H79" s="22">
+      <c r="H79" s="21">
         <v>43160</v>
       </c>
       <c r="I79" s="8"/>
@@ -2083,7 +2126,7 @@
       <c r="G80" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="H80" s="23"/>
+      <c r="H80" s="22"/>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
@@ -2102,7 +2145,7 @@
       <c r="G81" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="H81" s="23"/>
+      <c r="H81" s="22"/>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
@@ -2121,7 +2164,7 @@
       <c r="G82" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="H82" s="23"/>
+      <c r="H82" s="22"/>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
@@ -2140,7 +2183,7 @@
       <c r="G83" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="H83" s="23"/>
+      <c r="H83" s="22"/>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
@@ -2154,7 +2197,7 @@
       <c r="G84" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="H84" s="23"/>
+      <c r="H84" s="22"/>
     </row>
     <row r="85" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="8"/>
@@ -2162,11 +2205,11 @@
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
-      <c r="F85" s="17"/>
+      <c r="F85" s="20"/>
       <c r="G85" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="H85" s="24"/>
+      <c r="H85" s="23"/>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
@@ -2182,7 +2225,7 @@
       <c r="G86" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="H86" s="18">
+      <c r="H86" s="17">
         <v>43161</v>
       </c>
     </row>
@@ -2236,11 +2279,11 @@
       <c r="H93" s="16"/>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F94" s="17"/>
+      <c r="F94" s="20"/>
       <c r="G94" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="H94" s="17"/>
+      <c r="H94" s="20"/>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F95" s="15" t="s">
@@ -2249,7 +2292,7 @@
       <c r="G95" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H95" s="18">
+      <c r="H95" s="17">
         <v>43164</v>
       </c>
     </row>
@@ -2258,21 +2301,21 @@
       <c r="G96" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H96" s="25"/>
+      <c r="H96" s="18"/>
     </row>
     <row r="97" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F97" s="16"/>
       <c r="G97" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H97" s="25"/>
+      <c r="H97" s="18"/>
     </row>
     <row r="98" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F98" s="17"/>
+      <c r="F98" s="20"/>
       <c r="G98" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H98" s="26"/>
+      <c r="H98" s="19"/>
     </row>
     <row r="99" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F99" s="15" t="s">
@@ -2281,7 +2324,7 @@
       <c r="G99" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="H99" s="18">
+      <c r="H99" s="17">
         <v>43165</v>
       </c>
     </row>
@@ -2290,42 +2333,42 @@
       <c r="G100" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="H100" s="25"/>
+      <c r="H100" s="18"/>
     </row>
     <row r="101" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F101" s="16"/>
       <c r="G101" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="H101" s="25"/>
+      <c r="H101" s="18"/>
     </row>
     <row r="102" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F102" s="16"/>
       <c r="G102" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H102" s="25"/>
+      <c r="H102" s="18"/>
     </row>
     <row r="103" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F103" s="16"/>
       <c r="G103" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H103" s="25"/>
+      <c r="H103" s="18"/>
     </row>
     <row r="104" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F104" s="16"/>
       <c r="G104" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H104" s="25"/>
+      <c r="H104" s="18"/>
     </row>
     <row r="105" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F105" s="17"/>
+      <c r="F105" s="20"/>
       <c r="G105" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H105" s="26"/>
+      <c r="H105" s="19"/>
     </row>
     <row r="106" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F106" s="15" t="s">
@@ -2334,7 +2377,7 @@
       <c r="G106" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H106" s="18">
+      <c r="H106" s="17">
         <v>43166</v>
       </c>
     </row>
@@ -2343,21 +2386,21 @@
       <c r="G107" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H107" s="25"/>
+      <c r="H107" s="18"/>
     </row>
     <row r="108" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F108" s="16"/>
       <c r="G108" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="H108" s="26"/>
+      <c r="H108" s="19"/>
     </row>
     <row r="109" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F109" s="16"/>
       <c r="G109" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H109" s="18">
+      <c r="H109" s="17">
         <v>43167</v>
       </c>
     </row>
@@ -2366,21 +2409,21 @@
       <c r="G110" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H110" s="25"/>
+      <c r="H110" s="18"/>
     </row>
     <row r="111" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F111" s="16"/>
       <c r="G111" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H111" s="25"/>
+      <c r="H111" s="18"/>
     </row>
     <row r="112" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F112" s="17"/>
+      <c r="F112" s="20"/>
       <c r="G112" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="H112" s="26"/>
+      <c r="H112" s="19"/>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F113" s="15" t="s">
@@ -2389,16 +2432,16 @@
       <c r="G113" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="H113" s="18">
+      <c r="H113" s="17">
         <v>43168</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F114" s="17"/>
+      <c r="F114" s="20"/>
       <c r="G114" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H114" s="26"/>
+      <c r="H114" s="19"/>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G115" s="1" t="s">
@@ -2548,7 +2591,7 @@
     </row>
     <row r="130" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="34" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B130" s="35"/>
       <c r="C130" s="35"/>
@@ -2569,7 +2612,7 @@
       <c r="G131" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="H131" s="18">
+      <c r="H131" s="17">
         <v>43178</v>
       </c>
     </row>
@@ -2577,79 +2620,79 @@
       <c r="G132" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="H132" s="25"/>
+      <c r="H132" s="18"/>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G133" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="H133" s="25"/>
+      <c r="H133" s="18"/>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G134" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="H134" s="25"/>
+      <c r="H134" s="18"/>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G135" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="H135" s="25"/>
+      <c r="H135" s="18"/>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G136" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="H136" s="25"/>
+      <c r="H136" s="18"/>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G137" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H137" s="25"/>
+      <c r="H137" s="18"/>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G138" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="H138" s="25"/>
+      <c r="H138" s="18"/>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G139" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H139" s="25"/>
+      <c r="H139" s="18"/>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G140" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="H140" s="25"/>
+      <c r="H140" s="18"/>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G141" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="H141" s="25"/>
+      <c r="H141" s="18"/>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G142" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="H142" s="25"/>
+      <c r="H142" s="18"/>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G143" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="H143" s="26"/>
+      <c r="H143" s="19"/>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G144" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="H144" s="18">
+      <c r="H144" s="17">
         <v>43179</v>
       </c>
     </row>
@@ -2657,79 +2700,79 @@
       <c r="G145" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="H145" s="25"/>
+      <c r="H145" s="18"/>
     </row>
     <row r="146" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G146" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="H146" s="25"/>
+      <c r="H146" s="18"/>
     </row>
     <row r="147" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G147" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="H147" s="25"/>
+      <c r="H147" s="18"/>
     </row>
     <row r="148" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G148" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="H148" s="25"/>
+      <c r="H148" s="18"/>
     </row>
     <row r="149" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G149" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="H149" s="25"/>
+      <c r="H149" s="18"/>
     </row>
     <row r="150" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G150" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="H150" s="25"/>
+      <c r="H150" s="18"/>
     </row>
     <row r="151" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G151" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="H151" s="25"/>
+      <c r="H151" s="18"/>
     </row>
     <row r="152" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G152" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H152" s="25"/>
+      <c r="H152" s="18"/>
     </row>
     <row r="153" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G153" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="H153" s="25"/>
+      <c r="H153" s="18"/>
     </row>
     <row r="154" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G154" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="H154" s="25"/>
+      <c r="H154" s="18"/>
     </row>
     <row r="155" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G155" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="H155" s="25"/>
+      <c r="H155" s="18"/>
     </row>
     <row r="156" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G156" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="H156" s="26"/>
+      <c r="H156" s="19"/>
     </row>
     <row r="157" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G157" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="H157" s="18">
+      <c r="H157" s="17">
         <v>43180</v>
       </c>
     </row>
@@ -2737,49 +2780,49 @@
       <c r="G158" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="H158" s="25"/>
+      <c r="H158" s="18"/>
     </row>
     <row r="159" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G159" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="H159" s="25"/>
+      <c r="H159" s="18"/>
     </row>
     <row r="160" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G160" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="H160" s="25"/>
+      <c r="H160" s="18"/>
     </row>
     <row r="161" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G161" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="H161" s="25"/>
+      <c r="H161" s="18"/>
     </row>
     <row r="162" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G162" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="H162" s="25"/>
+      <c r="H162" s="18"/>
     </row>
     <row r="163" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G163" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="H163" s="25"/>
+      <c r="H163" s="18"/>
     </row>
     <row r="164" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G164" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="H164" s="26"/>
+      <c r="H164" s="19"/>
     </row>
     <row r="165" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G165" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="H165" s="18">
+      <c r="H165" s="17">
         <v>43181</v>
       </c>
     </row>
@@ -2805,7 +2848,7 @@
       <c r="G169" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="H169" s="17"/>
+      <c r="H169" s="20"/>
     </row>
     <row r="170" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G170" s="1" t="s">
@@ -2892,7 +2935,7 @@
     </row>
     <row r="186" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="34" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B186" s="35"/>
       <c r="C186" s="35"/>
@@ -2911,7 +2954,7 @@
     </row>
     <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G187" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H187" s="10">
         <v>43216</v>
@@ -2919,12 +2962,12 @@
     </row>
     <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G188" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G189" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H189" s="10">
         <v>43217</v>
@@ -2932,82 +2975,128 @@
     </row>
     <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G190" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G191" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G192" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="193" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G193" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="194" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G194" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="195" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G195" s="5" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="193" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G193" s="5" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="194" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G194" s="5"/>
-    </row>
-    <row r="195" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G195" s="5"/>
-    </row>
-    <row r="196" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G196" s="4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="197" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G197" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="198" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G198" s="4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="199" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G199" s="4"/>
-    </row>
-    <row r="200" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G200" s="4"/>
-    </row>
-    <row r="201" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G201" s="4"/>
-    </row>
-    <row r="202" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G202" s="4"/>
-    </row>
-    <row r="203" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G203" s="4"/>
-    </row>
-    <row r="204" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G204" s="4"/>
-    </row>
-    <row r="205" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G205" s="4"/>
-    </row>
-    <row r="29837" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C29837" s="2" t="s">
-        <v>137</v>
+    <row r="196" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G196" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="197" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G197" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="198" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G198" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="199" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G199" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="H199" s="10">
+        <v>43218</v>
+      </c>
+    </row>
+    <row r="200" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G200" s="8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="201" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G201" s="8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="202" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G202" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="203" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G203" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="204" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G204" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="205" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G205" s="8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="206" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G206" s="8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="207" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G207" s="8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="208" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G208" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="H208" s="10">
+        <v>43219</v>
+      </c>
+    </row>
+    <row r="209" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G209" s="8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="212" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G212" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G213" s="4" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="29838" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29838" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="C29838" s="2" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="29839" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29839" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C29839" s="2" t="s">
         <v>137</v>
@@ -3015,7 +3104,7 @@
     </row>
     <row r="29840" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29840" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C29840" s="2" t="s">
         <v>137</v>
@@ -3023,7 +3112,7 @@
     </row>
     <row r="29841" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29841" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C29841" s="2" t="s">
         <v>137</v>
@@ -3031,7 +3120,7 @@
     </row>
     <row r="29842" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29842" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C29842" s="2" t="s">
         <v>137</v>
@@ -3039,9 +3128,17 @@
     </row>
     <row r="29843" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29843" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C29843" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29844" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29844" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C29843" s="2" t="s">
+      <c r="C29844" s="2" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3071,11 +3168,6 @@
     <mergeCell ref="H28:H36"/>
     <mergeCell ref="F28:F36"/>
     <mergeCell ref="H18:H27"/>
-    <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="A2:XFD2"/>
-    <mergeCell ref="A3:XFD3"/>
-    <mergeCell ref="A4:XFD4"/>
-    <mergeCell ref="A5:O5"/>
     <mergeCell ref="F86:F94"/>
     <mergeCell ref="F95:F98"/>
     <mergeCell ref="H86:H94"/>
@@ -3084,14 +3176,19 @@
     <mergeCell ref="F79:F85"/>
     <mergeCell ref="F71:F78"/>
     <mergeCell ref="H71:H78"/>
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A2:XFD2"/>
+    <mergeCell ref="A3:XFD3"/>
+    <mergeCell ref="A4:XFD4"/>
+    <mergeCell ref="A5:O5"/>
+    <mergeCell ref="F49:F54"/>
+    <mergeCell ref="H49:H54"/>
+    <mergeCell ref="H55:H58"/>
     <mergeCell ref="H79:H85"/>
     <mergeCell ref="H62:H70"/>
     <mergeCell ref="F62:F70"/>
     <mergeCell ref="H60:H61"/>
     <mergeCell ref="F60:F61"/>
-    <mergeCell ref="F49:F54"/>
-    <mergeCell ref="H49:H54"/>
-    <mergeCell ref="H55:H58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
